--- a/AAII_Financials/Quarterly/XYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XYF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
   <si>
     <t>XYF</t>
   </si>
@@ -737,25 +737,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>124400</v>
+        <v>339100</v>
       </c>
       <c r="E8" s="3">
-        <v>116200</v>
+        <v>113300</v>
       </c>
       <c r="F8" s="3">
-        <v>111400</v>
+        <v>108700</v>
       </c>
       <c r="G8" s="3">
-        <v>123800</v>
+        <v>120800</v>
       </c>
       <c r="H8" s="3">
-        <v>119000</v>
+        <v>116100</v>
       </c>
       <c r="I8" s="3">
-        <v>265200</v>
+        <v>258700</v>
       </c>
       <c r="J8" s="3">
-        <v>113200</v>
+        <v>110400</v>
       </c>
       <c r="K8" s="3">
         <v>108200</v>
@@ -781,25 +781,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>65500</v>
+        <v>171000</v>
       </c>
       <c r="E9" s="3">
-        <v>60500</v>
+        <v>59000</v>
       </c>
       <c r="F9" s="3">
-        <v>48300</v>
+        <v>47100</v>
       </c>
       <c r="G9" s="3">
-        <v>47000</v>
+        <v>45800</v>
       </c>
       <c r="H9" s="3">
-        <v>40800</v>
+        <v>39800</v>
       </c>
       <c r="I9" s="3">
-        <v>82300</v>
+        <v>80300</v>
       </c>
       <c r="J9" s="3">
-        <v>41400</v>
+        <v>40300</v>
       </c>
       <c r="K9" s="3">
         <v>38100</v>
@@ -825,25 +825,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>58900</v>
+        <v>168100</v>
       </c>
       <c r="E10" s="3">
-        <v>55700</v>
+        <v>54300</v>
       </c>
       <c r="F10" s="3">
-        <v>63100</v>
+        <v>61600</v>
       </c>
       <c r="G10" s="3">
-        <v>76800</v>
+        <v>74900</v>
       </c>
       <c r="H10" s="3">
-        <v>78200</v>
+        <v>76300</v>
       </c>
       <c r="I10" s="3">
-        <v>182900</v>
+        <v>178400</v>
       </c>
       <c r="J10" s="3">
-        <v>71800</v>
+        <v>70000</v>
       </c>
       <c r="K10" s="3">
         <v>70100</v>
@@ -975,7 +975,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E14" s="3">
         <v>1800</v>
@@ -1078,25 +1078,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>90700</v>
+        <v>241400</v>
       </c>
       <c r="E17" s="3">
-        <v>80300</v>
+        <v>78300</v>
       </c>
       <c r="F17" s="3">
-        <v>71400</v>
+        <v>69600</v>
       </c>
       <c r="G17" s="3">
-        <v>82500</v>
+        <v>80500</v>
       </c>
       <c r="H17" s="3">
-        <v>79600</v>
+        <v>77700</v>
       </c>
       <c r="I17" s="3">
-        <v>162900</v>
+        <v>158900</v>
       </c>
       <c r="J17" s="3">
-        <v>77300</v>
+        <v>75400</v>
       </c>
       <c r="K17" s="3">
         <v>72900</v>
@@ -1122,25 +1122,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>33700</v>
+        <v>97700</v>
       </c>
       <c r="E18" s="3">
-        <v>35900</v>
+        <v>35000</v>
       </c>
       <c r="F18" s="3">
-        <v>40000</v>
+        <v>39100</v>
       </c>
       <c r="G18" s="3">
-        <v>41300</v>
+        <v>40300</v>
       </c>
       <c r="H18" s="3">
-        <v>39400</v>
+        <v>38400</v>
       </c>
       <c r="I18" s="3">
-        <v>102300</v>
+        <v>99800</v>
       </c>
       <c r="J18" s="3">
-        <v>35800</v>
+        <v>35000</v>
       </c>
       <c r="K18" s="3">
         <v>35300</v>
@@ -1184,25 +1184,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-13000</v>
+        <v>-6400</v>
       </c>
       <c r="E20" s="3">
-        <v>-9100</v>
+        <v>-8900</v>
       </c>
       <c r="F20" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="G20" s="3">
-        <v>-7500</v>
+        <v>-7300</v>
       </c>
       <c r="H20" s="3">
-        <v>-6300</v>
+        <v>-6200</v>
       </c>
       <c r="I20" s="3">
-        <v>-13500</v>
+        <v>-13100</v>
       </c>
       <c r="J20" s="3">
-        <v>-6100</v>
+        <v>-6000</v>
       </c>
       <c r="K20" s="3">
         <v>-2600</v>
@@ -1236,14 +1236,14 @@
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+      <c r="G21" s="3">
+        <v>34300</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I21" s="3">
-        <v>89500</v>
+        <v>87300</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1316,25 +1316,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>20700</v>
+        <v>91300</v>
       </c>
       <c r="E23" s="3">
-        <v>26800</v>
+        <v>26100</v>
       </c>
       <c r="F23" s="3">
-        <v>37200</v>
+        <v>36300</v>
       </c>
       <c r="G23" s="3">
-        <v>33800</v>
+        <v>33000</v>
       </c>
       <c r="H23" s="3">
-        <v>33000</v>
+        <v>32200</v>
       </c>
       <c r="I23" s="3">
-        <v>88800</v>
+        <v>86600</v>
       </c>
       <c r="J23" s="3">
-        <v>29700</v>
+        <v>29000</v>
       </c>
       <c r="K23" s="3">
         <v>32800</v>
@@ -1360,25 +1360,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2900</v>
+        <v>-3800</v>
       </c>
       <c r="E24" s="3">
-        <v>-16300</v>
+        <v>-15900</v>
       </c>
       <c r="F24" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="G24" s="3">
         <v>-500</v>
       </c>
       <c r="H24" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="I24" s="3">
-        <v>25700</v>
+        <v>25100</v>
       </c>
       <c r="J24" s="3">
-        <v>9300</v>
+        <v>9100</v>
       </c>
       <c r="K24" s="3">
         <v>9100</v>
@@ -1448,25 +1448,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>17700</v>
+        <v>95100</v>
       </c>
       <c r="E26" s="3">
-        <v>43100</v>
+        <v>42000</v>
       </c>
       <c r="F26" s="3">
-        <v>30100</v>
+        <v>29400</v>
       </c>
       <c r="G26" s="3">
-        <v>34300</v>
+        <v>33500</v>
       </c>
       <c r="H26" s="3">
-        <v>28100</v>
+        <v>27400</v>
       </c>
       <c r="I26" s="3">
-        <v>63100</v>
+        <v>61600</v>
       </c>
       <c r="J26" s="3">
-        <v>20400</v>
+        <v>19900</v>
       </c>
       <c r="K26" s="3">
         <v>23600</v>
@@ -1492,25 +1492,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>18900</v>
+        <v>97200</v>
       </c>
       <c r="E27" s="3">
-        <v>43600</v>
+        <v>42500</v>
       </c>
       <c r="F27" s="3">
-        <v>30600</v>
+        <v>29900</v>
       </c>
       <c r="G27" s="3">
-        <v>34700</v>
+        <v>33900</v>
       </c>
       <c r="H27" s="3">
-        <v>28400</v>
+        <v>27700</v>
       </c>
       <c r="I27" s="3">
-        <v>63600</v>
+        <v>62000</v>
       </c>
       <c r="J27" s="3">
-        <v>20400</v>
+        <v>19900</v>
       </c>
       <c r="K27" s="3">
         <v>23500</v>
@@ -1712,25 +1712,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>13000</v>
+        <v>6400</v>
       </c>
       <c r="E32" s="3">
-        <v>9100</v>
+        <v>8900</v>
       </c>
       <c r="F32" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="G32" s="3">
-        <v>7500</v>
+        <v>7300</v>
       </c>
       <c r="H32" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="I32" s="3">
-        <v>13500</v>
+        <v>13100</v>
       </c>
       <c r="J32" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="K32" s="3">
         <v>2600</v>
@@ -1756,25 +1756,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>18900</v>
+        <v>97200</v>
       </c>
       <c r="E33" s="3">
-        <v>43600</v>
+        <v>42500</v>
       </c>
       <c r="F33" s="3">
-        <v>30600</v>
+        <v>29900</v>
       </c>
       <c r="G33" s="3">
-        <v>34700</v>
+        <v>33900</v>
       </c>
       <c r="H33" s="3">
-        <v>28400</v>
+        <v>27700</v>
       </c>
       <c r="I33" s="3">
-        <v>63600</v>
+        <v>62000</v>
       </c>
       <c r="J33" s="3">
-        <v>20400</v>
+        <v>19900</v>
       </c>
       <c r="K33" s="3">
         <v>23500</v>
@@ -1844,25 +1844,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>18900</v>
+        <v>97200</v>
       </c>
       <c r="E35" s="3">
-        <v>43600</v>
+        <v>42500</v>
       </c>
       <c r="F35" s="3">
-        <v>30600</v>
+        <v>29900</v>
       </c>
       <c r="G35" s="3">
-        <v>34700</v>
+        <v>33900</v>
       </c>
       <c r="H35" s="3">
-        <v>28400</v>
+        <v>27700</v>
       </c>
       <c r="I35" s="3">
-        <v>63600</v>
+        <v>62000</v>
       </c>
       <c r="J35" s="3">
-        <v>20400</v>
+        <v>19900</v>
       </c>
       <c r="K35" s="3">
         <v>23500</v>
@@ -1973,22 +1973,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>133600</v>
+        <v>130300</v>
       </c>
       <c r="E41" s="3">
-        <v>133600</v>
+        <v>130300</v>
       </c>
       <c r="F41" s="3">
-        <v>223200</v>
+        <v>217700</v>
       </c>
       <c r="G41" s="3">
-        <v>153400</v>
+        <v>149700</v>
       </c>
       <c r="H41" s="3">
-        <v>210100</v>
+        <v>204900</v>
       </c>
       <c r="I41" s="3">
-        <v>89400</v>
+        <v>87200</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -2061,22 +2061,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>167400</v>
+        <v>163200</v>
       </c>
       <c r="E43" s="3">
-        <v>169800</v>
+        <v>165600</v>
       </c>
       <c r="F43" s="3">
-        <v>178900</v>
+        <v>174500</v>
       </c>
       <c r="G43" s="3">
-        <v>197900</v>
+        <v>193000</v>
       </c>
       <c r="H43" s="3">
-        <v>205200</v>
+        <v>200200</v>
       </c>
       <c r="I43" s="3">
-        <v>220100</v>
+        <v>214700</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -2149,22 +2149,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>83600</v>
+        <v>81600</v>
       </c>
       <c r="E45" s="3">
-        <v>93300</v>
+        <v>91000</v>
       </c>
       <c r="F45" s="3">
-        <v>32700</v>
+        <v>31900</v>
       </c>
       <c r="G45" s="3">
-        <v>16500</v>
+        <v>16100</v>
       </c>
       <c r="H45" s="3">
-        <v>30000</v>
+        <v>29300</v>
       </c>
       <c r="I45" s="3">
-        <v>26600</v>
+        <v>25900</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2237,22 +2237,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>406400</v>
+        <v>396400</v>
       </c>
       <c r="E47" s="3">
-        <v>305900</v>
+        <v>298400</v>
       </c>
       <c r="F47" s="3">
-        <v>157800</v>
+        <v>154000</v>
       </c>
       <c r="G47" s="3">
-        <v>158000</v>
+        <v>154200</v>
       </c>
       <c r="H47" s="3">
-        <v>98300</v>
+        <v>95900</v>
       </c>
       <c r="I47" s="3">
-        <v>140500</v>
+        <v>137000</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2281,19 +2281,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E48" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="F48" s="3">
         <v>3200</v>
       </c>
       <c r="G48" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="H48" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="I48" s="3">
         <v>2900</v>
@@ -2325,19 +2325,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="E49" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="F49" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="G49" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="H49" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="I49" s="3">
         <v>200</v>
@@ -2457,22 +2457,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>149300</v>
+        <v>145600</v>
       </c>
       <c r="E52" s="3">
-        <v>146900</v>
+        <v>143300</v>
       </c>
       <c r="F52" s="3">
-        <v>135900</v>
+        <v>132600</v>
       </c>
       <c r="G52" s="3">
-        <v>79600</v>
+        <v>77700</v>
       </c>
       <c r="H52" s="3">
-        <v>49800</v>
+        <v>48500</v>
       </c>
       <c r="I52" s="3">
-        <v>54500</v>
+        <v>53200</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2545,22 +2545,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1087400</v>
+        <v>1060700</v>
       </c>
       <c r="E54" s="3">
-        <v>977000</v>
+        <v>953100</v>
       </c>
       <c r="F54" s="3">
-        <v>825300</v>
+        <v>805100</v>
       </c>
       <c r="G54" s="3">
-        <v>665300</v>
+        <v>649000</v>
       </c>
       <c r="H54" s="3">
-        <v>601900</v>
+        <v>587100</v>
       </c>
       <c r="I54" s="3">
-        <v>536400</v>
+        <v>523200</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2669,16 +2669,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>57200</v>
+        <v>55800</v>
       </c>
       <c r="E58" s="3">
-        <v>57400</v>
+        <v>56000</v>
       </c>
       <c r="F58" s="3">
-        <v>57500</v>
+        <v>56100</v>
       </c>
       <c r="G58" s="3">
-        <v>28400</v>
+        <v>27700</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2713,22 +2713,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>414800</v>
+        <v>404600</v>
       </c>
       <c r="E59" s="3">
-        <v>328200</v>
+        <v>320100</v>
       </c>
       <c r="F59" s="3">
-        <v>228100</v>
+        <v>222500</v>
       </c>
       <c r="G59" s="3">
-        <v>122300</v>
+        <v>119300</v>
       </c>
       <c r="H59" s="3">
-        <v>128900</v>
+        <v>125800</v>
       </c>
       <c r="I59" s="3">
-        <v>165600</v>
+        <v>161600</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2801,22 +2801,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E61" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F61" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="G61" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="H61" s="3">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="I61" s="3">
-        <v>33200</v>
+        <v>32400</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="E62" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="F62" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="G62" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -3021,22 +3021,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>485500</v>
+        <v>473500</v>
       </c>
       <c r="E66" s="3">
-        <v>400400</v>
+        <v>390600</v>
       </c>
       <c r="F66" s="3">
-        <v>301400</v>
+        <v>294000</v>
       </c>
       <c r="G66" s="3">
-        <v>160700</v>
+        <v>156700</v>
       </c>
       <c r="H66" s="3">
-        <v>143500</v>
+        <v>140000</v>
       </c>
       <c r="I66" s="3">
-        <v>207300</v>
+        <v>202200</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -3259,22 +3259,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>170100</v>
+        <v>165900</v>
       </c>
       <c r="E72" s="3">
-        <v>151200</v>
+        <v>147500</v>
       </c>
       <c r="F72" s="3">
-        <v>107700</v>
+        <v>105000</v>
       </c>
       <c r="G72" s="3">
-        <v>91800</v>
+        <v>89600</v>
       </c>
       <c r="H72" s="3">
-        <v>57100</v>
+        <v>55700</v>
       </c>
       <c r="I72" s="3">
-        <v>28700</v>
+        <v>28000</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3435,22 +3435,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>601900</v>
+        <v>587200</v>
       </c>
       <c r="E76" s="3">
-        <v>576600</v>
+        <v>562500</v>
       </c>
       <c r="F76" s="3">
-        <v>523900</v>
+        <v>511100</v>
       </c>
       <c r="G76" s="3">
-        <v>504600</v>
+        <v>492200</v>
       </c>
       <c r="H76" s="3">
-        <v>458400</v>
+        <v>447100</v>
       </c>
       <c r="I76" s="3">
-        <v>329000</v>
+        <v>321000</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3572,25 +3572,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>18900</v>
+        <v>97200</v>
       </c>
       <c r="E81" s="3">
-        <v>43600</v>
+        <v>42500</v>
       </c>
       <c r="F81" s="3">
-        <v>30600</v>
+        <v>29900</v>
       </c>
       <c r="G81" s="3">
-        <v>34700</v>
+        <v>33900</v>
       </c>
       <c r="H81" s="3">
-        <v>28400</v>
+        <v>27700</v>
       </c>
       <c r="I81" s="3">
-        <v>63600</v>
+        <v>62000</v>
       </c>
       <c r="J81" s="3">
-        <v>20400</v>
+        <v>19900</v>
       </c>
       <c r="K81" s="3">
         <v>23500</v>

--- a/AAII_Financials/Quarterly/XYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
   <si>
     <t>XYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,244 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>339100</v>
+        <v>56300</v>
       </c>
       <c r="E8" s="3">
-        <v>113300</v>
+        <v>76800</v>
       </c>
       <c r="F8" s="3">
-        <v>108700</v>
+        <v>92300</v>
       </c>
       <c r="G8" s="3">
-        <v>120800</v>
+        <v>125900</v>
       </c>
       <c r="H8" s="3">
+        <v>115100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>112800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>125300</v>
+      </c>
+      <c r="K8" s="3">
         <v>116100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>258700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>110400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>108200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>67200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>57200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <v>32000</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>171000</v>
+        <v>72100</v>
       </c>
       <c r="E9" s="3">
-        <v>59000</v>
+        <v>61700</v>
       </c>
       <c r="F9" s="3">
-        <v>47100</v>
+        <v>61000</v>
       </c>
       <c r="G9" s="3">
-        <v>45800</v>
+        <v>66300</v>
       </c>
       <c r="H9" s="3">
+        <v>61300</v>
+      </c>
+      <c r="I9" s="3">
+        <v>48900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>47600</v>
+      </c>
+      <c r="K9" s="3">
         <v>39800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>80300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>40300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>38100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>30200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>27900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="Q9" s="3">
         <v>16200</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>168100</v>
+        <v>-15800</v>
       </c>
       <c r="E10" s="3">
-        <v>54300</v>
+        <v>15100</v>
       </c>
       <c r="F10" s="3">
-        <v>61600</v>
+        <v>31200</v>
       </c>
       <c r="G10" s="3">
-        <v>74900</v>
+        <v>59600</v>
       </c>
       <c r="H10" s="3">
+        <v>53700</v>
+      </c>
+      <c r="I10" s="3">
+        <v>63900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>77800</v>
+      </c>
+      <c r="K10" s="3">
         <v>76300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>178400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>70000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>70100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>37000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>29200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="Q10" s="3">
         <v>15700</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +919,11 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +966,17 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,28 +1019,37 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1800</v>
       </c>
-      <c r="E14" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -998,23 +1057,32 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-200</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1125,17 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1149,117 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>241400</v>
+        <v>105900</v>
       </c>
       <c r="E17" s="3">
-        <v>78300</v>
+        <v>95700</v>
       </c>
       <c r="F17" s="3">
-        <v>69600</v>
+        <v>87000</v>
       </c>
       <c r="G17" s="3">
-        <v>80500</v>
+        <v>91800</v>
       </c>
       <c r="H17" s="3">
+        <v>84400</v>
+      </c>
+      <c r="I17" s="3">
+        <v>72200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>83500</v>
+      </c>
+      <c r="K17" s="3">
         <v>77700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>158900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>75400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>72900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>45700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>50600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>21000</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>97700</v>
+        <v>-49600</v>
       </c>
       <c r="E18" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="F18" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>34100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>30700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>40500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>41800</v>
+      </c>
+      <c r="K18" s="3">
+        <v>38400</v>
+      </c>
+      <c r="L18" s="3">
+        <v>99800</v>
+      </c>
+      <c r="M18" s="3">
         <v>35000</v>
       </c>
-      <c r="F18" s="3">
-        <v>39100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>40300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>38400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>99800</v>
-      </c>
-      <c r="J18" s="3">
-        <v>35000</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>35300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>21500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>6600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>11000</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,52 +1276,64 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6400</v>
+        <v>-6700</v>
       </c>
       <c r="E20" s="3">
-        <v>-8900</v>
+        <v>-14300</v>
       </c>
       <c r="F20" s="3">
-        <v>-2700</v>
+        <v>5500</v>
       </c>
       <c r="G20" s="3">
-        <v>-7300</v>
+        <v>-13200</v>
       </c>
       <c r="H20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-6200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>-13100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>-6000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>-2600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1236,38 +1346,47 @@
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
-        <v>34300</v>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
+        <v>35600</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>87300</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>33600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>6700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1429,123 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>91300</v>
+        <v>-56300</v>
       </c>
       <c r="E23" s="3">
-        <v>26100</v>
+        <v>-33200</v>
       </c>
       <c r="F23" s="3">
-        <v>36300</v>
+        <v>10700</v>
       </c>
       <c r="G23" s="3">
-        <v>33000</v>
+        <v>20900</v>
       </c>
       <c r="H23" s="3">
+        <v>29800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>37600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>34200</v>
+      </c>
+      <c r="K23" s="3">
         <v>32200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>86600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>29000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>32800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>20900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>6400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>10800</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-3800</v>
+        <v>-6300</v>
       </c>
       <c r="E24" s="3">
-        <v>-15900</v>
+        <v>-4500</v>
       </c>
       <c r="F24" s="3">
-        <v>6900</v>
+        <v>-7200</v>
       </c>
       <c r="G24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="I24" s="3">
+        <v>7800</v>
+      </c>
+      <c r="J24" s="3">
         <v>-500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="K24" s="3">
         <v>4800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>25100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>9100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>9100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>6000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>2000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="Q24" s="3">
         <v>3300</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1588,123 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>95100</v>
+        <v>-50000</v>
       </c>
       <c r="E26" s="3">
-        <v>42000</v>
+        <v>-28600</v>
       </c>
       <c r="F26" s="3">
-        <v>29400</v>
+        <v>17900</v>
       </c>
       <c r="G26" s="3">
-        <v>33500</v>
+        <v>17900</v>
       </c>
       <c r="H26" s="3">
+        <v>45400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>29800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>34700</v>
+      </c>
+      <c r="K26" s="3">
         <v>27400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>61600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>19900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>23600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>14900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>4400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>7400</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>97200</v>
+        <v>-49900</v>
       </c>
       <c r="E27" s="3">
-        <v>42500</v>
+        <v>-28500</v>
       </c>
       <c r="F27" s="3">
-        <v>29900</v>
+        <v>18200</v>
       </c>
       <c r="G27" s="3">
-        <v>33900</v>
+        <v>19100</v>
       </c>
       <c r="H27" s="3">
+        <v>45900</v>
+      </c>
+      <c r="I27" s="3">
+        <v>30300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K27" s="3">
         <v>27700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>62000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>19900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>23500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>14900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>4400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>7500</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1747,17 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1800,17 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1853,17 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1906,123 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6400</v>
+        <v>6700</v>
       </c>
       <c r="E32" s="3">
-        <v>8900</v>
+        <v>14300</v>
       </c>
       <c r="F32" s="3">
-        <v>2700</v>
+        <v>-5500</v>
       </c>
       <c r="G32" s="3">
-        <v>7300</v>
+        <v>13200</v>
       </c>
       <c r="H32" s="3">
+        <v>900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K32" s="3">
         <v>6200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>13100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>6000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>2600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>97200</v>
+        <v>-49900</v>
       </c>
       <c r="E33" s="3">
-        <v>42500</v>
+        <v>-28500</v>
       </c>
       <c r="F33" s="3">
-        <v>29900</v>
+        <v>18200</v>
       </c>
       <c r="G33" s="3">
-        <v>33900</v>
+        <v>19100</v>
       </c>
       <c r="H33" s="3">
+        <v>45900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>30300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K33" s="3">
         <v>27700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>62000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>19900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>23500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>14900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>4400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>7500</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +2065,128 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>97200</v>
+        <v>-49900</v>
       </c>
       <c r="E35" s="3">
-        <v>42500</v>
+        <v>-28500</v>
       </c>
       <c r="F35" s="3">
-        <v>29900</v>
+        <v>18200</v>
       </c>
       <c r="G35" s="3">
-        <v>33900</v>
+        <v>19100</v>
       </c>
       <c r="H35" s="3">
+        <v>45900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>30300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K35" s="3">
         <v>27700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>62000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>19900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>23500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>14900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>4400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>7500</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2203,11 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,38 +2224,41 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>130300</v>
+        <v>48400</v>
       </c>
       <c r="E41" s="3">
-        <v>130300</v>
+        <v>88800</v>
       </c>
       <c r="F41" s="3">
-        <v>217700</v>
+        <v>146100</v>
       </c>
       <c r="G41" s="3">
-        <v>149700</v>
+        <v>135200</v>
       </c>
       <c r="H41" s="3">
+        <v>135200</v>
+      </c>
+      <c r="I41" s="3">
+        <v>225900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>155300</v>
+      </c>
+      <c r="K41" s="3">
         <v>204900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>87200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2011,8 +2271,17 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,38 +2324,47 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>163200</v>
+        <v>35800</v>
       </c>
       <c r="E43" s="3">
-        <v>165600</v>
+        <v>64100</v>
       </c>
       <c r="F43" s="3">
-        <v>174500</v>
+        <v>112000</v>
       </c>
       <c r="G43" s="3">
-        <v>193000</v>
+        <v>169400</v>
       </c>
       <c r="H43" s="3">
+        <v>171900</v>
+      </c>
+      <c r="I43" s="3">
+        <v>181100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>200300</v>
+      </c>
+      <c r="K43" s="3">
         <v>200200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>214700</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2377,17 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,38 +2430,47 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>81600</v>
+        <v>89400</v>
       </c>
       <c r="E45" s="3">
-        <v>91000</v>
+        <v>292400</v>
       </c>
       <c r="F45" s="3">
-        <v>31900</v>
+        <v>178100</v>
       </c>
       <c r="G45" s="3">
-        <v>16100</v>
+        <v>84600</v>
       </c>
       <c r="H45" s="3">
+        <v>94400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>33100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>16700</v>
+      </c>
+      <c r="K45" s="3">
         <v>29300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>25900</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,8 +2483,17 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,38 +2536,47 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>396400</v>
+        <v>685800</v>
       </c>
       <c r="E47" s="3">
-        <v>298400</v>
+        <v>407700</v>
       </c>
       <c r="F47" s="3">
-        <v>154000</v>
+        <v>501600</v>
       </c>
       <c r="G47" s="3">
-        <v>154200</v>
+        <v>411300</v>
       </c>
       <c r="H47" s="3">
+        <v>309600</v>
+      </c>
+      <c r="I47" s="3">
+        <v>159800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>160000</v>
+      </c>
+      <c r="K47" s="3">
         <v>95900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>137000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2275,38 +2589,47 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3100</v>
+        <v>2400</v>
       </c>
       <c r="E48" s="3">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="F48" s="3">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="G48" s="3">
         <v>3200</v>
       </c>
       <c r="H48" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J48" s="3">
         <v>3400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L48" s="3">
         <v>2900</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2319,38 +2642,47 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F49" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G49" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H49" s="3">
         <v>4700</v>
       </c>
-      <c r="E49" s="3">
-        <v>4500</v>
-      </c>
-      <c r="F49" s="3">
-        <v>4200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K49" s="3">
         <v>3900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>200</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2363,8 +2695,17 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2748,17 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,38 +2801,47 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>145600</v>
+        <v>237500</v>
       </c>
       <c r="E52" s="3">
-        <v>143300</v>
+        <v>215600</v>
       </c>
       <c r="F52" s="3">
-        <v>132600</v>
+        <v>142300</v>
       </c>
       <c r="G52" s="3">
-        <v>77700</v>
+        <v>151100</v>
       </c>
       <c r="H52" s="3">
+        <v>148700</v>
+      </c>
+      <c r="I52" s="3">
+        <v>137600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>80600</v>
+      </c>
+      <c r="K52" s="3">
         <v>48500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>53200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2495,8 +2854,17 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,38 +2907,47 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1060700</v>
+        <v>1179900</v>
       </c>
       <c r="E54" s="3">
-        <v>953100</v>
+        <v>1155700</v>
       </c>
       <c r="F54" s="3">
-        <v>805100</v>
+        <v>1202600</v>
       </c>
       <c r="G54" s="3">
-        <v>649000</v>
+        <v>1100700</v>
       </c>
       <c r="H54" s="3">
+        <v>989000</v>
+      </c>
+      <c r="I54" s="3">
+        <v>835400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>673400</v>
+      </c>
+      <c r="K54" s="3">
         <v>587100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>523200</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2960,17 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2987,11 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +3008,11 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,31 +3055,40 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>55800</v>
+        <v>49600</v>
       </c>
       <c r="E58" s="3">
-        <v>56000</v>
+        <v>49600</v>
       </c>
       <c r="F58" s="3">
-        <v>56100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>27700</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+        <v>57900</v>
+      </c>
+      <c r="H58" s="3">
+        <v>58100</v>
+      </c>
+      <c r="I58" s="3">
+        <v>58200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>28800</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2698,47 +3099,56 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>404600</v>
+        <v>558500</v>
       </c>
       <c r="E59" s="3">
-        <v>320100</v>
+        <v>484500</v>
       </c>
       <c r="F59" s="3">
-        <v>222500</v>
+        <v>559500</v>
       </c>
       <c r="G59" s="3">
-        <v>119300</v>
+        <v>419900</v>
       </c>
       <c r="H59" s="3">
+        <v>332200</v>
+      </c>
+      <c r="I59" s="3">
+        <v>230900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>123800</v>
+      </c>
+      <c r="K59" s="3">
         <v>125800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>161600</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,8 +3161,17 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,38 +3214,47 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1500</v>
+        <v>3100</v>
       </c>
       <c r="E61" s="3">
-        <v>2200</v>
+        <v>4700</v>
       </c>
       <c r="F61" s="3">
         <v>2500</v>
       </c>
       <c r="G61" s="3">
-        <v>2900</v>
+        <v>1600</v>
       </c>
       <c r="H61" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I61" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K61" s="3">
         <v>12600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>32400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2839,31 +3267,40 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6600</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>6600</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>6600</v>
+        <v>200</v>
       </c>
       <c r="G62" s="3">
-        <v>6600</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+        <v>6900</v>
+      </c>
+      <c r="H62" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I62" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>6900</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2874,17 +3311,26 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3373,17 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3426,17 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,38 +3479,47 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>473500</v>
+        <v>614800</v>
       </c>
       <c r="E66" s="3">
-        <v>390600</v>
+        <v>543100</v>
       </c>
       <c r="F66" s="3">
-        <v>294000</v>
+        <v>568500</v>
       </c>
       <c r="G66" s="3">
-        <v>156700</v>
+        <v>491400</v>
       </c>
       <c r="H66" s="3">
+        <v>405300</v>
+      </c>
+      <c r="I66" s="3">
+        <v>305100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>162600</v>
+      </c>
+      <c r="K66" s="3">
         <v>140000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>202200</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3059,8 +3532,17 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3559,11 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3606,17 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3659,17 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3712,17 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,38 +3765,47 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>165900</v>
+        <v>112000</v>
       </c>
       <c r="E72" s="3">
-        <v>147500</v>
+        <v>161900</v>
       </c>
       <c r="F72" s="3">
-        <v>105000</v>
+        <v>190400</v>
       </c>
       <c r="G72" s="3">
-        <v>89600</v>
+        <v>172200</v>
       </c>
       <c r="H72" s="3">
+        <v>153100</v>
+      </c>
+      <c r="I72" s="3">
+        <v>109000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>93000</v>
+      </c>
+      <c r="K72" s="3">
         <v>55700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>28000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3297,8 +3818,17 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3871,17 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3924,17 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,38 +3977,47 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>587200</v>
+        <v>565100</v>
       </c>
       <c r="E76" s="3">
-        <v>562500</v>
+        <v>612600</v>
       </c>
       <c r="F76" s="3">
-        <v>511100</v>
+        <v>634100</v>
       </c>
       <c r="G76" s="3">
-        <v>492200</v>
+        <v>609300</v>
       </c>
       <c r="H76" s="3">
+        <v>583600</v>
+      </c>
+      <c r="I76" s="3">
+        <v>530300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>510800</v>
+      </c>
+      <c r="K76" s="3">
         <v>447100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>321000</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +4030,17 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +4083,128 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>97200</v>
+        <v>-49900</v>
       </c>
       <c r="E81" s="3">
-        <v>42500</v>
+        <v>-28500</v>
       </c>
       <c r="F81" s="3">
-        <v>29900</v>
+        <v>18200</v>
       </c>
       <c r="G81" s="3">
-        <v>33900</v>
+        <v>19100</v>
       </c>
       <c r="H81" s="3">
+        <v>45900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>30300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K81" s="3">
         <v>27700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>62000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>19900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>23500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>14900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>4400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>7500</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4221,11 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3654,26 +4250,35 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4321,17 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4374,17 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4427,17 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4480,17 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4533,17 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3918,26 +4568,35 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4613,11 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3980,26 +4642,35 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4713,17 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4766,17 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4112,26 +4801,35 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4846,11 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4893,17 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4946,17 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4999,17 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +5052,17 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4350,26 +5087,35 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4394,26 +5140,35 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4438,22 +5193,31 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XYF_QTR_FIN.xlsx
@@ -748,25 +748,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>56300</v>
+        <v>59000</v>
       </c>
       <c r="E8" s="3">
-        <v>76800</v>
+        <v>80500</v>
       </c>
       <c r="F8" s="3">
-        <v>92300</v>
+        <v>96600</v>
       </c>
       <c r="G8" s="3">
-        <v>125900</v>
+        <v>131900</v>
       </c>
       <c r="H8" s="3">
-        <v>115100</v>
+        <v>120500</v>
       </c>
       <c r="I8" s="3">
-        <v>112800</v>
+        <v>118100</v>
       </c>
       <c r="J8" s="3">
-        <v>125300</v>
+        <v>131300</v>
       </c>
       <c r="K8" s="3">
         <v>116100</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>72100</v>
+        <v>75600</v>
       </c>
       <c r="E9" s="3">
-        <v>61700</v>
+        <v>64600</v>
       </c>
       <c r="F9" s="3">
-        <v>61000</v>
+        <v>63900</v>
       </c>
       <c r="G9" s="3">
-        <v>66300</v>
+        <v>69400</v>
       </c>
       <c r="H9" s="3">
-        <v>61300</v>
+        <v>64200</v>
       </c>
       <c r="I9" s="3">
-        <v>48900</v>
+        <v>51200</v>
       </c>
       <c r="J9" s="3">
-        <v>47600</v>
+        <v>49800</v>
       </c>
       <c r="K9" s="3">
         <v>39800</v>
@@ -854,25 +854,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-15800</v>
+        <v>-16600</v>
       </c>
       <c r="E10" s="3">
-        <v>15100</v>
+        <v>15800</v>
       </c>
       <c r="F10" s="3">
-        <v>31200</v>
+        <v>32700</v>
       </c>
       <c r="G10" s="3">
-        <v>59600</v>
+        <v>62400</v>
       </c>
       <c r="H10" s="3">
-        <v>53700</v>
+        <v>56300</v>
       </c>
       <c r="I10" s="3">
-        <v>63900</v>
+        <v>66900</v>
       </c>
       <c r="J10" s="3">
-        <v>77800</v>
+        <v>81400</v>
       </c>
       <c r="K10" s="3">
         <v>76300</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -1158,25 +1158,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>105900</v>
+        <v>111000</v>
       </c>
       <c r="E17" s="3">
-        <v>95700</v>
+        <v>100300</v>
       </c>
       <c r="F17" s="3">
-        <v>87000</v>
+        <v>91200</v>
       </c>
       <c r="G17" s="3">
-        <v>91800</v>
+        <v>96200</v>
       </c>
       <c r="H17" s="3">
-        <v>84400</v>
+        <v>88400</v>
       </c>
       <c r="I17" s="3">
-        <v>72200</v>
+        <v>75700</v>
       </c>
       <c r="J17" s="3">
-        <v>83500</v>
+        <v>87500</v>
       </c>
       <c r="K17" s="3">
         <v>77700</v>
@@ -1211,25 +1211,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-49600</v>
+        <v>-51900</v>
       </c>
       <c r="E18" s="3">
-        <v>-18900</v>
+        <v>-19800</v>
       </c>
       <c r="F18" s="3">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="G18" s="3">
-        <v>34100</v>
+        <v>35700</v>
       </c>
       <c r="H18" s="3">
-        <v>30700</v>
+        <v>32200</v>
       </c>
       <c r="I18" s="3">
-        <v>40500</v>
+        <v>42400</v>
       </c>
       <c r="J18" s="3">
-        <v>41800</v>
+        <v>43800</v>
       </c>
       <c r="K18" s="3">
         <v>38400</v>
@@ -1285,25 +1285,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6700</v>
+        <v>-7000</v>
       </c>
       <c r="E20" s="3">
-        <v>-14300</v>
+        <v>-14900</v>
       </c>
       <c r="F20" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="G20" s="3">
-        <v>-13200</v>
+        <v>-13800</v>
       </c>
       <c r="H20" s="3">
         <v>-900</v>
       </c>
       <c r="I20" s="3">
-        <v>-2900</v>
+        <v>-3100</v>
       </c>
       <c r="J20" s="3">
-        <v>-7600</v>
+        <v>-8000</v>
       </c>
       <c r="K20" s="3">
         <v>-6200</v>
@@ -1356,7 +1356,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="3">
-        <v>35600</v>
+        <v>37300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1444,25 +1444,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-56300</v>
+        <v>-59000</v>
       </c>
       <c r="E23" s="3">
-        <v>-33200</v>
+        <v>-34700</v>
       </c>
       <c r="F23" s="3">
-        <v>10700</v>
+        <v>11200</v>
       </c>
       <c r="G23" s="3">
-        <v>20900</v>
+        <v>21900</v>
       </c>
       <c r="H23" s="3">
-        <v>29800</v>
+        <v>31200</v>
       </c>
       <c r="I23" s="3">
-        <v>37600</v>
+        <v>39400</v>
       </c>
       <c r="J23" s="3">
-        <v>34200</v>
+        <v>35800</v>
       </c>
       <c r="K23" s="3">
         <v>32200</v>
@@ -1497,25 +1497,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-6300</v>
+        <v>-6600</v>
       </c>
       <c r="E24" s="3">
-        <v>-4500</v>
+        <v>-4700</v>
       </c>
       <c r="F24" s="3">
-        <v>-7200</v>
+        <v>-7500</v>
       </c>
       <c r="G24" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="H24" s="3">
-        <v>-15600</v>
+        <v>-16300</v>
       </c>
       <c r="I24" s="3">
-        <v>7800</v>
+        <v>8200</v>
       </c>
       <c r="J24" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="K24" s="3">
         <v>4800</v>
@@ -1603,25 +1603,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-50000</v>
+        <v>-52400</v>
       </c>
       <c r="E26" s="3">
-        <v>-28600</v>
+        <v>-30000</v>
       </c>
       <c r="F26" s="3">
-        <v>17900</v>
+        <v>18700</v>
       </c>
       <c r="G26" s="3">
-        <v>17900</v>
+        <v>18800</v>
       </c>
       <c r="H26" s="3">
-        <v>45400</v>
+        <v>47600</v>
       </c>
       <c r="I26" s="3">
-        <v>29800</v>
+        <v>31200</v>
       </c>
       <c r="J26" s="3">
-        <v>34700</v>
+        <v>36400</v>
       </c>
       <c r="K26" s="3">
         <v>27400</v>
@@ -1656,25 +1656,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-49900</v>
+        <v>-52300</v>
       </c>
       <c r="E27" s="3">
-        <v>-28500</v>
+        <v>-29900</v>
       </c>
       <c r="F27" s="3">
-        <v>18200</v>
+        <v>19100</v>
       </c>
       <c r="G27" s="3">
-        <v>19100</v>
+        <v>20000</v>
       </c>
       <c r="H27" s="3">
-        <v>45900</v>
+        <v>48100</v>
       </c>
       <c r="I27" s="3">
-        <v>30300</v>
+        <v>31800</v>
       </c>
       <c r="J27" s="3">
-        <v>35100</v>
+        <v>36800</v>
       </c>
       <c r="K27" s="3">
         <v>27700</v>
@@ -1921,25 +1921,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="E32" s="3">
-        <v>14300</v>
+        <v>14900</v>
       </c>
       <c r="F32" s="3">
-        <v>-5500</v>
+        <v>-5700</v>
       </c>
       <c r="G32" s="3">
-        <v>13200</v>
+        <v>13800</v>
       </c>
       <c r="H32" s="3">
         <v>900</v>
       </c>
       <c r="I32" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="J32" s="3">
-        <v>7600</v>
+        <v>8000</v>
       </c>
       <c r="K32" s="3">
         <v>6200</v>
@@ -1974,25 +1974,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-49900</v>
+        <v>-52300</v>
       </c>
       <c r="E33" s="3">
-        <v>-28500</v>
+        <v>-29900</v>
       </c>
       <c r="F33" s="3">
-        <v>18200</v>
+        <v>19100</v>
       </c>
       <c r="G33" s="3">
-        <v>19100</v>
+        <v>20000</v>
       </c>
       <c r="H33" s="3">
-        <v>45900</v>
+        <v>48100</v>
       </c>
       <c r="I33" s="3">
-        <v>30300</v>
+        <v>31800</v>
       </c>
       <c r="J33" s="3">
-        <v>35100</v>
+        <v>36800</v>
       </c>
       <c r="K33" s="3">
         <v>27700</v>
@@ -2080,25 +2080,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-49900</v>
+        <v>-52300</v>
       </c>
       <c r="E35" s="3">
-        <v>-28500</v>
+        <v>-29900</v>
       </c>
       <c r="F35" s="3">
-        <v>18200</v>
+        <v>19100</v>
       </c>
       <c r="G35" s="3">
-        <v>19100</v>
+        <v>20000</v>
       </c>
       <c r="H35" s="3">
-        <v>45900</v>
+        <v>48100</v>
       </c>
       <c r="I35" s="3">
-        <v>30300</v>
+        <v>31800</v>
       </c>
       <c r="J35" s="3">
-        <v>35100</v>
+        <v>36800</v>
       </c>
       <c r="K35" s="3">
         <v>27700</v>
@@ -2233,25 +2233,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>48400</v>
+        <v>50700</v>
       </c>
       <c r="E41" s="3">
-        <v>88800</v>
+        <v>93000</v>
       </c>
       <c r="F41" s="3">
-        <v>146100</v>
+        <v>153000</v>
       </c>
       <c r="G41" s="3">
-        <v>135200</v>
+        <v>141600</v>
       </c>
       <c r="H41" s="3">
-        <v>135200</v>
+        <v>141600</v>
       </c>
       <c r="I41" s="3">
-        <v>225900</v>
+        <v>236600</v>
       </c>
       <c r="J41" s="3">
-        <v>155300</v>
+        <v>162700</v>
       </c>
       <c r="K41" s="3">
         <v>204900</v>
@@ -2339,25 +2339,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>35800</v>
+        <v>37500</v>
       </c>
       <c r="E43" s="3">
-        <v>64100</v>
+        <v>67100</v>
       </c>
       <c r="F43" s="3">
-        <v>112000</v>
+        <v>117300</v>
       </c>
       <c r="G43" s="3">
-        <v>169400</v>
+        <v>177400</v>
       </c>
       <c r="H43" s="3">
-        <v>171900</v>
+        <v>180000</v>
       </c>
       <c r="I43" s="3">
-        <v>181100</v>
+        <v>189700</v>
       </c>
       <c r="J43" s="3">
-        <v>200300</v>
+        <v>209800</v>
       </c>
       <c r="K43" s="3">
         <v>200200</v>
@@ -2445,25 +2445,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>89400</v>
+        <v>93600</v>
       </c>
       <c r="E45" s="3">
-        <v>292400</v>
+        <v>306300</v>
       </c>
       <c r="F45" s="3">
-        <v>178100</v>
+        <v>186500</v>
       </c>
       <c r="G45" s="3">
-        <v>84600</v>
+        <v>88700</v>
       </c>
       <c r="H45" s="3">
-        <v>94400</v>
+        <v>98900</v>
       </c>
       <c r="I45" s="3">
-        <v>33100</v>
+        <v>34700</v>
       </c>
       <c r="J45" s="3">
-        <v>16700</v>
+        <v>17500</v>
       </c>
       <c r="K45" s="3">
         <v>29300</v>
@@ -2551,25 +2551,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>685800</v>
+        <v>718300</v>
       </c>
       <c r="E47" s="3">
-        <v>407700</v>
+        <v>427000</v>
       </c>
       <c r="F47" s="3">
-        <v>501600</v>
+        <v>525400</v>
       </c>
       <c r="G47" s="3">
-        <v>411300</v>
+        <v>430800</v>
       </c>
       <c r="H47" s="3">
-        <v>309600</v>
+        <v>324300</v>
       </c>
       <c r="I47" s="3">
-        <v>159800</v>
+        <v>167400</v>
       </c>
       <c r="J47" s="3">
-        <v>160000</v>
+        <v>167600</v>
       </c>
       <c r="K47" s="3">
         <v>95900</v>
@@ -2604,25 +2604,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E48" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F48" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="G48" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="H48" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="I48" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="J48" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="K48" s="3">
         <v>3400</v>
@@ -2657,25 +2657,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="E49" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F49" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G49" s="3">
         <v>5100</v>
       </c>
-      <c r="F49" s="3">
-        <v>5100</v>
-      </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4900</v>
       </c>
-      <c r="H49" s="3">
-        <v>4700</v>
-      </c>
       <c r="I49" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="J49" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="K49" s="3">
         <v>3900</v>
@@ -2816,25 +2816,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>237500</v>
+        <v>248700</v>
       </c>
       <c r="E52" s="3">
-        <v>215600</v>
+        <v>225800</v>
       </c>
       <c r="F52" s="3">
-        <v>142300</v>
+        <v>149000</v>
       </c>
       <c r="G52" s="3">
-        <v>151100</v>
+        <v>158300</v>
       </c>
       <c r="H52" s="3">
-        <v>148700</v>
+        <v>155700</v>
       </c>
       <c r="I52" s="3">
-        <v>137600</v>
+        <v>144100</v>
       </c>
       <c r="J52" s="3">
-        <v>80600</v>
+        <v>84400</v>
       </c>
       <c r="K52" s="3">
         <v>48500</v>
@@ -2922,25 +2922,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1179900</v>
+        <v>1235900</v>
       </c>
       <c r="E54" s="3">
-        <v>1155700</v>
+        <v>1210500</v>
       </c>
       <c r="F54" s="3">
-        <v>1202600</v>
+        <v>1259600</v>
       </c>
       <c r="G54" s="3">
-        <v>1100700</v>
+        <v>1152900</v>
       </c>
       <c r="H54" s="3">
-        <v>989000</v>
+        <v>1035900</v>
       </c>
       <c r="I54" s="3">
-        <v>835400</v>
+        <v>875000</v>
       </c>
       <c r="J54" s="3">
-        <v>673400</v>
+        <v>705400</v>
       </c>
       <c r="K54" s="3">
         <v>587100</v>
@@ -3070,25 +3070,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>49600</v>
+        <v>51900</v>
       </c>
       <c r="E58" s="3">
-        <v>49600</v>
+        <v>51900</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>57900</v>
+        <v>60700</v>
       </c>
       <c r="H58" s="3">
-        <v>58100</v>
+        <v>60800</v>
       </c>
       <c r="I58" s="3">
-        <v>58200</v>
+        <v>61000</v>
       </c>
       <c r="J58" s="3">
-        <v>28800</v>
+        <v>30100</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -3123,25 +3123,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>558500</v>
+        <v>585000</v>
       </c>
       <c r="E59" s="3">
-        <v>484500</v>
+        <v>507500</v>
       </c>
       <c r="F59" s="3">
-        <v>559500</v>
+        <v>586000</v>
       </c>
       <c r="G59" s="3">
-        <v>419900</v>
+        <v>439800</v>
       </c>
       <c r="H59" s="3">
-        <v>332200</v>
+        <v>347900</v>
       </c>
       <c r="I59" s="3">
-        <v>230900</v>
+        <v>241800</v>
       </c>
       <c r="J59" s="3">
-        <v>123800</v>
+        <v>129700</v>
       </c>
       <c r="K59" s="3">
         <v>125800</v>
@@ -3229,25 +3229,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="E61" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="F61" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="G61" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="H61" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I61" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="J61" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="K61" s="3">
         <v>12600</v>
@@ -3291,16 +3291,16 @@
         <v>200</v>
       </c>
       <c r="G62" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="H62" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="I62" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="J62" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -3494,25 +3494,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>614800</v>
+        <v>644000</v>
       </c>
       <c r="E66" s="3">
-        <v>543100</v>
+        <v>568900</v>
       </c>
       <c r="F66" s="3">
-        <v>568500</v>
+        <v>595500</v>
       </c>
       <c r="G66" s="3">
-        <v>491400</v>
+        <v>514700</v>
       </c>
       <c r="H66" s="3">
-        <v>405300</v>
+        <v>424500</v>
       </c>
       <c r="I66" s="3">
-        <v>305100</v>
+        <v>319500</v>
       </c>
       <c r="J66" s="3">
-        <v>162600</v>
+        <v>170400</v>
       </c>
       <c r="K66" s="3">
         <v>140000</v>
@@ -3780,25 +3780,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>112000</v>
+        <v>117300</v>
       </c>
       <c r="E72" s="3">
-        <v>161900</v>
+        <v>169600</v>
       </c>
       <c r="F72" s="3">
-        <v>190400</v>
+        <v>199500</v>
       </c>
       <c r="G72" s="3">
-        <v>172200</v>
+        <v>180400</v>
       </c>
       <c r="H72" s="3">
-        <v>153100</v>
+        <v>160300</v>
       </c>
       <c r="I72" s="3">
-        <v>109000</v>
+        <v>114200</v>
       </c>
       <c r="J72" s="3">
-        <v>93000</v>
+        <v>97400</v>
       </c>
       <c r="K72" s="3">
         <v>55700</v>
@@ -3992,25 +3992,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>565100</v>
+        <v>591900</v>
       </c>
       <c r="E76" s="3">
-        <v>612600</v>
+        <v>641700</v>
       </c>
       <c r="F76" s="3">
-        <v>634100</v>
+        <v>664100</v>
       </c>
       <c r="G76" s="3">
-        <v>609300</v>
+        <v>638200</v>
       </c>
       <c r="H76" s="3">
-        <v>583600</v>
+        <v>611300</v>
       </c>
       <c r="I76" s="3">
-        <v>530300</v>
+        <v>555500</v>
       </c>
       <c r="J76" s="3">
-        <v>510800</v>
+        <v>535000</v>
       </c>
       <c r="K76" s="3">
         <v>447100</v>
@@ -4156,25 +4156,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-49900</v>
+        <v>-52300</v>
       </c>
       <c r="E81" s="3">
-        <v>-28500</v>
+        <v>-29900</v>
       </c>
       <c r="F81" s="3">
-        <v>18200</v>
+        <v>19100</v>
       </c>
       <c r="G81" s="3">
-        <v>19100</v>
+        <v>20000</v>
       </c>
       <c r="H81" s="3">
-        <v>45900</v>
+        <v>48100</v>
       </c>
       <c r="I81" s="3">
-        <v>30300</v>
+        <v>31800</v>
       </c>
       <c r="J81" s="3">
-        <v>35100</v>
+        <v>36800</v>
       </c>
       <c r="K81" s="3">
         <v>27700</v>

--- a/AAII_Financials/Quarterly/XYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
   <si>
     <t>XYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>59000</v>
+        <v>85500</v>
       </c>
       <c r="E8" s="3">
-        <v>80500</v>
+        <v>59300</v>
       </c>
       <c r="F8" s="3">
-        <v>96600</v>
+        <v>80800</v>
       </c>
       <c r="G8" s="3">
-        <v>131900</v>
+        <v>97100</v>
       </c>
       <c r="H8" s="3">
-        <v>120500</v>
+        <v>130500</v>
       </c>
       <c r="I8" s="3">
-        <v>118100</v>
+        <v>121000</v>
       </c>
       <c r="J8" s="3">
+        <v>118600</v>
+      </c>
+      <c r="K8" s="3">
         <v>131300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>116100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>258700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>110400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>108200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>67200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>57200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>32000</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>75600</v>
+        <v>85700</v>
       </c>
       <c r="E9" s="3">
-        <v>64600</v>
+        <v>75900</v>
       </c>
       <c r="F9" s="3">
-        <v>63900</v>
+        <v>64900</v>
       </c>
       <c r="G9" s="3">
-        <v>69400</v>
+        <v>64200</v>
       </c>
       <c r="H9" s="3">
-        <v>64200</v>
+        <v>71500</v>
       </c>
       <c r="I9" s="3">
-        <v>51200</v>
+        <v>64500</v>
       </c>
       <c r="J9" s="3">
+        <v>51400</v>
+      </c>
+      <c r="K9" s="3">
         <v>49800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>39800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>80300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>40300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>38100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>30200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>27900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>16200</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E10" s="3">
         <v>-16600</v>
       </c>
-      <c r="E10" s="3">
-        <v>15800</v>
-      </c>
       <c r="F10" s="3">
-        <v>32700</v>
+        <v>15900</v>
       </c>
       <c r="G10" s="3">
-        <v>62400</v>
+        <v>32900</v>
       </c>
       <c r="H10" s="3">
-        <v>56300</v>
+        <v>59000</v>
       </c>
       <c r="I10" s="3">
-        <v>66900</v>
+        <v>56500</v>
       </c>
       <c r="J10" s="3">
+        <v>67200</v>
+      </c>
+      <c r="K10" s="3">
         <v>81400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>76300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>178400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>70000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>70100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>37000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>29200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>15700</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,31 +1045,34 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1900</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1066,23 +1086,26 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3">
         <v>-200</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>111000</v>
+        <v>101000</v>
       </c>
       <c r="E17" s="3">
-        <v>100300</v>
+        <v>111400</v>
       </c>
       <c r="F17" s="3">
-        <v>91200</v>
+        <v>100700</v>
       </c>
       <c r="G17" s="3">
-        <v>96200</v>
+        <v>91500</v>
       </c>
       <c r="H17" s="3">
-        <v>88400</v>
+        <v>97700</v>
       </c>
       <c r="I17" s="3">
-        <v>75700</v>
+        <v>88700</v>
       </c>
       <c r="J17" s="3">
+        <v>76000</v>
+      </c>
+      <c r="K17" s="3">
         <v>87500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>77700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>158900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>75400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>72900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>45700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>50600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>21000</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-51900</v>
+        <v>-15500</v>
       </c>
       <c r="E18" s="3">
-        <v>-19800</v>
+        <v>-52200</v>
       </c>
       <c r="F18" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="G18" s="3">
         <v>5500</v>
       </c>
-      <c r="G18" s="3">
-        <v>35700</v>
-      </c>
       <c r="H18" s="3">
-        <v>32200</v>
+        <v>32800</v>
       </c>
       <c r="I18" s="3">
-        <v>42400</v>
+        <v>32300</v>
       </c>
       <c r="J18" s="3">
+        <v>42600</v>
+      </c>
+      <c r="K18" s="3">
         <v>43800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>38400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>99800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>35000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>35300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>21500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>11000</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,61 +1312,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-7000</v>
+        <v>-1000</v>
       </c>
       <c r="E20" s="3">
-        <v>-14900</v>
+        <v>-7100</v>
       </c>
       <c r="F20" s="3">
-        <v>5700</v>
+        <v>-15000</v>
       </c>
       <c r="G20" s="3">
-        <v>-13800</v>
+        <v>5800</v>
       </c>
       <c r="H20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-8000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-13100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-200</v>
       </c>
       <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>-200</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1355,38 +1392,41 @@
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>37300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>87300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>33600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>6700</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-59000</v>
+        <v>-16500</v>
       </c>
       <c r="E23" s="3">
-        <v>-34700</v>
+        <v>-59200</v>
       </c>
       <c r="F23" s="3">
-        <v>11200</v>
+        <v>-34900</v>
       </c>
       <c r="G23" s="3">
-        <v>21900</v>
+        <v>11300</v>
       </c>
       <c r="H23" s="3">
-        <v>31200</v>
+        <v>28700</v>
       </c>
       <c r="I23" s="3">
-        <v>39400</v>
+        <v>31400</v>
       </c>
       <c r="J23" s="3">
+        <v>39600</v>
+      </c>
+      <c r="K23" s="3">
         <v>35800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>32200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>86600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>29000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>32800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>20900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>10800</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-6600</v>
       </c>
-      <c r="E24" s="3">
-        <v>-4700</v>
-      </c>
       <c r="F24" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="G24" s="3">
         <v>-7500</v>
       </c>
-      <c r="G24" s="3">
-        <v>3100</v>
-      </c>
       <c r="H24" s="3">
-        <v>-16300</v>
+        <v>4100</v>
       </c>
       <c r="I24" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="J24" s="3">
         <v>8200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>25100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>9100</v>
       </c>
       <c r="N24" s="3">
         <v>9100</v>
       </c>
       <c r="O24" s="3">
+        <v>9100</v>
+      </c>
+      <c r="P24" s="3">
         <v>6000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3300</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-52400</v>
+        <v>-16800</v>
       </c>
       <c r="E26" s="3">
-        <v>-30000</v>
+        <v>-52600</v>
       </c>
       <c r="F26" s="3">
-        <v>18700</v>
+        <v>-30100</v>
       </c>
       <c r="G26" s="3">
         <v>18800</v>
       </c>
       <c r="H26" s="3">
-        <v>47600</v>
+        <v>24700</v>
       </c>
       <c r="I26" s="3">
-        <v>31200</v>
+        <v>47800</v>
       </c>
       <c r="J26" s="3">
+        <v>31400</v>
+      </c>
+      <c r="K26" s="3">
         <v>36400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>27400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>61600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>19900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>23600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>14900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7400</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-52300</v>
+        <v>-17300</v>
       </c>
       <c r="E27" s="3">
-        <v>-29900</v>
+        <v>-52500</v>
       </c>
       <c r="F27" s="3">
-        <v>19100</v>
+        <v>-30000</v>
       </c>
       <c r="G27" s="3">
-        <v>20000</v>
+        <v>19200</v>
       </c>
       <c r="H27" s="3">
-        <v>48100</v>
+        <v>25900</v>
       </c>
       <c r="I27" s="3">
-        <v>31800</v>
+        <v>48300</v>
       </c>
       <c r="J27" s="3">
+        <v>31900</v>
+      </c>
+      <c r="K27" s="3">
         <v>36800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>27700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>62000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>19900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>23500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>14900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7500</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7000</v>
+        <v>1000</v>
       </c>
       <c r="E32" s="3">
-        <v>14900</v>
+        <v>7100</v>
       </c>
       <c r="F32" s="3">
-        <v>-5700</v>
+        <v>15000</v>
       </c>
       <c r="G32" s="3">
-        <v>13800</v>
+        <v>-5800</v>
       </c>
       <c r="H32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>8000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>13100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
-      </c>
-      <c r="P32" s="3">
-        <v>200</v>
       </c>
       <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>200</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-52300</v>
+        <v>-17300</v>
       </c>
       <c r="E33" s="3">
-        <v>-29900</v>
+        <v>-52500</v>
       </c>
       <c r="F33" s="3">
-        <v>19100</v>
+        <v>-30000</v>
       </c>
       <c r="G33" s="3">
-        <v>20000</v>
+        <v>19200</v>
       </c>
       <c r="H33" s="3">
-        <v>48100</v>
+        <v>25900</v>
       </c>
       <c r="I33" s="3">
-        <v>31800</v>
+        <v>48300</v>
       </c>
       <c r="J33" s="3">
+        <v>31900</v>
+      </c>
+      <c r="K33" s="3">
         <v>36800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>27700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>62000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>19900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>23500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>14900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7500</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-52300</v>
+        <v>-17300</v>
       </c>
       <c r="E35" s="3">
-        <v>-29900</v>
+        <v>-52500</v>
       </c>
       <c r="F35" s="3">
-        <v>19100</v>
+        <v>-30000</v>
       </c>
       <c r="G35" s="3">
-        <v>20000</v>
+        <v>19200</v>
       </c>
       <c r="H35" s="3">
-        <v>48100</v>
+        <v>25900</v>
       </c>
       <c r="I35" s="3">
-        <v>31800</v>
+        <v>48300</v>
       </c>
       <c r="J35" s="3">
+        <v>31900</v>
+      </c>
+      <c r="K35" s="3">
         <v>36800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>27700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>62000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>19900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>23500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>14900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7500</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,41 +2313,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>50700</v>
+        <v>49500</v>
       </c>
       <c r="E41" s="3">
-        <v>93000</v>
+        <v>51000</v>
       </c>
       <c r="F41" s="3">
-        <v>153000</v>
+        <v>93400</v>
       </c>
       <c r="G41" s="3">
-        <v>141600</v>
+        <v>153700</v>
       </c>
       <c r="H41" s="3">
-        <v>141600</v>
+        <v>142200</v>
       </c>
       <c r="I41" s="3">
-        <v>236600</v>
+        <v>142200</v>
       </c>
       <c r="J41" s="3">
+        <v>237600</v>
+      </c>
+      <c r="K41" s="3">
         <v>162700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>204900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>87200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,41 +2423,44 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>37500</v>
+        <v>46800</v>
       </c>
       <c r="E43" s="3">
-        <v>67100</v>
+        <v>37700</v>
       </c>
       <c r="F43" s="3">
-        <v>117300</v>
+        <v>67400</v>
       </c>
       <c r="G43" s="3">
-        <v>177400</v>
+        <v>117800</v>
       </c>
       <c r="H43" s="3">
-        <v>180000</v>
+        <v>178200</v>
       </c>
       <c r="I43" s="3">
-        <v>189700</v>
+        <v>180800</v>
       </c>
       <c r="J43" s="3">
+        <v>190500</v>
+      </c>
+      <c r="K43" s="3">
         <v>209800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>200200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>214700</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,41 +2535,44 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>93600</v>
+        <v>80000</v>
       </c>
       <c r="E45" s="3">
-        <v>306300</v>
+        <v>94000</v>
       </c>
       <c r="F45" s="3">
-        <v>186500</v>
+        <v>307600</v>
       </c>
       <c r="G45" s="3">
-        <v>88700</v>
+        <v>187300</v>
       </c>
       <c r="H45" s="3">
-        <v>98900</v>
+        <v>89000</v>
       </c>
       <c r="I45" s="3">
-        <v>34700</v>
+        <v>99300</v>
       </c>
       <c r="J45" s="3">
+        <v>34900</v>
+      </c>
+      <c r="K45" s="3">
         <v>17500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>29300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>25900</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,41 +2647,44 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>718300</v>
+        <v>772200</v>
       </c>
       <c r="E47" s="3">
-        <v>427000</v>
+        <v>721400</v>
       </c>
       <c r="F47" s="3">
-        <v>525400</v>
+        <v>428900</v>
       </c>
       <c r="G47" s="3">
-        <v>430800</v>
+        <v>527600</v>
       </c>
       <c r="H47" s="3">
-        <v>324300</v>
+        <v>432700</v>
       </c>
       <c r="I47" s="3">
-        <v>167400</v>
+        <v>325700</v>
       </c>
       <c r="J47" s="3">
+        <v>168100</v>
+      </c>
+      <c r="K47" s="3">
         <v>167600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>95900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>137000</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2598,41 +2703,44 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2500</v>
       </c>
-      <c r="E48" s="3">
-        <v>2700</v>
-      </c>
       <c r="F48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G48" s="3">
         <v>3100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2900</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2660,32 +2771,32 @@
         <v>5800</v>
       </c>
       <c r="E49" s="3">
-        <v>5300</v>
+        <v>5800</v>
       </c>
       <c r="F49" s="3">
         <v>5300</v>
       </c>
       <c r="G49" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H49" s="3">
         <v>5100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>200</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,41 +2927,44 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>248700</v>
+        <v>204000</v>
       </c>
       <c r="E52" s="3">
-        <v>225800</v>
+        <v>249800</v>
       </c>
       <c r="F52" s="3">
-        <v>149000</v>
+        <v>226800</v>
       </c>
       <c r="G52" s="3">
-        <v>158300</v>
+        <v>149700</v>
       </c>
       <c r="H52" s="3">
-        <v>155700</v>
+        <v>159000</v>
       </c>
       <c r="I52" s="3">
-        <v>144100</v>
+        <v>156400</v>
       </c>
       <c r="J52" s="3">
+        <v>144700</v>
+      </c>
+      <c r="K52" s="3">
         <v>84400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>48500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>53200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,41 +3039,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1235900</v>
+        <v>1243300</v>
       </c>
       <c r="E54" s="3">
-        <v>1210500</v>
+        <v>1241200</v>
       </c>
       <c r="F54" s="3">
-        <v>1259600</v>
+        <v>1215800</v>
       </c>
       <c r="G54" s="3">
-        <v>1152900</v>
+        <v>1265100</v>
       </c>
       <c r="H54" s="3">
-        <v>1035900</v>
+        <v>1157900</v>
       </c>
       <c r="I54" s="3">
-        <v>875000</v>
+        <v>1040400</v>
       </c>
       <c r="J54" s="3">
+        <v>878800</v>
+      </c>
+      <c r="K54" s="3">
         <v>705400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>587100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>523200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,35 +3195,38 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>51900</v>
+        <v>49300</v>
       </c>
       <c r="E58" s="3">
-        <v>51900</v>
+        <v>52200</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>52200</v>
       </c>
       <c r="G58" s="3">
-        <v>60700</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>60800</v>
+        <v>61000</v>
       </c>
       <c r="I58" s="3">
-        <v>61000</v>
+        <v>61100</v>
       </c>
       <c r="J58" s="3">
+        <v>61300</v>
+      </c>
+      <c r="K58" s="3">
         <v>30100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3108,8 +3242,8 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3117,41 +3251,44 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>585000</v>
+        <v>608300</v>
       </c>
       <c r="E59" s="3">
-        <v>507500</v>
+        <v>587500</v>
       </c>
       <c r="F59" s="3">
-        <v>586000</v>
+        <v>509700</v>
       </c>
       <c r="G59" s="3">
-        <v>439800</v>
+        <v>588600</v>
       </c>
       <c r="H59" s="3">
-        <v>347900</v>
+        <v>441700</v>
       </c>
       <c r="I59" s="3">
-        <v>241800</v>
+        <v>349400</v>
       </c>
       <c r="J59" s="3">
+        <v>242900</v>
+      </c>
+      <c r="K59" s="3">
         <v>129700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>125800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>161600</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,41 +3363,44 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E61" s="3">
         <v>3200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>32400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3288,10 +3434,10 @@
         <v>100</v>
       </c>
       <c r="F62" s="3">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3">
         <v>200</v>
-      </c>
-      <c r="G62" s="3">
-        <v>7200</v>
       </c>
       <c r="H62" s="3">
         <v>7200</v>
@@ -3302,8 +3448,8 @@
       <c r="J62" s="3">
         <v>7200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
+      <c r="K62" s="3">
+        <v>7200</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
@@ -3320,8 +3466,8 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,41 +3643,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>644000</v>
+        <v>670100</v>
       </c>
       <c r="E66" s="3">
-        <v>568900</v>
+        <v>646800</v>
       </c>
       <c r="F66" s="3">
-        <v>595500</v>
+        <v>571300</v>
       </c>
       <c r="G66" s="3">
-        <v>514700</v>
+        <v>598100</v>
       </c>
       <c r="H66" s="3">
-        <v>424500</v>
+        <v>516900</v>
       </c>
       <c r="I66" s="3">
-        <v>319500</v>
+        <v>426400</v>
       </c>
       <c r="J66" s="3">
+        <v>320900</v>
+      </c>
+      <c r="K66" s="3">
         <v>170400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>140000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>202200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,41 +3945,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>117300</v>
+        <v>100600</v>
       </c>
       <c r="E72" s="3">
-        <v>169600</v>
+        <v>117800</v>
       </c>
       <c r="F72" s="3">
-        <v>199500</v>
+        <v>170300</v>
       </c>
       <c r="G72" s="3">
-        <v>180400</v>
+        <v>200300</v>
       </c>
       <c r="H72" s="3">
-        <v>160300</v>
+        <v>181100</v>
       </c>
       <c r="I72" s="3">
-        <v>114200</v>
+        <v>161000</v>
       </c>
       <c r="J72" s="3">
+        <v>114700</v>
+      </c>
+      <c r="K72" s="3">
         <v>97400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>55700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>28000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,41 +4169,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>591900</v>
+        <v>573200</v>
       </c>
       <c r="E76" s="3">
-        <v>641700</v>
+        <v>594400</v>
       </c>
       <c r="F76" s="3">
-        <v>664100</v>
+        <v>644500</v>
       </c>
       <c r="G76" s="3">
-        <v>638200</v>
+        <v>667000</v>
       </c>
       <c r="H76" s="3">
-        <v>611300</v>
+        <v>641000</v>
       </c>
       <c r="I76" s="3">
-        <v>555500</v>
+        <v>614000</v>
       </c>
       <c r="J76" s="3">
+        <v>557900</v>
+      </c>
+      <c r="K76" s="3">
         <v>535000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>447100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>321000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-52300</v>
+        <v>-17300</v>
       </c>
       <c r="E81" s="3">
-        <v>-29900</v>
+        <v>-52500</v>
       </c>
       <c r="F81" s="3">
-        <v>19100</v>
+        <v>-30000</v>
       </c>
       <c r="G81" s="3">
-        <v>20000</v>
+        <v>19200</v>
       </c>
       <c r="H81" s="3">
-        <v>48100</v>
+        <v>25900</v>
       </c>
       <c r="I81" s="3">
-        <v>31800</v>
+        <v>48300</v>
       </c>
       <c r="J81" s="3">
+        <v>31900</v>
+      </c>
+      <c r="K81" s="3">
         <v>36800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>27700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>62000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>19900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>23500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>14900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7500</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4259,8 +4458,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -4268,8 +4467,8 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4577,8 +4794,8 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
@@ -4586,8 +4803,8 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4651,8 +4872,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
@@ -4660,8 +4881,8 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4810,8 +5040,8 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
@@ -4819,8 +5049,8 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5096,8 +5342,8 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
@@ -5105,8 +5351,8 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5149,8 +5398,8 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
@@ -5158,8 +5407,8 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5202,8 +5454,8 @@
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
@@ -5211,13 +5463,16 @@
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
   <si>
     <t>XYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>85500</v>
+        <v>111700</v>
       </c>
       <c r="E8" s="3">
-        <v>59300</v>
+        <v>87300</v>
       </c>
       <c r="F8" s="3">
-        <v>80800</v>
+        <v>60500</v>
       </c>
       <c r="G8" s="3">
-        <v>97100</v>
+        <v>82500</v>
       </c>
       <c r="H8" s="3">
-        <v>130500</v>
+        <v>103800</v>
       </c>
       <c r="I8" s="3">
-        <v>121000</v>
+        <v>133300</v>
       </c>
       <c r="J8" s="3">
+        <v>123600</v>
+      </c>
+      <c r="K8" s="3">
         <v>118600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>131300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>116100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>258700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>110400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>108200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>67200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>57200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>32000</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>85700</v>
+        <v>85900</v>
       </c>
       <c r="E9" s="3">
-        <v>75900</v>
+        <v>87600</v>
       </c>
       <c r="F9" s="3">
-        <v>64900</v>
+        <v>77500</v>
       </c>
       <c r="G9" s="3">
-        <v>64200</v>
+        <v>66300</v>
       </c>
       <c r="H9" s="3">
-        <v>71500</v>
+        <v>63000</v>
       </c>
       <c r="I9" s="3">
-        <v>64500</v>
+        <v>73000</v>
       </c>
       <c r="J9" s="3">
+        <v>65900</v>
+      </c>
+      <c r="K9" s="3">
         <v>51400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>49800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>39800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>80300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>40300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>38100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>30200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>27900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>16200</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E10" s="3">
         <v>-200</v>
       </c>
-      <c r="E10" s="3">
-        <v>-16600</v>
-      </c>
       <c r="F10" s="3">
-        <v>15900</v>
+        <v>-17000</v>
       </c>
       <c r="G10" s="3">
-        <v>32900</v>
+        <v>16200</v>
       </c>
       <c r="H10" s="3">
-        <v>59000</v>
+        <v>40800</v>
       </c>
       <c r="I10" s="3">
-        <v>56500</v>
+        <v>60200</v>
       </c>
       <c r="J10" s="3">
+        <v>57700</v>
+      </c>
+      <c r="K10" s="3">
         <v>67200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>81400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>76300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>178400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>70000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>70100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>37000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>29200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>15700</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,34 +1064,37 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>149800</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1089,23 +1108,26 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3">
         <v>-200</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>101000</v>
+        <v>245500</v>
       </c>
       <c r="E17" s="3">
-        <v>111400</v>
+        <v>103200</v>
       </c>
       <c r="F17" s="3">
-        <v>100700</v>
+        <v>113800</v>
       </c>
       <c r="G17" s="3">
-        <v>91500</v>
+        <v>102800</v>
       </c>
       <c r="H17" s="3">
-        <v>97700</v>
+        <v>87800</v>
       </c>
       <c r="I17" s="3">
-        <v>88700</v>
+        <v>99800</v>
       </c>
       <c r="J17" s="3">
+        <v>90600</v>
+      </c>
+      <c r="K17" s="3">
         <v>76000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>87500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>77700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>158900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>75400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>72900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>45700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>50600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>21000</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-15500</v>
+        <v>-133800</v>
       </c>
       <c r="E18" s="3">
-        <v>-52200</v>
+        <v>-15800</v>
       </c>
       <c r="F18" s="3">
-        <v>-19900</v>
+        <v>-53300</v>
       </c>
       <c r="G18" s="3">
-        <v>5500</v>
+        <v>-20300</v>
       </c>
       <c r="H18" s="3">
-        <v>32800</v>
+        <v>15900</v>
       </c>
       <c r="I18" s="3">
-        <v>32300</v>
+        <v>33500</v>
       </c>
       <c r="J18" s="3">
+        <v>33000</v>
+      </c>
+      <c r="K18" s="3">
         <v>42600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>43800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>38400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>99800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>35000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>35300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>21500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>11000</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,64 +1345,68 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1000</v>
+        <v>-3100</v>
       </c>
       <c r="E20" s="3">
-        <v>-7100</v>
+        <v>-1100</v>
       </c>
       <c r="F20" s="3">
-        <v>-15000</v>
+        <v>-7200</v>
       </c>
       <c r="G20" s="3">
-        <v>5800</v>
+        <v>-15300</v>
       </c>
       <c r="H20" s="3">
-        <v>-4100</v>
+        <v>-14100</v>
       </c>
       <c r="I20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-8000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-13100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-200</v>
       </c>
       <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
+      <c r="S20" s="3">
+        <v>-200</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1395,38 +1431,41 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>37300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>87300</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>33600</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>6700</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1520,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-16500</v>
+        <v>-136900</v>
       </c>
       <c r="E23" s="3">
-        <v>-59200</v>
+        <v>-16900</v>
       </c>
       <c r="F23" s="3">
-        <v>-34900</v>
+        <v>-60500</v>
       </c>
       <c r="G23" s="3">
-        <v>11300</v>
+        <v>-35600</v>
       </c>
       <c r="H23" s="3">
-        <v>28700</v>
+        <v>1800</v>
       </c>
       <c r="I23" s="3">
-        <v>31400</v>
+        <v>29300</v>
       </c>
       <c r="J23" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K23" s="3">
         <v>39600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>35800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>32200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>86600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>29000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>32800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>20900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>10800</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
-        <v>-6600</v>
-      </c>
       <c r="F24" s="3">
-        <v>-4800</v>
+        <v>-6800</v>
       </c>
       <c r="G24" s="3">
-        <v>-7500</v>
+        <v>-4900</v>
       </c>
       <c r="H24" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="I24" s="3">
         <v>4100</v>
       </c>
-      <c r="I24" s="3">
-        <v>-16400</v>
-      </c>
       <c r="J24" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="K24" s="3">
         <v>8200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>25100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>9100</v>
       </c>
       <c r="O24" s="3">
         <v>9100</v>
       </c>
       <c r="P24" s="3">
+        <v>9100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>6000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3300</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-16800</v>
+        <v>-101400</v>
       </c>
       <c r="E26" s="3">
-        <v>-52600</v>
+        <v>-17100</v>
       </c>
       <c r="F26" s="3">
-        <v>-30100</v>
+        <v>-53700</v>
       </c>
       <c r="G26" s="3">
-        <v>18800</v>
+        <v>-30800</v>
       </c>
       <c r="H26" s="3">
-        <v>24700</v>
+        <v>12100</v>
       </c>
       <c r="I26" s="3">
-        <v>47800</v>
+        <v>25200</v>
       </c>
       <c r="J26" s="3">
+        <v>48800</v>
+      </c>
+      <c r="K26" s="3">
         <v>31400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>36400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>27400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>61600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>19900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>23600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>14900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7400</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-17300</v>
+        <v>-102300</v>
       </c>
       <c r="E27" s="3">
-        <v>-52500</v>
+        <v>-17600</v>
       </c>
       <c r="F27" s="3">
-        <v>-30000</v>
+        <v>-53600</v>
       </c>
       <c r="G27" s="3">
-        <v>19200</v>
+        <v>-30600</v>
       </c>
       <c r="H27" s="3">
-        <v>25900</v>
+        <v>12400</v>
       </c>
       <c r="I27" s="3">
-        <v>48300</v>
+        <v>26500</v>
       </c>
       <c r="J27" s="3">
+        <v>49300</v>
+      </c>
+      <c r="K27" s="3">
         <v>31900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>36800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>27700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>62000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>19900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>23500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>14900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7500</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1000</v>
+        <v>3100</v>
       </c>
       <c r="E32" s="3">
-        <v>7100</v>
+        <v>1100</v>
       </c>
       <c r="F32" s="3">
-        <v>15000</v>
+        <v>7200</v>
       </c>
       <c r="G32" s="3">
-        <v>-5800</v>
+        <v>15300</v>
       </c>
       <c r="H32" s="3">
-        <v>4100</v>
+        <v>14100</v>
       </c>
       <c r="I32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>8000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>13100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>600</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>200</v>
       </c>
       <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
+      <c r="S32" s="3">
+        <v>200</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-17300</v>
+        <v>-102300</v>
       </c>
       <c r="E33" s="3">
-        <v>-52500</v>
+        <v>-17600</v>
       </c>
       <c r="F33" s="3">
-        <v>-30000</v>
+        <v>-53600</v>
       </c>
       <c r="G33" s="3">
-        <v>19200</v>
+        <v>-30600</v>
       </c>
       <c r="H33" s="3">
-        <v>25900</v>
+        <v>12400</v>
       </c>
       <c r="I33" s="3">
-        <v>48300</v>
+        <v>26500</v>
       </c>
       <c r="J33" s="3">
+        <v>49300</v>
+      </c>
+      <c r="K33" s="3">
         <v>31900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>36800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>27700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>62000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>19900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>23500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>14900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7500</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-17300</v>
+        <v>-102300</v>
       </c>
       <c r="E35" s="3">
-        <v>-52500</v>
+        <v>-17600</v>
       </c>
       <c r="F35" s="3">
-        <v>-30000</v>
+        <v>-53600</v>
       </c>
       <c r="G35" s="3">
-        <v>19200</v>
+        <v>-30600</v>
       </c>
       <c r="H35" s="3">
-        <v>25900</v>
+        <v>12400</v>
       </c>
       <c r="I35" s="3">
-        <v>48300</v>
+        <v>26500</v>
       </c>
       <c r="J35" s="3">
+        <v>49300</v>
+      </c>
+      <c r="K35" s="3">
         <v>31900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>36800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>27700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>62000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>19900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>23500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>14900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7500</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,44 +2399,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>49500</v>
+        <v>116400</v>
       </c>
       <c r="E41" s="3">
-        <v>51000</v>
+        <v>50600</v>
       </c>
       <c r="F41" s="3">
-        <v>93400</v>
+        <v>52000</v>
       </c>
       <c r="G41" s="3">
-        <v>153700</v>
+        <v>95400</v>
       </c>
       <c r="H41" s="3">
-        <v>142200</v>
+        <v>156900</v>
       </c>
       <c r="I41" s="3">
-        <v>142200</v>
+        <v>145200</v>
       </c>
       <c r="J41" s="3">
+        <v>145200</v>
+      </c>
+      <c r="K41" s="3">
         <v>237600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>162700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>204900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>87200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,8 +2456,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,44 +2515,47 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>46800</v>
+        <v>64500</v>
       </c>
       <c r="E43" s="3">
-        <v>37700</v>
+        <v>47800</v>
       </c>
       <c r="F43" s="3">
-        <v>67400</v>
+        <v>38500</v>
       </c>
       <c r="G43" s="3">
-        <v>117800</v>
+        <v>68800</v>
       </c>
       <c r="H43" s="3">
-        <v>178200</v>
+        <v>120300</v>
       </c>
       <c r="I43" s="3">
-        <v>180800</v>
+        <v>182000</v>
       </c>
       <c r="J43" s="3">
+        <v>184600</v>
+      </c>
+      <c r="K43" s="3">
         <v>190500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>209800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>200200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>214700</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,44 +2633,47 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>80000</v>
+        <v>63000</v>
       </c>
       <c r="E45" s="3">
-        <v>94000</v>
+        <v>81700</v>
       </c>
       <c r="F45" s="3">
-        <v>307600</v>
+        <v>96000</v>
       </c>
       <c r="G45" s="3">
-        <v>187300</v>
+        <v>314200</v>
       </c>
       <c r="H45" s="3">
-        <v>89000</v>
+        <v>191300</v>
       </c>
       <c r="I45" s="3">
-        <v>99300</v>
+        <v>90900</v>
       </c>
       <c r="J45" s="3">
+        <v>101400</v>
+      </c>
+      <c r="K45" s="3">
         <v>34900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>29300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>25900</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2594,8 +2692,11 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,44 +2751,47 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>772200</v>
+        <v>636300</v>
       </c>
       <c r="E47" s="3">
-        <v>721400</v>
+        <v>788500</v>
       </c>
       <c r="F47" s="3">
-        <v>428900</v>
+        <v>736700</v>
       </c>
       <c r="G47" s="3">
-        <v>527600</v>
+        <v>437900</v>
       </c>
       <c r="H47" s="3">
-        <v>432700</v>
+        <v>538800</v>
       </c>
       <c r="I47" s="3">
-        <v>325700</v>
+        <v>441800</v>
       </c>
       <c r="J47" s="3">
+        <v>332600</v>
+      </c>
+      <c r="K47" s="3">
         <v>168100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>167600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>95900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>137000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2706,44 +2810,47 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E48" s="3">
         <v>2000</v>
       </c>
-      <c r="E48" s="3">
-        <v>2500</v>
-      </c>
       <c r="F48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G48" s="3">
         <v>2800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3100</v>
       </c>
-      <c r="H48" s="3">
-        <v>3400</v>
-      </c>
       <c r="I48" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J48" s="3">
         <v>3400</v>
       </c>
       <c r="K48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L48" s="3">
         <v>3500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2900</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2762,8 +2869,11 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2771,35 +2881,35 @@
         <v>5800</v>
       </c>
       <c r="E49" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="F49" s="3">
-        <v>5300</v>
+        <v>6000</v>
       </c>
       <c r="G49" s="3">
         <v>5400</v>
       </c>
       <c r="H49" s="3">
-        <v>5100</v>
+        <v>5500</v>
       </c>
       <c r="I49" s="3">
-        <v>4900</v>
+        <v>5200</v>
       </c>
       <c r="J49" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K49" s="3">
         <v>4600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>200</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,44 +3046,47 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>204000</v>
+        <v>227400</v>
       </c>
       <c r="E52" s="3">
-        <v>249800</v>
+        <v>208300</v>
       </c>
       <c r="F52" s="3">
-        <v>226800</v>
+        <v>255100</v>
       </c>
       <c r="G52" s="3">
-        <v>149700</v>
+        <v>231600</v>
       </c>
       <c r="H52" s="3">
-        <v>159000</v>
+        <v>152900</v>
       </c>
       <c r="I52" s="3">
-        <v>156400</v>
+        <v>162300</v>
       </c>
       <c r="J52" s="3">
+        <v>159700</v>
+      </c>
+      <c r="K52" s="3">
         <v>144700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>84400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>48500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>53200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,44 +3164,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1243300</v>
+        <v>1169800</v>
       </c>
       <c r="E54" s="3">
-        <v>1241200</v>
+        <v>1269600</v>
       </c>
       <c r="F54" s="3">
-        <v>1215800</v>
+        <v>1267500</v>
       </c>
       <c r="G54" s="3">
-        <v>1265100</v>
+        <v>1241500</v>
       </c>
       <c r="H54" s="3">
-        <v>1157900</v>
+        <v>1291900</v>
       </c>
       <c r="I54" s="3">
-        <v>1040400</v>
+        <v>1182400</v>
       </c>
       <c r="J54" s="3">
+        <v>1062400</v>
+      </c>
+      <c r="K54" s="3">
         <v>878800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>705400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>587100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>523200</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3098,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,38 +3328,41 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>49300</v>
+        <v>54700</v>
       </c>
       <c r="E58" s="3">
-        <v>52200</v>
+        <v>50300</v>
       </c>
       <c r="F58" s="3">
-        <v>52200</v>
+        <v>53300</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>53300</v>
       </c>
       <c r="H58" s="3">
-        <v>61000</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>61100</v>
+        <v>62200</v>
       </c>
       <c r="J58" s="3">
+        <v>62400</v>
+      </c>
+      <c r="K58" s="3">
         <v>61300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>30100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3245,8 +3378,8 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3254,44 +3387,47 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>608300</v>
+        <v>381200</v>
       </c>
       <c r="E59" s="3">
-        <v>587500</v>
+        <v>621200</v>
       </c>
       <c r="F59" s="3">
-        <v>509700</v>
+        <v>600000</v>
       </c>
       <c r="G59" s="3">
-        <v>588600</v>
+        <v>520500</v>
       </c>
       <c r="H59" s="3">
-        <v>441700</v>
+        <v>601000</v>
       </c>
       <c r="I59" s="3">
-        <v>349400</v>
+        <v>451000</v>
       </c>
       <c r="J59" s="3">
+        <v>356800</v>
+      </c>
+      <c r="K59" s="3">
         <v>242900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>129700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>125800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>161600</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3310,8 +3446,11 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,44 +3505,47 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1500</v>
+        <v>229400</v>
       </c>
       <c r="E61" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F61" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G61" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H61" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K61" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L61" s="3">
         <v>3200</v>
       </c>
-      <c r="F61" s="3">
-        <v>4900</v>
-      </c>
-      <c r="G61" s="3">
-        <v>2700</v>
-      </c>
-      <c r="H61" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I61" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J61" s="3">
-        <v>2700</v>
-      </c>
-      <c r="K61" s="3">
-        <v>3200</v>
-      </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>32400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3422,13 +3564,16 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -3437,22 +3582,22 @@
         <v>100</v>
       </c>
       <c r="G62" s="3">
+        <v>100</v>
+      </c>
+      <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3">
-        <v>7200</v>
-      </c>
       <c r="I62" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="J62" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="K62" s="3">
         <v>7200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
+      <c r="L62" s="3">
+        <v>7200</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
@@ -3469,8 +3614,8 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,44 +3800,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>670100</v>
+        <v>690100</v>
       </c>
       <c r="E66" s="3">
-        <v>646800</v>
+        <v>684200</v>
       </c>
       <c r="F66" s="3">
-        <v>571300</v>
+        <v>660500</v>
       </c>
       <c r="G66" s="3">
-        <v>598100</v>
+        <v>583400</v>
       </c>
       <c r="H66" s="3">
-        <v>516900</v>
+        <v>610700</v>
       </c>
       <c r="I66" s="3">
-        <v>426400</v>
+        <v>527800</v>
       </c>
       <c r="J66" s="3">
+        <v>435400</v>
+      </c>
+      <c r="K66" s="3">
         <v>320900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>170400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>140000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>202200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3702,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,44 +4118,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>100600</v>
+        <v>-2300</v>
       </c>
       <c r="E72" s="3">
-        <v>117800</v>
+        <v>102700</v>
       </c>
       <c r="F72" s="3">
-        <v>170300</v>
+        <v>120300</v>
       </c>
       <c r="G72" s="3">
-        <v>200300</v>
+        <v>173900</v>
       </c>
       <c r="H72" s="3">
-        <v>181100</v>
+        <v>204600</v>
       </c>
       <c r="I72" s="3">
-        <v>161000</v>
+        <v>185000</v>
       </c>
       <c r="J72" s="3">
+        <v>164500</v>
+      </c>
+      <c r="K72" s="3">
         <v>114700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>97400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>55700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>28000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,44 +4354,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>573200</v>
+        <v>479700</v>
       </c>
       <c r="E76" s="3">
-        <v>594400</v>
+        <v>585400</v>
       </c>
       <c r="F76" s="3">
-        <v>644500</v>
+        <v>607000</v>
       </c>
       <c r="G76" s="3">
-        <v>667000</v>
+        <v>658100</v>
       </c>
       <c r="H76" s="3">
-        <v>641000</v>
+        <v>681100</v>
       </c>
       <c r="I76" s="3">
-        <v>614000</v>
+        <v>654500</v>
       </c>
       <c r="J76" s="3">
+        <v>627000</v>
+      </c>
+      <c r="K76" s="3">
         <v>557900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>535000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>447100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>321000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4228,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-17300</v>
+        <v>-102300</v>
       </c>
       <c r="E81" s="3">
-        <v>-52500</v>
+        <v>-17600</v>
       </c>
       <c r="F81" s="3">
-        <v>-30000</v>
+        <v>-53600</v>
       </c>
       <c r="G81" s="3">
-        <v>19200</v>
+        <v>-30600</v>
       </c>
       <c r="H81" s="3">
-        <v>25900</v>
+        <v>12400</v>
       </c>
       <c r="I81" s="3">
-        <v>48300</v>
+        <v>26500</v>
       </c>
       <c r="J81" s="3">
+        <v>49300</v>
+      </c>
+      <c r="K81" s="3">
         <v>31900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>36800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>27700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>62000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>19900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>23500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>14900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7500</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4461,8 +4659,8 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
@@ -4470,8 +4668,8 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4797,8 +5013,8 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
@@ -4806,8 +5022,8 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4875,8 +5095,8 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
@@ -4884,8 +5104,8 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5043,8 +5272,8 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
@@ -5052,8 +5281,8 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5345,8 +5590,8 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
@@ -5354,8 +5599,8 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5401,8 +5649,8 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
@@ -5410,8 +5658,8 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5457,8 +5708,8 @@
       <c r="N102" s="3">
         <v>0</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
@@ -5466,13 +5717,16 @@
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
+      <c r="R102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
   <si>
     <t>XYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,295 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>111700</v>
+        <v>143600</v>
       </c>
       <c r="E8" s="3">
-        <v>87300</v>
+        <v>139600</v>
       </c>
       <c r="F8" s="3">
-        <v>60500</v>
+        <v>110300</v>
       </c>
       <c r="G8" s="3">
-        <v>82500</v>
+        <v>86200</v>
       </c>
       <c r="H8" s="3">
-        <v>103800</v>
+        <v>59700</v>
       </c>
       <c r="I8" s="3">
+        <v>81500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>102400</v>
+      </c>
+      <c r="K8" s="3">
         <v>133300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>123600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>118600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>131300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>116100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>258700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>110400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>108200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>67200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>57200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>32000</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>85900</v>
+        <v>80200</v>
       </c>
       <c r="E9" s="3">
-        <v>87600</v>
+        <v>88200</v>
       </c>
       <c r="F9" s="3">
-        <v>77500</v>
+        <v>84800</v>
       </c>
       <c r="G9" s="3">
-        <v>66300</v>
+        <v>86400</v>
       </c>
       <c r="H9" s="3">
-        <v>63000</v>
+        <v>76500</v>
       </c>
       <c r="I9" s="3">
+        <v>65400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>62200</v>
+      </c>
+      <c r="K9" s="3">
         <v>73000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>65900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>51400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>49800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>39800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>80300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>40300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>38100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>30200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>27900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>16200</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>25800</v>
+        <v>63400</v>
       </c>
       <c r="E10" s="3">
+        <v>51400</v>
+      </c>
+      <c r="F10" s="3">
+        <v>25500</v>
+      </c>
+      <c r="G10" s="3">
         <v>-200</v>
       </c>
-      <c r="F10" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>16200</v>
-      </c>
       <c r="H10" s="3">
-        <v>40800</v>
+        <v>-16800</v>
       </c>
       <c r="I10" s="3">
+        <v>16000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>40200</v>
+      </c>
+      <c r="K10" s="3">
         <v>60200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>57700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>67200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>81400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>76300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>178400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>70000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>70100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>37000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>29200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>15700</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +975,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1036,14 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,40 +1101,46 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>149800</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+        <v>147800</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>2000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1111,23 +1151,29 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="3">
         <v>-200</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1257,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>245500</v>
+        <v>91600</v>
       </c>
       <c r="E17" s="3">
-        <v>103200</v>
+        <v>100900</v>
       </c>
       <c r="F17" s="3">
-        <v>113800</v>
+        <v>242300</v>
       </c>
       <c r="G17" s="3">
-        <v>102800</v>
+        <v>101800</v>
       </c>
       <c r="H17" s="3">
-        <v>87800</v>
+        <v>112300</v>
       </c>
       <c r="I17" s="3">
+        <v>101500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>86700</v>
+      </c>
+      <c r="K17" s="3">
         <v>99800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>90600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>76000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>87500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>77700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>158900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>75400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>72900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>45700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>50600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>21000</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-133800</v>
+        <v>52000</v>
       </c>
       <c r="E18" s="3">
-        <v>-15800</v>
+        <v>38700</v>
       </c>
       <c r="F18" s="3">
-        <v>-53300</v>
+        <v>-132000</v>
       </c>
       <c r="G18" s="3">
-        <v>-20300</v>
+        <v>-15600</v>
       </c>
       <c r="H18" s="3">
-        <v>15900</v>
+        <v>-52600</v>
       </c>
       <c r="I18" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K18" s="3">
         <v>33500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>33000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>42600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>43800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>38400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>99800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>35000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>35300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>21500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>6600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>11000</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,67 +1412,75 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3100</v>
       </c>
-      <c r="E20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-7200</v>
-      </c>
       <c r="G20" s="3">
-        <v>-15300</v>
+        <v>-1000</v>
       </c>
       <c r="H20" s="3">
-        <v>-14100</v>
+        <v>-7100</v>
       </c>
       <c r="I20" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-3100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-8000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-6200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-13100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-6000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1434,38 +1508,44 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>37300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>87300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>33600</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
         <v>6700</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,126 +1603,144 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-136900</v>
+        <v>43100</v>
       </c>
       <c r="E23" s="3">
-        <v>-16900</v>
+        <v>35100</v>
       </c>
       <c r="F23" s="3">
-        <v>-60500</v>
+        <v>-135100</v>
       </c>
       <c r="G23" s="3">
-        <v>-35600</v>
+        <v>-16700</v>
       </c>
       <c r="H23" s="3">
+        <v>-59700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="J23" s="3">
         <v>1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>29300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>32000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>39600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>35800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>32200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>86600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>29000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>32800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>20900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>6400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>10800</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-35400</v>
+        <v>8900</v>
       </c>
       <c r="E24" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-4900</v>
-      </c>
       <c r="H24" s="3">
-        <v>-10300</v>
+        <v>-6700</v>
       </c>
       <c r="I24" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="K24" s="3">
         <v>4100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-16800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>8200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>4800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>25100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>9100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>9100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>6000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>2000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>3300</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-101400</v>
+        <v>34200</v>
       </c>
       <c r="E26" s="3">
-        <v>-17100</v>
+        <v>29400</v>
       </c>
       <c r="F26" s="3">
-        <v>-53700</v>
+        <v>-100100</v>
       </c>
       <c r="G26" s="3">
-        <v>-30800</v>
+        <v>-16900</v>
       </c>
       <c r="H26" s="3">
-        <v>12100</v>
+        <v>-53000</v>
       </c>
       <c r="I26" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K26" s="3">
         <v>25200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>48800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>31400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>36400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>27400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>61600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>19900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>23600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>14900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>4400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>7400</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-102300</v>
+        <v>34400</v>
       </c>
       <c r="E27" s="3">
-        <v>-17600</v>
+        <v>29700</v>
       </c>
       <c r="F27" s="3">
-        <v>-53600</v>
+        <v>-100900</v>
       </c>
       <c r="G27" s="3">
-        <v>-30600</v>
+        <v>-17400</v>
       </c>
       <c r="H27" s="3">
-        <v>12400</v>
+        <v>-52900</v>
       </c>
       <c r="I27" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K27" s="3">
         <v>26500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>49300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>31900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>36800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>27700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>62000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>19900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>23500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>14900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>4400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>7500</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2188,144 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F32" s="3">
         <v>3100</v>
       </c>
-      <c r="E32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>7200</v>
-      </c>
       <c r="G32" s="3">
-        <v>15300</v>
+        <v>1000</v>
       </c>
       <c r="H32" s="3">
-        <v>14100</v>
+        <v>7100</v>
       </c>
       <c r="I32" s="3">
+        <v>15100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K32" s="3">
         <v>4200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>3100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>8000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>6200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>13100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>6000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>2600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-102300</v>
+        <v>34400</v>
       </c>
       <c r="E33" s="3">
-        <v>-17600</v>
+        <v>29700</v>
       </c>
       <c r="F33" s="3">
-        <v>-53600</v>
+        <v>-100900</v>
       </c>
       <c r="G33" s="3">
-        <v>-30600</v>
+        <v>-17400</v>
       </c>
       <c r="H33" s="3">
-        <v>12400</v>
+        <v>-52900</v>
       </c>
       <c r="I33" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K33" s="3">
         <v>26500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>49300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>31900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>36800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>27700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>62000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>19900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>23500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>14900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>4400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>7500</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-102300</v>
+        <v>34400</v>
       </c>
       <c r="E35" s="3">
-        <v>-17600</v>
+        <v>29700</v>
       </c>
       <c r="F35" s="3">
-        <v>-53600</v>
+        <v>-100900</v>
       </c>
       <c r="G35" s="3">
-        <v>-30600</v>
+        <v>-17400</v>
       </c>
       <c r="H35" s="3">
-        <v>12400</v>
+        <v>-52900</v>
       </c>
       <c r="I35" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K35" s="3">
         <v>26500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>49300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>31900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>36800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>27700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>62000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>19900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>23500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>14900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>4400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>7500</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,50 +2572,52 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>116400</v>
+        <v>182300</v>
       </c>
       <c r="E41" s="3">
-        <v>50600</v>
+        <v>123100</v>
       </c>
       <c r="F41" s="3">
-        <v>52000</v>
+        <v>114900</v>
       </c>
       <c r="G41" s="3">
-        <v>95400</v>
+        <v>49900</v>
       </c>
       <c r="H41" s="3">
-        <v>156900</v>
+        <v>51400</v>
       </c>
       <c r="I41" s="3">
+        <v>94200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>154900</v>
+      </c>
+      <c r="K41" s="3">
         <v>145200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>145200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>237600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>162700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>204900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>87200</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2459,8 +2633,14 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,50 +2698,56 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>64500</v>
+        <v>112900</v>
       </c>
       <c r="E43" s="3">
-        <v>47800</v>
+        <v>90700</v>
       </c>
       <c r="F43" s="3">
-        <v>38500</v>
+        <v>63600</v>
       </c>
       <c r="G43" s="3">
-        <v>68800</v>
+        <v>47200</v>
       </c>
       <c r="H43" s="3">
-        <v>120300</v>
+        <v>38000</v>
       </c>
       <c r="I43" s="3">
+        <v>67900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>118700</v>
+      </c>
+      <c r="K43" s="3">
         <v>182000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>184600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>190500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>209800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>200200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>214700</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2577,8 +2763,14 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,50 +2828,56 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>63000</v>
+        <v>60700</v>
       </c>
       <c r="E45" s="3">
-        <v>81700</v>
+        <v>60800</v>
       </c>
       <c r="F45" s="3">
-        <v>96000</v>
+        <v>62200</v>
       </c>
       <c r="G45" s="3">
-        <v>314200</v>
+        <v>80600</v>
       </c>
       <c r="H45" s="3">
-        <v>191300</v>
+        <v>94800</v>
       </c>
       <c r="I45" s="3">
+        <v>310100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>188800</v>
+      </c>
+      <c r="K45" s="3">
         <v>90900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>101400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>34900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>17500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>29300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>25900</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2695,8 +2893,14 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2754,50 +2958,56 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>636300</v>
+        <v>566700</v>
       </c>
       <c r="E47" s="3">
-        <v>788500</v>
+        <v>600500</v>
       </c>
       <c r="F47" s="3">
-        <v>736700</v>
+        <v>628100</v>
       </c>
       <c r="G47" s="3">
-        <v>437900</v>
+        <v>778200</v>
       </c>
       <c r="H47" s="3">
-        <v>538800</v>
+        <v>727100</v>
       </c>
       <c r="I47" s="3">
+        <v>432200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>531800</v>
+      </c>
+      <c r="K47" s="3">
         <v>441800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>332600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>168100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>167600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>95900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>137000</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2813,50 +3023,56 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F48" s="3">
         <v>1700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2000</v>
       </c>
-      <c r="F48" s="3">
-        <v>2600</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I48" s="3">
         <v>2800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>3400</v>
-      </c>
-      <c r="L48" s="3">
-        <v>3500</v>
       </c>
       <c r="M48" s="3">
         <v>3400</v>
       </c>
       <c r="N48" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P48" s="3">
         <v>2900</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2872,50 +3088,56 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F49" s="3">
         <v>5800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H49" s="3">
         <v>5900</v>
       </c>
-      <c r="F49" s="3">
-        <v>6000</v>
-      </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>5400</v>
       </c>
-      <c r="H49" s="3">
-        <v>5500</v>
-      </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K49" s="3">
         <v>5200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>5000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>4600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>4300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>3900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>200</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2931,8 +3153,14 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,50 +3283,56 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>227400</v>
+        <v>170000</v>
       </c>
       <c r="E52" s="3">
-        <v>208300</v>
+        <v>178300</v>
       </c>
       <c r="F52" s="3">
-        <v>255100</v>
+        <v>224500</v>
       </c>
       <c r="G52" s="3">
-        <v>231600</v>
+        <v>205600</v>
       </c>
       <c r="H52" s="3">
-        <v>152900</v>
+        <v>251800</v>
       </c>
       <c r="I52" s="3">
+        <v>228600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>150900</v>
+      </c>
+      <c r="K52" s="3">
         <v>162300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>159700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>144700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>84400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>48500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>53200</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3108,8 +3348,14 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,50 +3413,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1169800</v>
+        <v>1105800</v>
       </c>
       <c r="E54" s="3">
-        <v>1269600</v>
+        <v>1079000</v>
       </c>
       <c r="F54" s="3">
-        <v>1267500</v>
+        <v>1154500</v>
       </c>
       <c r="G54" s="3">
-        <v>1241500</v>
+        <v>1253100</v>
       </c>
       <c r="H54" s="3">
-        <v>1291900</v>
+        <v>1251000</v>
       </c>
       <c r="I54" s="3">
+        <v>1225300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1275100</v>
+      </c>
+      <c r="K54" s="3">
         <v>1182400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1062400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>878800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>705400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>587100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>523200</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3226,8 +3478,14 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3532,10 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3331,44 +3593,50 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>54700</v>
+        <v>27000</v>
       </c>
       <c r="E58" s="3">
-        <v>50300</v>
+        <v>19700</v>
       </c>
       <c r="F58" s="3">
-        <v>53300</v>
+        <v>54000</v>
       </c>
       <c r="G58" s="3">
-        <v>53300</v>
+        <v>49700</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>52600</v>
       </c>
       <c r="I58" s="3">
+        <v>52600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>62200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>62400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>61300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>30100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3381,59 +3649,65 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>381200</v>
+        <v>256400</v>
       </c>
       <c r="E59" s="3">
-        <v>621200</v>
+        <v>291700</v>
       </c>
       <c r="F59" s="3">
-        <v>600000</v>
+        <v>376200</v>
       </c>
       <c r="G59" s="3">
-        <v>520500</v>
+        <v>613100</v>
       </c>
       <c r="H59" s="3">
-        <v>601000</v>
+        <v>592100</v>
       </c>
       <c r="I59" s="3">
+        <v>513700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>593200</v>
+      </c>
+      <c r="K59" s="3">
         <v>451000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>356800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>242900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>129700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>125800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>161600</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3449,8 +3723,14 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3508,50 +3788,56 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>229400</v>
+        <v>197900</v>
       </c>
       <c r="E61" s="3">
+        <v>215200</v>
+      </c>
+      <c r="F61" s="3">
+        <v>226400</v>
+      </c>
+      <c r="G61" s="3">
         <v>1600</v>
       </c>
-      <c r="F61" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I61" s="3">
         <v>5000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>12600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>32400</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3567,44 +3853,50 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
       </c>
       <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>100</v>
+      </c>
+      <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>7400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>7400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>7200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>7200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3617,17 +3909,23 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,50 +4113,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>690100</v>
+        <v>562800</v>
       </c>
       <c r="E66" s="3">
-        <v>684200</v>
+        <v>571500</v>
       </c>
       <c r="F66" s="3">
-        <v>660500</v>
+        <v>681100</v>
       </c>
       <c r="G66" s="3">
-        <v>583400</v>
+        <v>675300</v>
       </c>
       <c r="H66" s="3">
-        <v>610700</v>
+        <v>651900</v>
       </c>
       <c r="I66" s="3">
+        <v>575800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>602800</v>
+      </c>
+      <c r="K66" s="3">
         <v>527800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>435400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>320900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>170400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>140000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>202200</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3862,8 +4178,14 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,50 +4463,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2300</v>
+        <v>61800</v>
       </c>
       <c r="E72" s="3">
-        <v>102700</v>
+        <v>27500</v>
       </c>
       <c r="F72" s="3">
-        <v>120300</v>
+        <v>-2200</v>
       </c>
       <c r="G72" s="3">
-        <v>173900</v>
+        <v>101300</v>
       </c>
       <c r="H72" s="3">
-        <v>204600</v>
+        <v>118700</v>
       </c>
       <c r="I72" s="3">
+        <v>171700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>201900</v>
+      </c>
+      <c r="K72" s="3">
         <v>185000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>164500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>114700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>97400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>55700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>28000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4180,8 +4528,14 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,50 +4723,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>479700</v>
+        <v>543000</v>
       </c>
       <c r="E76" s="3">
-        <v>585400</v>
+        <v>507500</v>
       </c>
       <c r="F76" s="3">
-        <v>607000</v>
+        <v>473500</v>
       </c>
       <c r="G76" s="3">
-        <v>658100</v>
+        <v>577700</v>
       </c>
       <c r="H76" s="3">
-        <v>681100</v>
+        <v>599100</v>
       </c>
       <c r="I76" s="3">
+        <v>649500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>672300</v>
+      </c>
+      <c r="K76" s="3">
         <v>654500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>627000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>557900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>535000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>447100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>321000</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4416,8 +4788,14 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-102300</v>
+        <v>34400</v>
       </c>
       <c r="E81" s="3">
-        <v>-17600</v>
+        <v>29700</v>
       </c>
       <c r="F81" s="3">
-        <v>-53600</v>
+        <v>-100900</v>
       </c>
       <c r="G81" s="3">
-        <v>-30600</v>
+        <v>-17400</v>
       </c>
       <c r="H81" s="3">
-        <v>12400</v>
+        <v>-52900</v>
       </c>
       <c r="I81" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K81" s="3">
         <v>26500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>49300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>31900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>36800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>27700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>62000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>19900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>23500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>14900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>4400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>7500</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +5017,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4662,26 +5060,32 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5403,14 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5016,26 +5450,32 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3">
-        <v>0</v>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5497,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5098,26 +5540,32 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5688,14 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5275,26 +5735,32 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +6038,14 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5593,26 +6085,32 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5652,26 +6150,32 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-      <c r="T101" s="3">
-        <v>0</v>
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5711,22 +6215,28 @@
       <c r="O102" s="3">
         <v>0</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
       </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
+      <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
   <si>
     <t>XYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>143600</v>
+        <v>151000</v>
       </c>
       <c r="E8" s="3">
-        <v>139600</v>
+        <v>146000</v>
       </c>
       <c r="F8" s="3">
-        <v>110300</v>
+        <v>141900</v>
       </c>
       <c r="G8" s="3">
-        <v>86200</v>
+        <v>112100</v>
       </c>
       <c r="H8" s="3">
-        <v>59700</v>
+        <v>87600</v>
       </c>
       <c r="I8" s="3">
-        <v>81500</v>
+        <v>60700</v>
       </c>
       <c r="J8" s="3">
+        <v>82800</v>
+      </c>
+      <c r="K8" s="3">
         <v>102400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>133300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>123600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>118600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>131300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>116100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>258700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>110400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>108200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>67200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>57200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>32000</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>80200</v>
+        <v>75700</v>
       </c>
       <c r="E9" s="3">
-        <v>88200</v>
+        <v>81500</v>
       </c>
       <c r="F9" s="3">
-        <v>84800</v>
+        <v>89600</v>
       </c>
       <c r="G9" s="3">
-        <v>86400</v>
+        <v>86200</v>
       </c>
       <c r="H9" s="3">
-        <v>76500</v>
+        <v>87900</v>
       </c>
       <c r="I9" s="3">
-        <v>65400</v>
+        <v>77800</v>
       </c>
       <c r="J9" s="3">
+        <v>66500</v>
+      </c>
+      <c r="K9" s="3">
         <v>62200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>73000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>65900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>51400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>49800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>39800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>80300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>40300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>38100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>30200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>27900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>16200</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>63400</v>
+        <v>75200</v>
       </c>
       <c r="E10" s="3">
-        <v>51400</v>
+        <v>64400</v>
       </c>
       <c r="F10" s="3">
-        <v>25500</v>
+        <v>52300</v>
       </c>
       <c r="G10" s="3">
+        <v>25900</v>
+      </c>
+      <c r="H10" s="3">
         <v>-200</v>
       </c>
-      <c r="H10" s="3">
-        <v>-16800</v>
-      </c>
       <c r="I10" s="3">
-        <v>16000</v>
+        <v>-17000</v>
       </c>
       <c r="J10" s="3">
+        <v>16300</v>
+      </c>
+      <c r="K10" s="3">
         <v>40200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>60200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>57700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>67200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>81400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>76300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>178400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>70000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>70100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>37000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>29200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>15700</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1118,32 +1138,32 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>147800</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>150300</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>2000</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1157,23 +1177,26 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" s="3">
         <v>-200</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>91600</v>
+        <v>86700</v>
       </c>
       <c r="E17" s="3">
-        <v>100900</v>
+        <v>93100</v>
       </c>
       <c r="F17" s="3">
-        <v>242300</v>
+        <v>102600</v>
       </c>
       <c r="G17" s="3">
-        <v>101800</v>
+        <v>246400</v>
       </c>
       <c r="H17" s="3">
-        <v>112300</v>
+        <v>103500</v>
       </c>
       <c r="I17" s="3">
-        <v>101500</v>
+        <v>114200</v>
       </c>
       <c r="J17" s="3">
+        <v>103200</v>
+      </c>
+      <c r="K17" s="3">
         <v>86700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>99800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>90600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>76000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>87500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>77700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>158900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>75400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>72900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>45700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>50600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>21000</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>52000</v>
+        <v>64300</v>
       </c>
       <c r="E18" s="3">
-        <v>38700</v>
+        <v>52900</v>
       </c>
       <c r="F18" s="3">
-        <v>-132000</v>
+        <v>39300</v>
       </c>
       <c r="G18" s="3">
-        <v>-15600</v>
+        <v>-134200</v>
       </c>
       <c r="H18" s="3">
-        <v>-52600</v>
+        <v>-15900</v>
       </c>
       <c r="I18" s="3">
-        <v>-20000</v>
+        <v>-53500</v>
       </c>
       <c r="J18" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="K18" s="3">
         <v>15700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>33500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>33000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>42600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>43800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>38400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>99800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>35000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>35300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>21500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>11000</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,73 +1447,77 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8900</v>
+        <v>-2000</v>
       </c>
       <c r="E20" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3100</v>
       </c>
-      <c r="G20" s="3">
-        <v>-1000</v>
-      </c>
       <c r="H20" s="3">
-        <v>-7100</v>
+        <v>-1100</v>
       </c>
       <c r="I20" s="3">
-        <v>-15100</v>
+        <v>-7300</v>
       </c>
       <c r="J20" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-14000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-600</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-200</v>
       </c>
       <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
+      <c r="V20" s="3">
+        <v>-200</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1514,38 +1551,41 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>37300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>87300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
         <v>33600</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3">
         <v>6700</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>43100</v>
+        <v>62300</v>
       </c>
       <c r="E23" s="3">
-        <v>35100</v>
+        <v>43800</v>
       </c>
       <c r="F23" s="3">
-        <v>-135100</v>
+        <v>35700</v>
       </c>
       <c r="G23" s="3">
-        <v>-16700</v>
+        <v>-137300</v>
       </c>
       <c r="H23" s="3">
-        <v>-59700</v>
+        <v>-16900</v>
       </c>
       <c r="I23" s="3">
-        <v>-35200</v>
+        <v>-60700</v>
       </c>
       <c r="J23" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>29300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>32000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>39600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>35800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>32200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>86600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>29000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>32800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>20900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>6400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>10800</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8900</v>
+        <v>18700</v>
       </c>
       <c r="E24" s="3">
-        <v>5700</v>
+        <v>9100</v>
       </c>
       <c r="F24" s="3">
-        <v>-34900</v>
+        <v>5800</v>
       </c>
       <c r="G24" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
-        <v>-6700</v>
-      </c>
       <c r="I24" s="3">
-        <v>-4800</v>
+        <v>-6800</v>
       </c>
       <c r="J24" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="K24" s="3">
         <v>-10100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-16800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>25100</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>9100</v>
       </c>
       <c r="R24" s="3">
         <v>9100</v>
       </c>
       <c r="S24" s="3">
+        <v>9100</v>
+      </c>
+      <c r="T24" s="3">
         <v>6000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3300</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>34200</v>
+        <v>43600</v>
       </c>
       <c r="E26" s="3">
-        <v>29400</v>
+        <v>34800</v>
       </c>
       <c r="F26" s="3">
-        <v>-100100</v>
+        <v>29900</v>
       </c>
       <c r="G26" s="3">
-        <v>-16900</v>
+        <v>-101800</v>
       </c>
       <c r="H26" s="3">
-        <v>-53000</v>
+        <v>-17200</v>
       </c>
       <c r="I26" s="3">
-        <v>-30400</v>
+        <v>-53900</v>
       </c>
       <c r="J26" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="K26" s="3">
         <v>11900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>25200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>48800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>31400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>36400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>27400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>61600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>19900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>23600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>14900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7400</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>34400</v>
+        <v>43800</v>
       </c>
       <c r="E27" s="3">
-        <v>29700</v>
+        <v>34900</v>
       </c>
       <c r="F27" s="3">
-        <v>-100900</v>
+        <v>30200</v>
       </c>
       <c r="G27" s="3">
-        <v>-17400</v>
+        <v>-102600</v>
       </c>
       <c r="H27" s="3">
-        <v>-52900</v>
+        <v>-17700</v>
       </c>
       <c r="I27" s="3">
-        <v>-30200</v>
+        <v>-53800</v>
       </c>
       <c r="J27" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="K27" s="3">
         <v>12300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>26500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>49300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>31900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>36800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>27700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>62000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>19900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>23500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>14900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7500</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="E32" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F32" s="3">
         <v>3600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3100</v>
       </c>
-      <c r="G32" s="3">
-        <v>1000</v>
-      </c>
       <c r="H32" s="3">
-        <v>7100</v>
+        <v>1100</v>
       </c>
       <c r="I32" s="3">
-        <v>15100</v>
+        <v>7300</v>
       </c>
       <c r="J32" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K32" s="3">
         <v>14000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>13100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>600</v>
-      </c>
-      <c r="T32" s="3">
-        <v>200</v>
       </c>
       <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
+      <c r="V32" s="3">
+        <v>200</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>34400</v>
+        <v>43800</v>
       </c>
       <c r="E33" s="3">
-        <v>29700</v>
+        <v>34900</v>
       </c>
       <c r="F33" s="3">
-        <v>-100900</v>
+        <v>30200</v>
       </c>
       <c r="G33" s="3">
-        <v>-17400</v>
+        <v>-102600</v>
       </c>
       <c r="H33" s="3">
-        <v>-52900</v>
+        <v>-17700</v>
       </c>
       <c r="I33" s="3">
-        <v>-30200</v>
+        <v>-53800</v>
       </c>
       <c r="J33" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="K33" s="3">
         <v>12300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>26500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>49300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>31900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>36800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>27700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>62000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>19900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>23500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>14900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>7500</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>34400</v>
+        <v>43800</v>
       </c>
       <c r="E35" s="3">
-        <v>29700</v>
+        <v>34900</v>
       </c>
       <c r="F35" s="3">
-        <v>-100900</v>
+        <v>30200</v>
       </c>
       <c r="G35" s="3">
-        <v>-17400</v>
+        <v>-102600</v>
       </c>
       <c r="H35" s="3">
-        <v>-52900</v>
+        <v>-17700</v>
       </c>
       <c r="I35" s="3">
-        <v>-30200</v>
+        <v>-53800</v>
       </c>
       <c r="J35" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="K35" s="3">
         <v>12300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>26500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>49300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>31900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>36800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>27700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>62000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>19900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>23500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>14900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>7500</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,53 +2660,54 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>182300</v>
+        <v>152100</v>
       </c>
       <c r="E41" s="3">
-        <v>123100</v>
+        <v>185300</v>
       </c>
       <c r="F41" s="3">
-        <v>114900</v>
+        <v>125200</v>
       </c>
       <c r="G41" s="3">
-        <v>49900</v>
+        <v>116900</v>
       </c>
       <c r="H41" s="3">
-        <v>51400</v>
+        <v>50800</v>
       </c>
       <c r="I41" s="3">
-        <v>94200</v>
+        <v>52200</v>
       </c>
       <c r="J41" s="3">
+        <v>95800</v>
+      </c>
+      <c r="K41" s="3">
         <v>154900</v>
-      </c>
-      <c r="K41" s="3">
-        <v>145200</v>
       </c>
       <c r="L41" s="3">
         <v>145200</v>
       </c>
       <c r="M41" s="3">
+        <v>145200</v>
+      </c>
+      <c r="N41" s="3">
         <v>237600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>162700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>204900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>87200</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,53 +2794,56 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>112900</v>
+        <v>139100</v>
       </c>
       <c r="E43" s="3">
-        <v>90700</v>
+        <v>114800</v>
       </c>
       <c r="F43" s="3">
-        <v>63600</v>
+        <v>92200</v>
       </c>
       <c r="G43" s="3">
-        <v>47200</v>
+        <v>64700</v>
       </c>
       <c r="H43" s="3">
-        <v>38000</v>
+        <v>48000</v>
       </c>
       <c r="I43" s="3">
-        <v>67900</v>
+        <v>38600</v>
       </c>
       <c r="J43" s="3">
+        <v>69100</v>
+      </c>
+      <c r="K43" s="3">
         <v>118700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>182000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>184600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>190500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>209800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>200200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>214700</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,53 +2930,56 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>60700</v>
+        <v>74800</v>
       </c>
       <c r="E45" s="3">
-        <v>60800</v>
+        <v>61700</v>
       </c>
       <c r="F45" s="3">
-        <v>62200</v>
+        <v>61800</v>
       </c>
       <c r="G45" s="3">
-        <v>80600</v>
+        <v>63200</v>
       </c>
       <c r="H45" s="3">
-        <v>94800</v>
+        <v>82000</v>
       </c>
       <c r="I45" s="3">
-        <v>310100</v>
+        <v>96400</v>
       </c>
       <c r="J45" s="3">
+        <v>315300</v>
+      </c>
+      <c r="K45" s="3">
         <v>188800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>90900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>101400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>34900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>17500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>29300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>25900</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,53 +3066,56 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>566700</v>
+        <v>639700</v>
       </c>
       <c r="E47" s="3">
-        <v>600500</v>
+        <v>576200</v>
       </c>
       <c r="F47" s="3">
-        <v>628100</v>
+        <v>610500</v>
       </c>
       <c r="G47" s="3">
-        <v>778200</v>
+        <v>638600</v>
       </c>
       <c r="H47" s="3">
-        <v>727100</v>
+        <v>791300</v>
       </c>
       <c r="I47" s="3">
-        <v>432200</v>
+        <v>739300</v>
       </c>
       <c r="J47" s="3">
+        <v>439500</v>
+      </c>
+      <c r="K47" s="3">
         <v>531800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>441800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>332600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>168100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>167600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>95900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>137000</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,53 +3134,56 @@
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E48" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G48" s="3">
         <v>1700</v>
       </c>
-      <c r="G48" s="3">
-        <v>2000</v>
-      </c>
       <c r="H48" s="3">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="I48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J48" s="3">
         <v>2800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3500</v>
-      </c>
-      <c r="L48" s="3">
-        <v>3400</v>
       </c>
       <c r="M48" s="3">
         <v>3400</v>
       </c>
       <c r="N48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O48" s="3">
         <v>3500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2900</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,13 +3202,16 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="E49" s="3">
         <v>5700</v>
@@ -3109,38 +3220,38 @@
         <v>5800</v>
       </c>
       <c r="G49" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="H49" s="3">
         <v>5900</v>
       </c>
       <c r="I49" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K49" s="3">
         <v>5400</v>
       </c>
-      <c r="J49" s="3">
-        <v>5400</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>200</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,53 +3406,56 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>170000</v>
+        <v>111000</v>
       </c>
       <c r="E52" s="3">
-        <v>178300</v>
+        <v>172800</v>
       </c>
       <c r="F52" s="3">
-        <v>224500</v>
+        <v>181300</v>
       </c>
       <c r="G52" s="3">
-        <v>205600</v>
+        <v>228200</v>
       </c>
       <c r="H52" s="3">
-        <v>251800</v>
+        <v>209000</v>
       </c>
       <c r="I52" s="3">
-        <v>228600</v>
+        <v>256000</v>
       </c>
       <c r="J52" s="3">
+        <v>232400</v>
+      </c>
+      <c r="K52" s="3">
         <v>150900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>162300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>159700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>144700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>84400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>48500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>53200</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,53 +3542,56 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1105800</v>
+        <v>1129000</v>
       </c>
       <c r="E54" s="3">
-        <v>1079000</v>
+        <v>1124300</v>
       </c>
       <c r="F54" s="3">
-        <v>1154500</v>
+        <v>1097000</v>
       </c>
       <c r="G54" s="3">
-        <v>1253100</v>
+        <v>1173900</v>
       </c>
       <c r="H54" s="3">
-        <v>1251000</v>
+        <v>1274100</v>
       </c>
       <c r="I54" s="3">
-        <v>1225300</v>
+        <v>1271900</v>
       </c>
       <c r="J54" s="3">
+        <v>1245900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1275100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1182400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1062400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>878800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>705400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>587100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>523200</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3599,47 +3730,50 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>27000</v>
+        <v>11700</v>
       </c>
       <c r="E58" s="3">
-        <v>19700</v>
+        <v>27400</v>
       </c>
       <c r="F58" s="3">
-        <v>54000</v>
+        <v>20000</v>
       </c>
       <c r="G58" s="3">
-        <v>49700</v>
+        <v>54900</v>
       </c>
       <c r="H58" s="3">
-        <v>52600</v>
+        <v>50500</v>
       </c>
       <c r="I58" s="3">
-        <v>52600</v>
+        <v>53500</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>53500</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>62200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>62400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>61300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>30100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3655,8 +3789,8 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -3664,53 +3798,56 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>256400</v>
+        <v>183400</v>
       </c>
       <c r="E59" s="3">
-        <v>291700</v>
+        <v>260700</v>
       </c>
       <c r="F59" s="3">
-        <v>376200</v>
+        <v>296600</v>
       </c>
       <c r="G59" s="3">
-        <v>613100</v>
+        <v>382500</v>
       </c>
       <c r="H59" s="3">
-        <v>592100</v>
+        <v>623300</v>
       </c>
       <c r="I59" s="3">
-        <v>513700</v>
+        <v>602100</v>
       </c>
       <c r="J59" s="3">
+        <v>522300</v>
+      </c>
+      <c r="K59" s="3">
         <v>593200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>451000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>356800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>242900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>129700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>125800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>161600</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3729,8 +3866,11 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,53 +3934,56 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>197900</v>
+        <v>218200</v>
       </c>
       <c r="E61" s="3">
-        <v>215200</v>
+        <v>201200</v>
       </c>
       <c r="F61" s="3">
-        <v>226400</v>
+        <v>218900</v>
       </c>
       <c r="G61" s="3">
+        <v>230200</v>
+      </c>
+      <c r="H61" s="3">
         <v>1600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K61" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N61" s="3">
+        <v>2700</v>
+      </c>
+      <c r="O61" s="3">
         <v>3200</v>
       </c>
-      <c r="I61" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>2700</v>
-      </c>
-      <c r="K61" s="3">
-        <v>1700</v>
-      </c>
-      <c r="L61" s="3">
-        <v>2500</v>
-      </c>
-      <c r="M61" s="3">
-        <v>2700</v>
-      </c>
-      <c r="N61" s="3">
-        <v>3200</v>
-      </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>12600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>32400</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3859,22 +4002,25 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
@@ -3883,22 +4029,22 @@
         <v>100</v>
       </c>
       <c r="J62" s="3">
+        <v>100</v>
+      </c>
+      <c r="K62" s="3">
         <v>200</v>
-      </c>
-      <c r="K62" s="3">
-        <v>7400</v>
       </c>
       <c r="L62" s="3">
         <v>7400</v>
       </c>
       <c r="M62" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="N62" s="3">
         <v>7200</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
+      <c r="O62" s="3">
+        <v>7200</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
@@ -3915,8 +4061,8 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,53 +4274,56 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>562800</v>
+        <v>531000</v>
       </c>
       <c r="E66" s="3">
-        <v>571500</v>
+        <v>572200</v>
       </c>
       <c r="F66" s="3">
-        <v>681100</v>
+        <v>581100</v>
       </c>
       <c r="G66" s="3">
-        <v>675300</v>
+        <v>692500</v>
       </c>
       <c r="H66" s="3">
-        <v>651900</v>
+        <v>686700</v>
       </c>
       <c r="I66" s="3">
-        <v>575800</v>
+        <v>662800</v>
       </c>
       <c r="J66" s="3">
+        <v>585500</v>
+      </c>
+      <c r="K66" s="3">
         <v>602800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>527800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>435400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>320900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>170400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>140000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>202200</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,53 +4640,56 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>61800</v>
+        <v>106700</v>
       </c>
       <c r="E72" s="3">
-        <v>27500</v>
+        <v>62900</v>
       </c>
       <c r="F72" s="3">
-        <v>-2200</v>
+        <v>27900</v>
       </c>
       <c r="G72" s="3">
-        <v>101300</v>
+        <v>-2300</v>
       </c>
       <c r="H72" s="3">
-        <v>118700</v>
+        <v>103000</v>
       </c>
       <c r="I72" s="3">
-        <v>171700</v>
+        <v>120700</v>
       </c>
       <c r="J72" s="3">
+        <v>174500</v>
+      </c>
+      <c r="K72" s="3">
         <v>201900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>185000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>164500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>114700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>97400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>55700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>28000</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,53 +4912,56 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>543000</v>
+        <v>598100</v>
       </c>
       <c r="E76" s="3">
-        <v>507500</v>
+        <v>552100</v>
       </c>
       <c r="F76" s="3">
-        <v>473500</v>
+        <v>516000</v>
       </c>
       <c r="G76" s="3">
-        <v>577700</v>
+        <v>481400</v>
       </c>
       <c r="H76" s="3">
-        <v>599100</v>
+        <v>587400</v>
       </c>
       <c r="I76" s="3">
-        <v>649500</v>
+        <v>609100</v>
       </c>
       <c r="J76" s="3">
+        <v>660400</v>
+      </c>
+      <c r="K76" s="3">
         <v>672300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>654500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>627000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>557900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>535000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>447100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>321000</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>34400</v>
+        <v>43800</v>
       </c>
       <c r="E81" s="3">
-        <v>29700</v>
+        <v>34900</v>
       </c>
       <c r="F81" s="3">
-        <v>-100900</v>
+        <v>30200</v>
       </c>
       <c r="G81" s="3">
-        <v>-17400</v>
+        <v>-102600</v>
       </c>
       <c r="H81" s="3">
-        <v>-52900</v>
+        <v>-17700</v>
       </c>
       <c r="I81" s="3">
-        <v>-30200</v>
+        <v>-53800</v>
       </c>
       <c r="J81" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="K81" s="3">
         <v>12300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>26500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>49300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>31900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>36800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>27700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>62000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>19900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>23500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>14900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>7500</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5066,8 +5265,8 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
@@ -5075,8 +5274,8 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5456,8 +5673,8 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
+      <c r="R89" s="3">
+        <v>0</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
@@ -5465,8 +5682,8 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
+      <c r="U89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5546,8 +5767,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
@@ -5555,8 +5776,8 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5741,8 +5971,8 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
@@ -5750,8 +5980,8 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6091,8 +6337,8 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
@@ -6100,8 +6346,8 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
+      <c r="U100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6156,8 +6405,8 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>3</v>
@@ -6165,8 +6414,8 @@
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
+      <c r="U101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V101" s="3">
         <v>0</v>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6221,8 +6473,8 @@
       <c r="Q102" s="3">
         <v>0</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
+      <c r="R102" s="3">
+        <v>0</v>
       </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
@@ -6230,13 +6482,16 @@
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
+      <c r="U102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XYF_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>151000</v>
+        <v>152100</v>
       </c>
       <c r="E8" s="3">
-        <v>146000</v>
+        <v>147100</v>
       </c>
       <c r="F8" s="3">
-        <v>141900</v>
+        <v>143000</v>
       </c>
       <c r="G8" s="3">
-        <v>112100</v>
+        <v>113000</v>
       </c>
       <c r="H8" s="3">
-        <v>87600</v>
+        <v>88300</v>
       </c>
       <c r="I8" s="3">
-        <v>60700</v>
+        <v>61200</v>
       </c>
       <c r="J8" s="3">
-        <v>82800</v>
+        <v>83500</v>
       </c>
       <c r="K8" s="3">
         <v>102400</v>
@@ -835,25 +835,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>75700</v>
+        <v>76300</v>
       </c>
       <c r="E9" s="3">
-        <v>81500</v>
+        <v>82200</v>
       </c>
       <c r="F9" s="3">
-        <v>89600</v>
+        <v>90300</v>
       </c>
       <c r="G9" s="3">
-        <v>86200</v>
+        <v>86900</v>
       </c>
       <c r="H9" s="3">
-        <v>87900</v>
+        <v>88500</v>
       </c>
       <c r="I9" s="3">
-        <v>77800</v>
+        <v>78400</v>
       </c>
       <c r="J9" s="3">
-        <v>66500</v>
+        <v>67000</v>
       </c>
       <c r="K9" s="3">
         <v>62200</v>
@@ -903,25 +903,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>75200</v>
+        <v>75800</v>
       </c>
       <c r="E10" s="3">
-        <v>64400</v>
+        <v>64900</v>
       </c>
       <c r="F10" s="3">
-        <v>52300</v>
+        <v>52700</v>
       </c>
       <c r="G10" s="3">
-        <v>25900</v>
+        <v>26100</v>
       </c>
       <c r="H10" s="3">
         <v>-200</v>
       </c>
       <c r="I10" s="3">
-        <v>-17000</v>
+        <v>-17200</v>
       </c>
       <c r="J10" s="3">
-        <v>16300</v>
+        <v>16400</v>
       </c>
       <c r="K10" s="3">
         <v>40200</v>
@@ -1142,7 +1142,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="3">
-        <v>150300</v>
+        <v>151400</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>86700</v>
+        <v>87400</v>
       </c>
       <c r="E17" s="3">
-        <v>93100</v>
+        <v>93800</v>
       </c>
       <c r="F17" s="3">
-        <v>102600</v>
+        <v>103400</v>
       </c>
       <c r="G17" s="3">
-        <v>246400</v>
+        <v>248300</v>
       </c>
       <c r="H17" s="3">
-        <v>103500</v>
+        <v>104300</v>
       </c>
       <c r="I17" s="3">
-        <v>114200</v>
+        <v>115100</v>
       </c>
       <c r="J17" s="3">
-        <v>103200</v>
+        <v>104000</v>
       </c>
       <c r="K17" s="3">
         <v>86700</v>
@@ -1360,25 +1360,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>64300</v>
+        <v>64800</v>
       </c>
       <c r="E18" s="3">
-        <v>52900</v>
+        <v>53300</v>
       </c>
       <c r="F18" s="3">
-        <v>39300</v>
+        <v>39600</v>
       </c>
       <c r="G18" s="3">
-        <v>-134200</v>
+        <v>-135300</v>
       </c>
       <c r="H18" s="3">
-        <v>-15900</v>
+        <v>-16000</v>
       </c>
       <c r="I18" s="3">
-        <v>-53500</v>
+        <v>-53900</v>
       </c>
       <c r="J18" s="3">
-        <v>-20400</v>
+        <v>-20500</v>
       </c>
       <c r="K18" s="3">
         <v>15700</v>
@@ -1472,7 +1472,7 @@
         <v>-7300</v>
       </c>
       <c r="J20" s="3">
-        <v>-15400</v>
+        <v>-15500</v>
       </c>
       <c r="K20" s="3">
         <v>-14000</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>62300</v>
+        <v>62800</v>
       </c>
       <c r="E23" s="3">
-        <v>43800</v>
+        <v>44200</v>
       </c>
       <c r="F23" s="3">
-        <v>35700</v>
+        <v>36000</v>
       </c>
       <c r="G23" s="3">
-        <v>-137300</v>
+        <v>-138400</v>
       </c>
       <c r="H23" s="3">
-        <v>-16900</v>
+        <v>-17100</v>
       </c>
       <c r="I23" s="3">
-        <v>-60700</v>
+        <v>-61200</v>
       </c>
       <c r="J23" s="3">
-        <v>-35700</v>
+        <v>-36000</v>
       </c>
       <c r="K23" s="3">
         <v>1800</v>
@@ -1726,16 +1726,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>18700</v>
+        <v>18800</v>
       </c>
       <c r="E24" s="3">
         <v>9100</v>
       </c>
       <c r="F24" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="G24" s="3">
-        <v>-35500</v>
+        <v>-35800</v>
       </c>
       <c r="H24" s="3">
         <v>200</v>
@@ -1862,25 +1862,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>43600</v>
+        <v>43900</v>
       </c>
       <c r="E26" s="3">
-        <v>34800</v>
+        <v>35000</v>
       </c>
       <c r="F26" s="3">
-        <v>29900</v>
+        <v>30100</v>
       </c>
       <c r="G26" s="3">
-        <v>-101800</v>
+        <v>-102600</v>
       </c>
       <c r="H26" s="3">
-        <v>-17200</v>
+        <v>-17300</v>
       </c>
       <c r="I26" s="3">
-        <v>-53900</v>
+        <v>-54300</v>
       </c>
       <c r="J26" s="3">
-        <v>-30900</v>
+        <v>-31100</v>
       </c>
       <c r="K26" s="3">
         <v>11900</v>
@@ -1930,25 +1930,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>43800</v>
+        <v>44200</v>
       </c>
       <c r="E27" s="3">
-        <v>34900</v>
+        <v>35200</v>
       </c>
       <c r="F27" s="3">
-        <v>30200</v>
+        <v>30400</v>
       </c>
       <c r="G27" s="3">
-        <v>-102600</v>
+        <v>-103400</v>
       </c>
       <c r="H27" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="I27" s="3">
-        <v>-53800</v>
+        <v>-54200</v>
       </c>
       <c r="J27" s="3">
-        <v>-30700</v>
+        <v>-31000</v>
       </c>
       <c r="K27" s="3">
         <v>12300</v>
@@ -2288,7 +2288,7 @@
         <v>7300</v>
       </c>
       <c r="J32" s="3">
-        <v>15400</v>
+        <v>15500</v>
       </c>
       <c r="K32" s="3">
         <v>14000</v>
@@ -2338,25 +2338,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>43800</v>
+        <v>44200</v>
       </c>
       <c r="E33" s="3">
-        <v>34900</v>
+        <v>35200</v>
       </c>
       <c r="F33" s="3">
-        <v>30200</v>
+        <v>30400</v>
       </c>
       <c r="G33" s="3">
-        <v>-102600</v>
+        <v>-103400</v>
       </c>
       <c r="H33" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="I33" s="3">
-        <v>-53800</v>
+        <v>-54200</v>
       </c>
       <c r="J33" s="3">
-        <v>-30700</v>
+        <v>-31000</v>
       </c>
       <c r="K33" s="3">
         <v>12300</v>
@@ -2474,25 +2474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>43800</v>
+        <v>44200</v>
       </c>
       <c r="E35" s="3">
-        <v>34900</v>
+        <v>35200</v>
       </c>
       <c r="F35" s="3">
-        <v>30200</v>
+        <v>30400</v>
       </c>
       <c r="G35" s="3">
-        <v>-102600</v>
+        <v>-103400</v>
       </c>
       <c r="H35" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="I35" s="3">
-        <v>-53800</v>
+        <v>-54200</v>
       </c>
       <c r="J35" s="3">
-        <v>-30700</v>
+        <v>-31000</v>
       </c>
       <c r="K35" s="3">
         <v>12300</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>152100</v>
+        <v>153300</v>
       </c>
       <c r="E41" s="3">
-        <v>185300</v>
+        <v>186800</v>
       </c>
       <c r="F41" s="3">
-        <v>125200</v>
+        <v>126200</v>
       </c>
       <c r="G41" s="3">
-        <v>116900</v>
+        <v>117800</v>
       </c>
       <c r="H41" s="3">
-        <v>50800</v>
+        <v>51200</v>
       </c>
       <c r="I41" s="3">
-        <v>52200</v>
+        <v>52600</v>
       </c>
       <c r="J41" s="3">
-        <v>95800</v>
+        <v>96500</v>
       </c>
       <c r="K41" s="3">
         <v>154900</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>139100</v>
+        <v>140200</v>
       </c>
       <c r="E43" s="3">
-        <v>114800</v>
+        <v>115700</v>
       </c>
       <c r="F43" s="3">
-        <v>92200</v>
+        <v>92900</v>
       </c>
       <c r="G43" s="3">
-        <v>64700</v>
+        <v>65200</v>
       </c>
       <c r="H43" s="3">
-        <v>48000</v>
+        <v>48300</v>
       </c>
       <c r="I43" s="3">
-        <v>38600</v>
+        <v>38900</v>
       </c>
       <c r="J43" s="3">
-        <v>69100</v>
+        <v>69600</v>
       </c>
       <c r="K43" s="3">
         <v>118700</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>74800</v>
+        <v>75400</v>
       </c>
       <c r="E45" s="3">
-        <v>61700</v>
+        <v>62200</v>
       </c>
       <c r="F45" s="3">
-        <v>61800</v>
+        <v>62300</v>
       </c>
       <c r="G45" s="3">
-        <v>63200</v>
+        <v>63700</v>
       </c>
       <c r="H45" s="3">
-        <v>82000</v>
+        <v>82600</v>
       </c>
       <c r="I45" s="3">
-        <v>96400</v>
+        <v>97100</v>
       </c>
       <c r="J45" s="3">
-        <v>315300</v>
+        <v>317700</v>
       </c>
       <c r="K45" s="3">
         <v>188800</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>639700</v>
+        <v>644600</v>
       </c>
       <c r="E47" s="3">
-        <v>576200</v>
+        <v>580600</v>
       </c>
       <c r="F47" s="3">
-        <v>610500</v>
+        <v>615200</v>
       </c>
       <c r="G47" s="3">
-        <v>638600</v>
+        <v>643500</v>
       </c>
       <c r="H47" s="3">
-        <v>791300</v>
+        <v>797300</v>
       </c>
       <c r="I47" s="3">
-        <v>739300</v>
+        <v>744900</v>
       </c>
       <c r="J47" s="3">
-        <v>439500</v>
+        <v>442800</v>
       </c>
       <c r="K47" s="3">
         <v>531800</v>
@@ -3152,7 +3152,7 @@
         <v>1500</v>
       </c>
       <c r="G48" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H48" s="3">
         <v>2100</v>
@@ -3214,7 +3214,7 @@
         <v>5800</v>
       </c>
       <c r="E49" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="F49" s="3">
         <v>5800</v>
@@ -3223,7 +3223,7 @@
         <v>5900</v>
       </c>
       <c r="H49" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="I49" s="3">
         <v>6000</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>111000</v>
+        <v>111800</v>
       </c>
       <c r="E52" s="3">
-        <v>172800</v>
+        <v>174100</v>
       </c>
       <c r="F52" s="3">
-        <v>181300</v>
+        <v>182700</v>
       </c>
       <c r="G52" s="3">
-        <v>228200</v>
+        <v>230000</v>
       </c>
       <c r="H52" s="3">
-        <v>209000</v>
+        <v>210600</v>
       </c>
       <c r="I52" s="3">
-        <v>256000</v>
+        <v>258000</v>
       </c>
       <c r="J52" s="3">
-        <v>232400</v>
+        <v>234200</v>
       </c>
       <c r="K52" s="3">
         <v>150900</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1129000</v>
+        <v>1137700</v>
       </c>
       <c r="E54" s="3">
-        <v>1124300</v>
+        <v>1132900</v>
       </c>
       <c r="F54" s="3">
-        <v>1097000</v>
+        <v>1105400</v>
       </c>
       <c r="G54" s="3">
-        <v>1173900</v>
+        <v>1182900</v>
       </c>
       <c r="H54" s="3">
-        <v>1274100</v>
+        <v>1283800</v>
       </c>
       <c r="I54" s="3">
-        <v>1271900</v>
+        <v>1281700</v>
       </c>
       <c r="J54" s="3">
-        <v>1245900</v>
+        <v>1255400</v>
       </c>
       <c r="K54" s="3">
         <v>1275100</v>
@@ -3739,25 +3739,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="E58" s="3">
-        <v>27400</v>
+        <v>27600</v>
       </c>
       <c r="F58" s="3">
-        <v>20000</v>
+        <v>20200</v>
       </c>
       <c r="G58" s="3">
-        <v>54900</v>
+        <v>55300</v>
       </c>
       <c r="H58" s="3">
-        <v>50500</v>
+        <v>50900</v>
       </c>
       <c r="I58" s="3">
-        <v>53500</v>
+        <v>53900</v>
       </c>
       <c r="J58" s="3">
-        <v>53500</v>
+        <v>53900</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>183400</v>
+        <v>184800</v>
       </c>
       <c r="E59" s="3">
-        <v>260700</v>
+        <v>262700</v>
       </c>
       <c r="F59" s="3">
-        <v>296600</v>
+        <v>298800</v>
       </c>
       <c r="G59" s="3">
-        <v>382500</v>
+        <v>385400</v>
       </c>
       <c r="H59" s="3">
-        <v>623300</v>
+        <v>628100</v>
       </c>
       <c r="I59" s="3">
-        <v>602100</v>
+        <v>606700</v>
       </c>
       <c r="J59" s="3">
-        <v>522300</v>
+        <v>526300</v>
       </c>
       <c r="K59" s="3">
         <v>593200</v>
@@ -3943,16 +3943,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>218200</v>
+        <v>219800</v>
       </c>
       <c r="E61" s="3">
-        <v>201200</v>
+        <v>202700</v>
       </c>
       <c r="F61" s="3">
-        <v>218900</v>
+        <v>220500</v>
       </c>
       <c r="G61" s="3">
-        <v>230200</v>
+        <v>231900</v>
       </c>
       <c r="H61" s="3">
         <v>1600</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>531000</v>
+        <v>535000</v>
       </c>
       <c r="E66" s="3">
-        <v>572200</v>
+        <v>576600</v>
       </c>
       <c r="F66" s="3">
-        <v>581100</v>
+        <v>585500</v>
       </c>
       <c r="G66" s="3">
-        <v>692500</v>
+        <v>697800</v>
       </c>
       <c r="H66" s="3">
-        <v>686700</v>
+        <v>691900</v>
       </c>
       <c r="I66" s="3">
-        <v>662800</v>
+        <v>667900</v>
       </c>
       <c r="J66" s="3">
-        <v>585500</v>
+        <v>589900</v>
       </c>
       <c r="K66" s="3">
         <v>602800</v>
@@ -4649,25 +4649,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>106700</v>
+        <v>107500</v>
       </c>
       <c r="E72" s="3">
-        <v>62900</v>
+        <v>63300</v>
       </c>
       <c r="F72" s="3">
-        <v>27900</v>
+        <v>28100</v>
       </c>
       <c r="G72" s="3">
         <v>-2300</v>
       </c>
       <c r="H72" s="3">
-        <v>103000</v>
+        <v>103800</v>
       </c>
       <c r="I72" s="3">
-        <v>120700</v>
+        <v>121700</v>
       </c>
       <c r="J72" s="3">
-        <v>174500</v>
+        <v>175900</v>
       </c>
       <c r="K72" s="3">
         <v>201900</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>598100</v>
+        <v>602700</v>
       </c>
       <c r="E76" s="3">
-        <v>552100</v>
+        <v>556300</v>
       </c>
       <c r="F76" s="3">
-        <v>516000</v>
+        <v>519900</v>
       </c>
       <c r="G76" s="3">
-        <v>481400</v>
+        <v>485100</v>
       </c>
       <c r="H76" s="3">
-        <v>587400</v>
+        <v>591900</v>
       </c>
       <c r="I76" s="3">
-        <v>609100</v>
+        <v>613800</v>
       </c>
       <c r="J76" s="3">
-        <v>660400</v>
+        <v>665500</v>
       </c>
       <c r="K76" s="3">
         <v>672300</v>
@@ -5130,25 +5130,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>43800</v>
+        <v>44200</v>
       </c>
       <c r="E81" s="3">
-        <v>34900</v>
+        <v>35200</v>
       </c>
       <c r="F81" s="3">
-        <v>30200</v>
+        <v>30400</v>
       </c>
       <c r="G81" s="3">
-        <v>-102600</v>
+        <v>-103400</v>
       </c>
       <c r="H81" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="I81" s="3">
-        <v>-53800</v>
+        <v>-54200</v>
       </c>
       <c r="J81" s="3">
-        <v>-30700</v>
+        <v>-31000</v>
       </c>
       <c r="K81" s="3">
         <v>12300</v>

--- a/AAII_Financials/Quarterly/XYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
   <si>
     <t>XYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>152100</v>
+        <v>121300</v>
       </c>
       <c r="E8" s="3">
-        <v>147100</v>
+        <v>413100</v>
       </c>
       <c r="F8" s="3">
-        <v>143000</v>
+        <v>137400</v>
       </c>
       <c r="G8" s="3">
-        <v>113000</v>
+        <v>133600</v>
       </c>
       <c r="H8" s="3">
-        <v>88300</v>
+        <v>105600</v>
       </c>
       <c r="I8" s="3">
-        <v>61200</v>
+        <v>82500</v>
       </c>
       <c r="J8" s="3">
+        <v>57200</v>
+      </c>
+      <c r="K8" s="3">
         <v>83500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>102400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>133300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>123600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>118600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>131300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>116100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>258700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>110400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>108200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>67200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>57200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>32000</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>76300</v>
+        <v>56900</v>
       </c>
       <c r="E9" s="3">
-        <v>82200</v>
+        <v>232400</v>
       </c>
       <c r="F9" s="3">
-        <v>90300</v>
+        <v>76800</v>
       </c>
       <c r="G9" s="3">
-        <v>86900</v>
+        <v>84400</v>
       </c>
       <c r="H9" s="3">
-        <v>88500</v>
+        <v>81200</v>
       </c>
       <c r="I9" s="3">
-        <v>78400</v>
+        <v>82700</v>
       </c>
       <c r="J9" s="3">
+        <v>73200</v>
+      </c>
+      <c r="K9" s="3">
         <v>67000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>62200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>73000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>65900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>51400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>49800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>39800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>80300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>40300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>38100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>30200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>27900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>16200</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>75800</v>
+        <v>64500</v>
       </c>
       <c r="E10" s="3">
-        <v>64900</v>
+        <v>180600</v>
       </c>
       <c r="F10" s="3">
-        <v>52700</v>
+        <v>60600</v>
       </c>
       <c r="G10" s="3">
-        <v>26100</v>
+        <v>49200</v>
       </c>
       <c r="H10" s="3">
+        <v>24400</v>
+      </c>
+      <c r="I10" s="3">
         <v>-200</v>
       </c>
-      <c r="I10" s="3">
-        <v>-17200</v>
-      </c>
       <c r="J10" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="K10" s="3">
         <v>16400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>40200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>60200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>57700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>67200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>81400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>76300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>178400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>70000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>70100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>37000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>29200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>15700</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1141,32 +1160,32 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>151400</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>141500</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>2000</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1180,23 +1199,26 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W14" s="3">
         <v>-200</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>87400</v>
+        <v>75400</v>
       </c>
       <c r="E17" s="3">
-        <v>93800</v>
+        <v>265800</v>
       </c>
       <c r="F17" s="3">
-        <v>103400</v>
+        <v>87600</v>
       </c>
       <c r="G17" s="3">
-        <v>248300</v>
+        <v>96500</v>
       </c>
       <c r="H17" s="3">
-        <v>104300</v>
+        <v>231900</v>
       </c>
       <c r="I17" s="3">
-        <v>115100</v>
+        <v>97400</v>
       </c>
       <c r="J17" s="3">
+        <v>107500</v>
+      </c>
+      <c r="K17" s="3">
         <v>104000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>86700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>99800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>90600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>76000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>87500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>77700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>158900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>75400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>72900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>45700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>50600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>21000</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>64800</v>
+        <v>45900</v>
       </c>
       <c r="E18" s="3">
-        <v>53300</v>
+        <v>147300</v>
       </c>
       <c r="F18" s="3">
-        <v>39600</v>
+        <v>49800</v>
       </c>
       <c r="G18" s="3">
-        <v>-135300</v>
+        <v>37000</v>
       </c>
       <c r="H18" s="3">
-        <v>-16000</v>
+        <v>-126300</v>
       </c>
       <c r="I18" s="3">
-        <v>-53900</v>
+        <v>-14900</v>
       </c>
       <c r="J18" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-20500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>15700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>33500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>33000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>42600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>43800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>38400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>99800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>35000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>35300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>21500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>11000</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,76 +1480,80 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2000</v>
+        <v>-1500</v>
       </c>
       <c r="E20" s="3">
-        <v>-9100</v>
+        <v>-16200</v>
       </c>
       <c r="F20" s="3">
-        <v>-3600</v>
+        <v>-8500</v>
       </c>
       <c r="G20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O20" s="3">
         <v>-3100</v>
       </c>
-      <c r="H20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-15500</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-14000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-900</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-8000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-13100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-600</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-200</v>
       </c>
       <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
+      <c r="W20" s="3">
+        <v>-200</v>
       </c>
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1554,38 +1590,41 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>37300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>87300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
         <v>33600</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3">
         <v>6700</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,144 +1691,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>62800</v>
+        <v>44400</v>
       </c>
       <c r="E23" s="3">
-        <v>44200</v>
+        <v>131100</v>
       </c>
       <c r="F23" s="3">
-        <v>36000</v>
+        <v>41200</v>
       </c>
       <c r="G23" s="3">
-        <v>-138400</v>
+        <v>33600</v>
       </c>
       <c r="H23" s="3">
-        <v>-17100</v>
+        <v>-129300</v>
       </c>
       <c r="I23" s="3">
-        <v>-61200</v>
+        <v>-15900</v>
       </c>
       <c r="J23" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-36000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>29300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>32000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>39600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>35800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>32200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>86600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>29000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>32800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>20900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>6400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>10800</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>18800</v>
+        <v>22700</v>
       </c>
       <c r="E24" s="3">
-        <v>9100</v>
+        <v>31600</v>
       </c>
       <c r="F24" s="3">
-        <v>5900</v>
+        <v>8500</v>
       </c>
       <c r="G24" s="3">
-        <v>-35800</v>
+        <v>5500</v>
       </c>
       <c r="H24" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
-        <v>-6800</v>
-      </c>
       <c r="J24" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="K24" s="3">
         <v>-4900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-10100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-16800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>25100</v>
-      </c>
-      <c r="R24" s="3">
-        <v>9100</v>
       </c>
       <c r="S24" s="3">
         <v>9100</v>
       </c>
       <c r="T24" s="3">
+        <v>9100</v>
+      </c>
+      <c r="U24" s="3">
         <v>6000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3300</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>43900</v>
+        <v>21700</v>
       </c>
       <c r="E26" s="3">
-        <v>35000</v>
+        <v>99500</v>
       </c>
       <c r="F26" s="3">
-        <v>30100</v>
+        <v>32700</v>
       </c>
       <c r="G26" s="3">
-        <v>-102600</v>
+        <v>28100</v>
       </c>
       <c r="H26" s="3">
-        <v>-17300</v>
+        <v>-95800</v>
       </c>
       <c r="I26" s="3">
-        <v>-54300</v>
+        <v>-16200</v>
       </c>
       <c r="J26" s="3">
+        <v>-50800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-31100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>11900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>25200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>48800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>31400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>36400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>27400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>61600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>19900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>23600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>14900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>7400</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>44200</v>
+        <v>21400</v>
       </c>
       <c r="E27" s="3">
-        <v>35200</v>
+        <v>100200</v>
       </c>
       <c r="F27" s="3">
-        <v>30400</v>
+        <v>32900</v>
       </c>
       <c r="G27" s="3">
-        <v>-103400</v>
+        <v>28400</v>
       </c>
       <c r="H27" s="3">
-        <v>-17800</v>
+        <v>-96600</v>
       </c>
       <c r="I27" s="3">
-        <v>-54200</v>
+        <v>-16700</v>
       </c>
       <c r="J27" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-31000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>12300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>26500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>49300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>31900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>36800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>27700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>62000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>19900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>23500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>14900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>7500</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E32" s="3">
-        <v>9100</v>
+        <v>16200</v>
       </c>
       <c r="F32" s="3">
-        <v>3600</v>
+        <v>8500</v>
       </c>
       <c r="G32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K32" s="3">
+        <v>15500</v>
+      </c>
+      <c r="L32" s="3">
+        <v>14000</v>
+      </c>
+      <c r="M32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N32" s="3">
+        <v>900</v>
+      </c>
+      <c r="O32" s="3">
         <v>3100</v>
       </c>
-      <c r="H32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>7300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>15500</v>
-      </c>
-      <c r="K32" s="3">
-        <v>14000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>4200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>900</v>
-      </c>
-      <c r="N32" s="3">
-        <v>3100</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>8000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>13100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>600</v>
-      </c>
-      <c r="U32" s="3">
-        <v>200</v>
       </c>
       <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
+      <c r="W32" s="3">
+        <v>200</v>
       </c>
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>44200</v>
+        <v>21400</v>
       </c>
       <c r="E33" s="3">
-        <v>35200</v>
+        <v>100200</v>
       </c>
       <c r="F33" s="3">
-        <v>30400</v>
+        <v>32900</v>
       </c>
       <c r="G33" s="3">
-        <v>-103400</v>
+        <v>28400</v>
       </c>
       <c r="H33" s="3">
-        <v>-17800</v>
+        <v>-96600</v>
       </c>
       <c r="I33" s="3">
-        <v>-54200</v>
+        <v>-16700</v>
       </c>
       <c r="J33" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-31000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>12300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>26500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>49300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>31900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>36800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>27700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>62000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>19900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>23500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>14900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>7500</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>44200</v>
+        <v>21400</v>
       </c>
       <c r="E35" s="3">
-        <v>35200</v>
+        <v>100200</v>
       </c>
       <c r="F35" s="3">
-        <v>30400</v>
+        <v>32900</v>
       </c>
       <c r="G35" s="3">
-        <v>-103400</v>
+        <v>28400</v>
       </c>
       <c r="H35" s="3">
-        <v>-17800</v>
+        <v>-96600</v>
       </c>
       <c r="I35" s="3">
-        <v>-54200</v>
+        <v>-16700</v>
       </c>
       <c r="J35" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-31000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>12300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>26500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>49300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>31900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>36800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>27700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>62000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>19900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>23500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>14900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>7500</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,56 +2746,57 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>153300</v>
+        <v>86200</v>
       </c>
       <c r="E41" s="3">
-        <v>186800</v>
+        <v>143200</v>
       </c>
       <c r="F41" s="3">
-        <v>126200</v>
+        <v>174500</v>
       </c>
       <c r="G41" s="3">
-        <v>117800</v>
+        <v>117900</v>
       </c>
       <c r="H41" s="3">
-        <v>51200</v>
+        <v>110000</v>
       </c>
       <c r="I41" s="3">
-        <v>52600</v>
+        <v>47800</v>
       </c>
       <c r="J41" s="3">
+        <v>49100</v>
+      </c>
+      <c r="K41" s="3">
         <v>96500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>154900</v>
-      </c>
-      <c r="L41" s="3">
-        <v>145200</v>
       </c>
       <c r="M41" s="3">
         <v>145200</v>
       </c>
       <c r="N41" s="3">
+        <v>145200</v>
+      </c>
+      <c r="O41" s="3">
         <v>237600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>162700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>204900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>87200</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2729,8 +2815,11 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,56 +2886,59 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>140200</v>
+        <v>110100</v>
       </c>
       <c r="E43" s="3">
-        <v>115700</v>
+        <v>130900</v>
       </c>
       <c r="F43" s="3">
-        <v>92900</v>
+        <v>108000</v>
       </c>
       <c r="G43" s="3">
-        <v>65200</v>
+        <v>86800</v>
       </c>
       <c r="H43" s="3">
-        <v>48300</v>
+        <v>60900</v>
       </c>
       <c r="I43" s="3">
-        <v>38900</v>
+        <v>45100</v>
       </c>
       <c r="J43" s="3">
+        <v>36300</v>
+      </c>
+      <c r="K43" s="3">
         <v>69600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>118700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>182000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>184600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>190500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>209800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>200200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>214700</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,56 +3028,59 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>75400</v>
+        <v>31400</v>
       </c>
       <c r="E45" s="3">
-        <v>62200</v>
+        <v>70400</v>
       </c>
       <c r="F45" s="3">
-        <v>62300</v>
+        <v>58100</v>
       </c>
       <c r="G45" s="3">
-        <v>63700</v>
+        <v>58200</v>
       </c>
       <c r="H45" s="3">
-        <v>82600</v>
+        <v>59500</v>
       </c>
       <c r="I45" s="3">
-        <v>97100</v>
+        <v>77200</v>
       </c>
       <c r="J45" s="3">
+        <v>90700</v>
+      </c>
+      <c r="K45" s="3">
         <v>317700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>188800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>90900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>101400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>34900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>17500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>29300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>25900</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3001,8 +3099,11 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,56 +3170,59 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>644600</v>
+        <v>741100</v>
       </c>
       <c r="E47" s="3">
-        <v>580600</v>
+        <v>602100</v>
       </c>
       <c r="F47" s="3">
-        <v>615200</v>
+        <v>542400</v>
       </c>
       <c r="G47" s="3">
-        <v>643500</v>
+        <v>574700</v>
       </c>
       <c r="H47" s="3">
-        <v>797300</v>
+        <v>601100</v>
       </c>
       <c r="I47" s="3">
-        <v>744900</v>
+        <v>744800</v>
       </c>
       <c r="J47" s="3">
+        <v>695800</v>
+      </c>
+      <c r="K47" s="3">
         <v>442800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>531800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>441800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>332600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>168100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>167600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>95900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>137000</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3137,56 +3241,59 @@
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E48" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F48" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="G48" s="3">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="H48" s="3">
-        <v>2100</v>
+        <v>1600</v>
       </c>
       <c r="I48" s="3">
-        <v>2600</v>
+        <v>1900</v>
       </c>
       <c r="J48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K48" s="3">
         <v>2800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3500</v>
-      </c>
-      <c r="M48" s="3">
-        <v>3400</v>
       </c>
       <c r="N48" s="3">
         <v>3400</v>
       </c>
       <c r="O48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P48" s="3">
         <v>3500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2900</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3205,56 +3312,59 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="E49" s="3">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="F49" s="3">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="G49" s="3">
-        <v>5900</v>
+        <v>5400</v>
       </c>
       <c r="H49" s="3">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="I49" s="3">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="J49" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K49" s="3">
         <v>5500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>200</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,56 +3525,59 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>111800</v>
+        <v>100500</v>
       </c>
       <c r="E52" s="3">
-        <v>174100</v>
+        <v>104500</v>
       </c>
       <c r="F52" s="3">
-        <v>182700</v>
+        <v>162700</v>
       </c>
       <c r="G52" s="3">
-        <v>230000</v>
+        <v>170600</v>
       </c>
       <c r="H52" s="3">
-        <v>210600</v>
+        <v>214800</v>
       </c>
       <c r="I52" s="3">
-        <v>258000</v>
+        <v>196800</v>
       </c>
       <c r="J52" s="3">
+        <v>241000</v>
+      </c>
+      <c r="K52" s="3">
         <v>234200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>150900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>162300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>159700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>144700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>84400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>48500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>53200</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,56 +3667,59 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1137700</v>
+        <v>1082000</v>
       </c>
       <c r="E54" s="3">
-        <v>1132900</v>
+        <v>1062700</v>
       </c>
       <c r="F54" s="3">
-        <v>1105400</v>
+        <v>1058300</v>
       </c>
       <c r="G54" s="3">
-        <v>1182900</v>
+        <v>1032600</v>
       </c>
       <c r="H54" s="3">
-        <v>1283800</v>
+        <v>1104900</v>
       </c>
       <c r="I54" s="3">
-        <v>1281700</v>
+        <v>1199200</v>
       </c>
       <c r="J54" s="3">
+        <v>1197200</v>
+      </c>
+      <c r="K54" s="3">
         <v>1255400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1275100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1182400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1062400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>878800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>705400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>587100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>523200</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3613,8 +3738,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3733,50 +3863,53 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11800</v>
+        <v>24500</v>
       </c>
       <c r="E58" s="3">
-        <v>27600</v>
+        <v>11100</v>
       </c>
       <c r="F58" s="3">
-        <v>20200</v>
+        <v>25800</v>
       </c>
       <c r="G58" s="3">
-        <v>55300</v>
+        <v>18900</v>
       </c>
       <c r="H58" s="3">
-        <v>50900</v>
+        <v>51700</v>
       </c>
       <c r="I58" s="3">
+        <v>47500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>50300</v>
+      </c>
+      <c r="K58" s="3">
         <v>53900</v>
       </c>
-      <c r="J58" s="3">
-        <v>53900</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>62200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>62400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>61300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>30100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3792,8 +3925,8 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -3801,56 +3934,59 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>184800</v>
+        <v>167100</v>
       </c>
       <c r="E59" s="3">
-        <v>262700</v>
+        <v>172600</v>
       </c>
       <c r="F59" s="3">
-        <v>298800</v>
+        <v>245400</v>
       </c>
       <c r="G59" s="3">
-        <v>385400</v>
+        <v>279100</v>
       </c>
       <c r="H59" s="3">
-        <v>628100</v>
+        <v>360000</v>
       </c>
       <c r="I59" s="3">
-        <v>606700</v>
+        <v>586700</v>
       </c>
       <c r="J59" s="3">
+        <v>566700</v>
+      </c>
+      <c r="K59" s="3">
         <v>526300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>593200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>451000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>356800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>242900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>129700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>125800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>161600</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,8 +4005,11 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,56 +4076,59 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>219800</v>
+        <v>219200</v>
       </c>
       <c r="E61" s="3">
-        <v>202700</v>
+        <v>205400</v>
       </c>
       <c r="F61" s="3">
-        <v>220500</v>
+        <v>189400</v>
       </c>
       <c r="G61" s="3">
-        <v>231900</v>
+        <v>206000</v>
       </c>
       <c r="H61" s="3">
-        <v>1600</v>
+        <v>216600</v>
       </c>
       <c r="I61" s="3">
-        <v>3300</v>
+        <v>1500</v>
       </c>
       <c r="J61" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K61" s="3">
         <v>5100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>12600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>32400</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4016,14 +4161,14 @@
       <c r="E62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
@@ -4032,22 +4177,22 @@
         <v>100</v>
       </c>
       <c r="K62" s="3">
+        <v>100</v>
+      </c>
+      <c r="L62" s="3">
         <v>200</v>
-      </c>
-      <c r="L62" s="3">
-        <v>7400</v>
       </c>
       <c r="M62" s="3">
         <v>7400</v>
       </c>
       <c r="N62" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="O62" s="3">
         <v>7200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
+      <c r="P62" s="3">
+        <v>7200</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
@@ -4064,8 +4209,8 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,56 +4431,59 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>535000</v>
+        <v>496000</v>
       </c>
       <c r="E66" s="3">
-        <v>576600</v>
+        <v>499800</v>
       </c>
       <c r="F66" s="3">
-        <v>585500</v>
+        <v>538600</v>
       </c>
       <c r="G66" s="3">
-        <v>697800</v>
+        <v>546900</v>
       </c>
       <c r="H66" s="3">
-        <v>691900</v>
+        <v>651800</v>
       </c>
       <c r="I66" s="3">
-        <v>667900</v>
+        <v>646300</v>
       </c>
       <c r="J66" s="3">
+        <v>623800</v>
+      </c>
+      <c r="K66" s="3">
         <v>589900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>602800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>527800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>435400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>320900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>170400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>140000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>202200</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4345,8 +4502,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,56 +4813,59 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>107500</v>
+        <v>119500</v>
       </c>
       <c r="E72" s="3">
-        <v>63300</v>
+        <v>100400</v>
       </c>
       <c r="F72" s="3">
-        <v>28100</v>
+        <v>59200</v>
       </c>
       <c r="G72" s="3">
-        <v>-2300</v>
+        <v>26300</v>
       </c>
       <c r="H72" s="3">
-        <v>103800</v>
+        <v>-2100</v>
       </c>
       <c r="I72" s="3">
-        <v>121700</v>
+        <v>97000</v>
       </c>
       <c r="J72" s="3">
+        <v>113600</v>
+      </c>
+      <c r="K72" s="3">
         <v>175900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>201900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>185000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>164500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>114700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>97400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>55700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>28000</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4711,8 +4884,11 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,56 +5097,59 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>602700</v>
+        <v>586000</v>
       </c>
       <c r="E76" s="3">
-        <v>556300</v>
+        <v>562900</v>
       </c>
       <c r="F76" s="3">
-        <v>519900</v>
+        <v>519600</v>
       </c>
       <c r="G76" s="3">
-        <v>485100</v>
+        <v>485600</v>
       </c>
       <c r="H76" s="3">
-        <v>591900</v>
+        <v>453100</v>
       </c>
       <c r="I76" s="3">
-        <v>613800</v>
+        <v>552900</v>
       </c>
       <c r="J76" s="3">
+        <v>573300</v>
+      </c>
+      <c r="K76" s="3">
         <v>665500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>672300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>654500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>627000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>557900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>535000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>447100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>321000</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4983,8 +5168,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>44200</v>
+        <v>21400</v>
       </c>
       <c r="E81" s="3">
-        <v>35200</v>
+        <v>100200</v>
       </c>
       <c r="F81" s="3">
-        <v>30400</v>
+        <v>32900</v>
       </c>
       <c r="G81" s="3">
-        <v>-103400</v>
+        <v>28400</v>
       </c>
       <c r="H81" s="3">
-        <v>-17800</v>
+        <v>-96600</v>
       </c>
       <c r="I81" s="3">
-        <v>-54200</v>
+        <v>-16700</v>
       </c>
       <c r="J81" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-31000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>12300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>26500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>49300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>31900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>36800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>27700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>62000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>19900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>23500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>14900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>7500</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5268,8 +5466,8 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
@@ -5277,8 +5475,8 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
+      <c r="V83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5676,8 +5892,8 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
+      <c r="S89" s="3">
+        <v>0</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
@@ -5685,8 +5901,8 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
+      <c r="V89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W89" s="3">
         <v>0</v>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5770,8 +5990,8 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
@@ -5779,8 +5999,8 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5974,8 +6203,8 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
@@ -5983,8 +6212,8 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="V94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6340,8 +6585,8 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
@@ -6349,8 +6594,8 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
+      <c r="V100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
@@ -6358,8 +6603,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6408,8 +6656,8 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>3</v>
+      <c r="S101" s="3">
+        <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>3</v>
@@ -6417,8 +6665,8 @@
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
+      <c r="V101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W101" s="3">
         <v>0</v>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6476,8 +6727,8 @@
       <c r="R102" s="3">
         <v>0</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
+      <c r="S102" s="3">
+        <v>0</v>
       </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
@@ -6485,13 +6736,16 @@
       <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
+      <c r="V102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
   <si>
     <t>XYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>121300</v>
+        <v>129700</v>
       </c>
       <c r="E8" s="3">
-        <v>413100</v>
+        <v>120200</v>
       </c>
       <c r="F8" s="3">
-        <v>137400</v>
+        <v>140800</v>
       </c>
       <c r="G8" s="3">
-        <v>133600</v>
+        <v>136200</v>
       </c>
       <c r="H8" s="3">
-        <v>105600</v>
+        <v>132300</v>
       </c>
       <c r="I8" s="3">
-        <v>82500</v>
+        <v>104600</v>
       </c>
       <c r="J8" s="3">
+        <v>81700</v>
+      </c>
+      <c r="K8" s="3">
         <v>57200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>83500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>102400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>133300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>123600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>118600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>131300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>116100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>258700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>110400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>108200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>67200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>57200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>32000</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>56900</v>
+        <v>67800</v>
       </c>
       <c r="E9" s="3">
-        <v>232400</v>
+        <v>56300</v>
       </c>
       <c r="F9" s="3">
-        <v>76800</v>
+        <v>70700</v>
       </c>
       <c r="G9" s="3">
-        <v>84400</v>
+        <v>76100</v>
       </c>
       <c r="H9" s="3">
-        <v>81200</v>
+        <v>83600</v>
       </c>
       <c r="I9" s="3">
-        <v>82700</v>
+        <v>80400</v>
       </c>
       <c r="J9" s="3">
+        <v>82000</v>
+      </c>
+      <c r="K9" s="3">
         <v>73200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>67000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>62200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>73000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>65900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>51400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>49800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>39800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>80300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>40300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>38100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>30200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>27900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>16200</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>64500</v>
+        <v>61900</v>
       </c>
       <c r="E10" s="3">
-        <v>180600</v>
+        <v>63900</v>
       </c>
       <c r="F10" s="3">
-        <v>60600</v>
+        <v>70200</v>
       </c>
       <c r="G10" s="3">
-        <v>49200</v>
+        <v>60100</v>
       </c>
       <c r="H10" s="3">
-        <v>24400</v>
+        <v>48700</v>
       </c>
       <c r="I10" s="3">
+        <v>24200</v>
+      </c>
+      <c r="J10" s="3">
         <v>-200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-16000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>16400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>40200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>60200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>57700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>67200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>81400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>76300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>178400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>70000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>70100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>37000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>29200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>15700</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,16 +1163,19 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -1163,32 +1183,32 @@
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
-        <v>141500</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>140200</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>2000</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1202,23 +1222,26 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>3</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X14" s="3">
         <v>-200</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,79 +1338,83 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>83900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>74700</v>
+      </c>
+      <c r="F17" s="3">
+        <v>80900</v>
+      </c>
+      <c r="G17" s="3">
+        <v>86800</v>
+      </c>
+      <c r="H17" s="3">
+        <v>95700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>229800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>96600</v>
+      </c>
+      <c r="K17" s="3">
+        <v>107500</v>
+      </c>
+      <c r="L17" s="3">
+        <v>104000</v>
+      </c>
+      <c r="M17" s="3">
+        <v>86700</v>
+      </c>
+      <c r="N17" s="3">
+        <v>99800</v>
+      </c>
+      <c r="O17" s="3">
+        <v>90600</v>
+      </c>
+      <c r="P17" s="3">
+        <v>76000</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>87500</v>
+      </c>
+      <c r="R17" s="3">
+        <v>77700</v>
+      </c>
+      <c r="S17" s="3">
+        <v>158900</v>
+      </c>
+      <c r="T17" s="3">
         <v>75400</v>
       </c>
-      <c r="E17" s="3">
-        <v>265800</v>
-      </c>
-      <c r="F17" s="3">
-        <v>87600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>96500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>231900</v>
-      </c>
-      <c r="I17" s="3">
-        <v>97400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>107500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>104000</v>
-      </c>
-      <c r="L17" s="3">
-        <v>86700</v>
-      </c>
-      <c r="M17" s="3">
-        <v>99800</v>
-      </c>
-      <c r="N17" s="3">
-        <v>90600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>76000</v>
-      </c>
-      <c r="P17" s="3">
-        <v>87500</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>77700</v>
-      </c>
-      <c r="R17" s="3">
-        <v>158900</v>
-      </c>
-      <c r="S17" s="3">
-        <v>75400</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>72900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>45700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>50600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>21000</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1392,70 +1422,73 @@
         <v>45900</v>
       </c>
       <c r="E18" s="3">
-        <v>147300</v>
+        <v>45500</v>
       </c>
       <c r="F18" s="3">
-        <v>49800</v>
+        <v>60000</v>
       </c>
       <c r="G18" s="3">
-        <v>37000</v>
+        <v>49300</v>
       </c>
       <c r="H18" s="3">
-        <v>-126300</v>
+        <v>36700</v>
       </c>
       <c r="I18" s="3">
-        <v>-14900</v>
+        <v>-125200</v>
       </c>
       <c r="J18" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-50300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-20500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>15700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>33500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>33000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>42600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>43800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>38400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>99800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>35000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>35300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>21500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>6600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>11000</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,79 +1514,83 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1500</v>
+        <v>500</v>
       </c>
       <c r="E20" s="3">
-        <v>-16200</v>
+        <v>-3900</v>
       </c>
       <c r="F20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G20" s="3">
         <v>-8500</v>
       </c>
-      <c r="G20" s="3">
-        <v>-3400</v>
-      </c>
       <c r="H20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I20" s="3">
         <v>-2900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-15500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-14000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-13100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-6000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-600</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-200</v>
       </c>
       <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
+      <c r="X20" s="3">
+        <v>-200</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1593,38 +1630,41 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>37300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
         <v>87300</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3">
         <v>33600</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="3">
         <v>6700</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,150 +1734,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>44400</v>
+        <v>46400</v>
       </c>
       <c r="E23" s="3">
-        <v>131100</v>
+        <v>41600</v>
       </c>
       <c r="F23" s="3">
-        <v>41200</v>
+        <v>58100</v>
       </c>
       <c r="G23" s="3">
-        <v>33600</v>
+        <v>40900</v>
       </c>
       <c r="H23" s="3">
-        <v>-129300</v>
+        <v>32800</v>
       </c>
       <c r="I23" s="3">
-        <v>-15900</v>
+        <v>-128100</v>
       </c>
       <c r="J23" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-57100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-36000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>29300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>32000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>39600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>35800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>32200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>86600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>29000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>32800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>20900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>6400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>10800</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>22700</v>
+        <v>26400</v>
       </c>
       <c r="E24" s="3">
-        <v>31600</v>
+        <v>22500</v>
       </c>
       <c r="F24" s="3">
+        <v>17400</v>
+      </c>
+      <c r="G24" s="3">
         <v>8500</v>
       </c>
-      <c r="G24" s="3">
-        <v>5500</v>
-      </c>
       <c r="H24" s="3">
-        <v>-33400</v>
+        <v>5400</v>
       </c>
       <c r="I24" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-6400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-10100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-16800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>25100</v>
-      </c>
-      <c r="S24" s="3">
-        <v>9100</v>
       </c>
       <c r="T24" s="3">
         <v>9100</v>
       </c>
       <c r="U24" s="3">
+        <v>9100</v>
+      </c>
+      <c r="V24" s="3">
         <v>6000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3300</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>21700</v>
+        <v>20000</v>
       </c>
       <c r="E26" s="3">
-        <v>99500</v>
+        <v>19100</v>
       </c>
       <c r="F26" s="3">
-        <v>32700</v>
+        <v>40600</v>
       </c>
       <c r="G26" s="3">
-        <v>28100</v>
+        <v>32400</v>
       </c>
       <c r="H26" s="3">
-        <v>-95800</v>
+        <v>27300</v>
       </c>
       <c r="I26" s="3">
-        <v>-16200</v>
+        <v>-95000</v>
       </c>
       <c r="J26" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-50800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-31100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>11900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>25200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>48800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>31400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>36400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>27400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>61600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>19900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>23600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>14900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>7400</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>21400</v>
+        <v>20400</v>
       </c>
       <c r="E27" s="3">
-        <v>100200</v>
+        <v>18900</v>
       </c>
       <c r="F27" s="3">
-        <v>32900</v>
+        <v>40900</v>
       </c>
       <c r="G27" s="3">
-        <v>28400</v>
+        <v>32600</v>
       </c>
       <c r="H27" s="3">
-        <v>-96600</v>
+        <v>27600</v>
       </c>
       <c r="I27" s="3">
-        <v>-16700</v>
+        <v>-95700</v>
       </c>
       <c r="J27" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-50600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-31000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>12300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>26500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>49300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>31900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>36800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>27700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>62000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>19900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>23500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>14900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>7500</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1500</v>
+        <v>-500</v>
       </c>
       <c r="E32" s="3">
-        <v>16200</v>
+        <v>3900</v>
       </c>
       <c r="F32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G32" s="3">
         <v>8500</v>
       </c>
-      <c r="G32" s="3">
-        <v>3400</v>
-      </c>
       <c r="H32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I32" s="3">
         <v>2900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>15500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>14000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>8000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>13100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>6000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>600</v>
-      </c>
-      <c r="V32" s="3">
-        <v>200</v>
       </c>
       <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
+      <c r="X32" s="3">
+        <v>200</v>
       </c>
       <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>21400</v>
+        <v>20400</v>
       </c>
       <c r="E33" s="3">
-        <v>100200</v>
+        <v>18900</v>
       </c>
       <c r="F33" s="3">
-        <v>32900</v>
+        <v>40900</v>
       </c>
       <c r="G33" s="3">
-        <v>28400</v>
+        <v>32600</v>
       </c>
       <c r="H33" s="3">
-        <v>-96600</v>
+        <v>27600</v>
       </c>
       <c r="I33" s="3">
-        <v>-16700</v>
+        <v>-95700</v>
       </c>
       <c r="J33" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-50600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-31000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>12300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>26500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>49300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>31900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>36800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>27700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>62000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>19900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>23500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>14900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>7500</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>21400</v>
+        <v>20400</v>
       </c>
       <c r="E35" s="3">
-        <v>100200</v>
+        <v>18900</v>
       </c>
       <c r="F35" s="3">
-        <v>32900</v>
+        <v>40900</v>
       </c>
       <c r="G35" s="3">
-        <v>28400</v>
+        <v>32600</v>
       </c>
       <c r="H35" s="3">
-        <v>-96600</v>
+        <v>27600</v>
       </c>
       <c r="I35" s="3">
-        <v>-16700</v>
+        <v>-95700</v>
       </c>
       <c r="J35" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-50600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-31000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>12300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>26500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>49300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>31900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>36800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>27700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>62000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>19900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>23500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>14900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>7500</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,59 +2833,60 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>86200</v>
+        <v>94800</v>
       </c>
       <c r="E41" s="3">
-        <v>143200</v>
+        <v>85400</v>
       </c>
       <c r="F41" s="3">
-        <v>174500</v>
+        <v>141900</v>
       </c>
       <c r="G41" s="3">
-        <v>117900</v>
+        <v>172900</v>
       </c>
       <c r="H41" s="3">
-        <v>110000</v>
+        <v>116800</v>
       </c>
       <c r="I41" s="3">
-        <v>47800</v>
+        <v>109000</v>
       </c>
       <c r="J41" s="3">
+        <v>47400</v>
+      </c>
+      <c r="K41" s="3">
         <v>49100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>96500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>154900</v>
-      </c>
-      <c r="M41" s="3">
-        <v>145200</v>
       </c>
       <c r="N41" s="3">
         <v>145200</v>
       </c>
       <c r="O41" s="3">
+        <v>145200</v>
+      </c>
+      <c r="P41" s="3">
         <v>237600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>162700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>204900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>87200</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2818,8 +2905,11 @@
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,59 +2979,62 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>110100</v>
+        <v>108500</v>
       </c>
       <c r="E43" s="3">
-        <v>130900</v>
+        <v>109200</v>
       </c>
       <c r="F43" s="3">
-        <v>108000</v>
+        <v>129700</v>
       </c>
       <c r="G43" s="3">
-        <v>86800</v>
+        <v>107100</v>
       </c>
       <c r="H43" s="3">
-        <v>60900</v>
+        <v>86000</v>
       </c>
       <c r="I43" s="3">
-        <v>45100</v>
+        <v>60400</v>
       </c>
       <c r="J43" s="3">
+        <v>44700</v>
+      </c>
+      <c r="K43" s="3">
         <v>36300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>69600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>118700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>182000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>184600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>190500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>209800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>200200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>214700</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,59 +3127,62 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>31400</v>
+        <v>12200</v>
       </c>
       <c r="E45" s="3">
-        <v>70400</v>
+        <v>31100</v>
       </c>
       <c r="F45" s="3">
-        <v>58100</v>
+        <v>69700</v>
       </c>
       <c r="G45" s="3">
-        <v>58200</v>
+        <v>57600</v>
       </c>
       <c r="H45" s="3">
-        <v>59500</v>
+        <v>57600</v>
       </c>
       <c r="I45" s="3">
-        <v>77200</v>
+        <v>59000</v>
       </c>
       <c r="J45" s="3">
+        <v>76500</v>
+      </c>
+      <c r="K45" s="3">
         <v>90700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>317700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>188800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>90900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>101400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>34900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>17500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>29300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>25900</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3102,8 +3201,11 @@
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3173,59 +3275,62 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>741100</v>
+        <v>850500</v>
       </c>
       <c r="E47" s="3">
-        <v>602100</v>
+        <v>734400</v>
       </c>
       <c r="F47" s="3">
-        <v>542400</v>
+        <v>596700</v>
       </c>
       <c r="G47" s="3">
-        <v>574700</v>
+        <v>537500</v>
       </c>
       <c r="H47" s="3">
-        <v>601100</v>
+        <v>569500</v>
       </c>
       <c r="I47" s="3">
-        <v>744800</v>
+        <v>595600</v>
       </c>
       <c r="J47" s="3">
+        <v>738100</v>
+      </c>
+      <c r="K47" s="3">
         <v>695800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>442800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>531800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>441800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>332600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>168100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>167600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>95900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>137000</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3244,59 +3349,62 @@
       <c r="Y47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E48" s="3">
         <v>900</v>
       </c>
       <c r="F48" s="3">
+        <v>900</v>
+      </c>
+      <c r="G48" s="3">
         <v>1200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3500</v>
-      </c>
-      <c r="N48" s="3">
-        <v>3400</v>
       </c>
       <c r="O48" s="3">
         <v>3400</v>
       </c>
       <c r="P48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Q48" s="3">
         <v>3500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2900</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3315,13 +3423,16 @@
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="E49" s="3">
         <v>5400</v>
@@ -3333,41 +3444,41 @@
         <v>5400</v>
       </c>
       <c r="H49" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I49" s="3">
         <v>5500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K49" s="3">
         <v>5600</v>
       </c>
-      <c r="J49" s="3">
-        <v>5600</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>200</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,59 +3645,62 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100500</v>
+        <v>118600</v>
       </c>
       <c r="E52" s="3">
-        <v>104500</v>
+        <v>99600</v>
       </c>
       <c r="F52" s="3">
-        <v>162700</v>
+        <v>103500</v>
       </c>
       <c r="G52" s="3">
-        <v>170600</v>
+        <v>161200</v>
       </c>
       <c r="H52" s="3">
-        <v>214800</v>
+        <v>169100</v>
       </c>
       <c r="I52" s="3">
-        <v>196800</v>
+        <v>212900</v>
       </c>
       <c r="J52" s="3">
+        <v>195000</v>
+      </c>
+      <c r="K52" s="3">
         <v>241000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>234200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>150900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>162300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>159700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>144700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>84400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>48500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>53200</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,59 +3793,62 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1082000</v>
+        <v>1202900</v>
       </c>
       <c r="E54" s="3">
-        <v>1062700</v>
+        <v>1072300</v>
       </c>
       <c r="F54" s="3">
-        <v>1058300</v>
+        <v>1053100</v>
       </c>
       <c r="G54" s="3">
-        <v>1032600</v>
+        <v>1048700</v>
       </c>
       <c r="H54" s="3">
-        <v>1104900</v>
+        <v>1023200</v>
       </c>
       <c r="I54" s="3">
-        <v>1199200</v>
+        <v>1094900</v>
       </c>
       <c r="J54" s="3">
+        <v>1188400</v>
+      </c>
+      <c r="K54" s="3">
         <v>1197200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1255400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1275100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1182400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1062400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>878800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>705400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>587100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>523200</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3741,8 +3867,11 @@
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3866,53 +3997,56 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>24500</v>
+        <v>17500</v>
       </c>
       <c r="E58" s="3">
-        <v>11100</v>
+        <v>24300</v>
       </c>
       <c r="F58" s="3">
-        <v>25800</v>
+        <v>11000</v>
       </c>
       <c r="G58" s="3">
-        <v>18900</v>
+        <v>25600</v>
       </c>
       <c r="H58" s="3">
-        <v>51700</v>
+        <v>18700</v>
       </c>
       <c r="I58" s="3">
-        <v>47500</v>
+        <v>51200</v>
       </c>
       <c r="J58" s="3">
+        <v>47100</v>
+      </c>
+      <c r="K58" s="3">
         <v>50300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>53900</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>62200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>62400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>61300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>30100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3928,8 +4062,8 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -3937,59 +4071,62 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>167100</v>
+        <v>176500</v>
       </c>
       <c r="E59" s="3">
-        <v>172600</v>
+        <v>165600</v>
       </c>
       <c r="F59" s="3">
-        <v>245400</v>
+        <v>171000</v>
       </c>
       <c r="G59" s="3">
-        <v>279100</v>
+        <v>243200</v>
       </c>
       <c r="H59" s="3">
-        <v>360000</v>
+        <v>276600</v>
       </c>
       <c r="I59" s="3">
-        <v>586700</v>
+        <v>356800</v>
       </c>
       <c r="J59" s="3">
+        <v>581400</v>
+      </c>
+      <c r="K59" s="3">
         <v>566700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>526300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>593200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>451000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>356800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>242900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>129700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>125800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>161600</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4008,8 +4145,11 @@
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4079,59 +4219,62 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>219200</v>
+        <v>315200</v>
       </c>
       <c r="E61" s="3">
-        <v>205400</v>
+        <v>217200</v>
       </c>
       <c r="F61" s="3">
-        <v>189400</v>
+        <v>203500</v>
       </c>
       <c r="G61" s="3">
-        <v>206000</v>
+        <v>187700</v>
       </c>
       <c r="H61" s="3">
-        <v>216600</v>
+        <v>204100</v>
       </c>
       <c r="I61" s="3">
+        <v>214700</v>
+      </c>
+      <c r="J61" s="3">
         <v>1500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>12600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>32400</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4150,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4164,14 +4310,14 @@
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
@@ -4180,22 +4326,22 @@
         <v>100</v>
       </c>
       <c r="L62" s="3">
+        <v>100</v>
+      </c>
+      <c r="M62" s="3">
         <v>200</v>
-      </c>
-      <c r="M62" s="3">
-        <v>7400</v>
       </c>
       <c r="N62" s="3">
         <v>7400</v>
       </c>
       <c r="O62" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="P62" s="3">
         <v>7200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
+      <c r="Q62" s="3">
+        <v>7200</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
@@ -4212,8 +4358,8 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,59 +4589,62 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>496000</v>
+        <v>600100</v>
       </c>
       <c r="E66" s="3">
-        <v>499800</v>
+        <v>491500</v>
       </c>
       <c r="F66" s="3">
-        <v>538600</v>
+        <v>495200</v>
       </c>
       <c r="G66" s="3">
-        <v>546900</v>
+        <v>533700</v>
       </c>
       <c r="H66" s="3">
-        <v>651800</v>
+        <v>542000</v>
       </c>
       <c r="I66" s="3">
-        <v>646300</v>
+        <v>645900</v>
       </c>
       <c r="J66" s="3">
+        <v>640500</v>
+      </c>
+      <c r="K66" s="3">
         <v>623800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>589900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>602800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>527800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>435400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>320900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>170400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>140000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>202200</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4505,8 +4663,11 @@
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,59 +4987,62 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>119500</v>
+        <v>138800</v>
       </c>
       <c r="E72" s="3">
-        <v>100400</v>
+        <v>118400</v>
       </c>
       <c r="F72" s="3">
-        <v>59200</v>
+        <v>99500</v>
       </c>
       <c r="G72" s="3">
-        <v>26300</v>
+        <v>58600</v>
       </c>
       <c r="H72" s="3">
+        <v>26000</v>
+      </c>
+      <c r="I72" s="3">
         <v>-2100</v>
       </c>
-      <c r="I72" s="3">
-        <v>97000</v>
-      </c>
       <c r="J72" s="3">
+        <v>96100</v>
+      </c>
+      <c r="K72" s="3">
         <v>113600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>175900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>201900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>185000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>164500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>114700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>97400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>55700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>28000</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4887,8 +5061,11 @@
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,59 +5283,62 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>586000</v>
+        <v>602800</v>
       </c>
       <c r="E76" s="3">
-        <v>562900</v>
+        <v>580700</v>
       </c>
       <c r="F76" s="3">
-        <v>519600</v>
+        <v>557900</v>
       </c>
       <c r="G76" s="3">
-        <v>485600</v>
+        <v>515000</v>
       </c>
       <c r="H76" s="3">
-        <v>453100</v>
+        <v>481300</v>
       </c>
       <c r="I76" s="3">
-        <v>552900</v>
+        <v>449000</v>
       </c>
       <c r="J76" s="3">
+        <v>547900</v>
+      </c>
+      <c r="K76" s="3">
         <v>573300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>665500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>672300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>654500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>627000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>557900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>535000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>447100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>321000</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5171,8 +5357,11 @@
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>21400</v>
+        <v>20400</v>
       </c>
       <c r="E81" s="3">
-        <v>100200</v>
+        <v>18900</v>
       </c>
       <c r="F81" s="3">
-        <v>32900</v>
+        <v>40900</v>
       </c>
       <c r="G81" s="3">
-        <v>28400</v>
+        <v>32600</v>
       </c>
       <c r="H81" s="3">
-        <v>-96600</v>
+        <v>27600</v>
       </c>
       <c r="I81" s="3">
-        <v>-16700</v>
+        <v>-95700</v>
       </c>
       <c r="J81" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-50600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-31000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>12300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>26500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>49300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>31900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>36800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>27700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>62000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>19900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>23500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>14900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>7500</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5469,8 +5668,8 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
@@ -5478,8 +5677,8 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
+      <c r="W83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6056,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5895,8 +6112,8 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
+      <c r="T89" s="3">
+        <v>0</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
@@ -5904,8 +6121,8 @@
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
+      <c r="W89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X89" s="3">
         <v>0</v>
@@ -5913,8 +6130,11 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5993,8 +6214,8 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
@@ -6002,8 +6223,8 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6206,8 +6436,8 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
@@ -6215,8 +6445,8 @@
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
+      <c r="W94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6588,8 +6834,8 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
+      <c r="T100" s="3">
+        <v>0</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
@@ -6597,8 +6843,8 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
+      <c r="W100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X100" s="3">
         <v>0</v>
@@ -6606,8 +6852,11 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6659,8 +6908,8 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>3</v>
+      <c r="T101" s="3">
+        <v>0</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>3</v>
@@ -6668,8 +6917,8 @@
       <c r="V101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
+      <c r="W101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X101" s="3">
         <v>0</v>
@@ -6677,8 +6926,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6730,8 +6982,8 @@
       <c r="S102" s="3">
         <v>0</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
+      <c r="T102" s="3">
+        <v>0</v>
       </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
@@ -6739,13 +6991,16 @@
       <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
+      <c r="W102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
   <si>
     <t>XYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Z7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>129700</v>
+        <v>114700</v>
       </c>
       <c r="E8" s="3">
-        <v>120200</v>
+        <v>123700</v>
       </c>
       <c r="F8" s="3">
-        <v>140800</v>
+        <v>114600</v>
       </c>
       <c r="G8" s="3">
-        <v>136200</v>
+        <v>134200</v>
       </c>
       <c r="H8" s="3">
-        <v>132300</v>
+        <v>129800</v>
       </c>
       <c r="I8" s="3">
-        <v>104600</v>
+        <v>126200</v>
       </c>
       <c r="J8" s="3">
+        <v>99700</v>
+      </c>
+      <c r="K8" s="3">
         <v>81700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>57200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>83500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>102400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>133300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>123600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>118600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>131300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>116100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>258700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>110400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>108200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>67200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>57200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>32000</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>67800</v>
+        <v>74200</v>
       </c>
       <c r="E9" s="3">
-        <v>56300</v>
+        <v>64700</v>
       </c>
       <c r="F9" s="3">
-        <v>70700</v>
+        <v>53700</v>
       </c>
       <c r="G9" s="3">
-        <v>76100</v>
+        <v>67300</v>
       </c>
       <c r="H9" s="3">
-        <v>83600</v>
+        <v>72500</v>
       </c>
       <c r="I9" s="3">
-        <v>80400</v>
+        <v>79700</v>
       </c>
       <c r="J9" s="3">
+        <v>76700</v>
+      </c>
+      <c r="K9" s="3">
         <v>82000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>73200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>67000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>62200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>73000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>65900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>51400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>49800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>39800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>80300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>40300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>38100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>30200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>27900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>16200</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>61900</v>
+        <v>40500</v>
       </c>
       <c r="E10" s="3">
-        <v>63900</v>
+        <v>59000</v>
       </c>
       <c r="F10" s="3">
-        <v>70200</v>
+        <v>60900</v>
       </c>
       <c r="G10" s="3">
-        <v>60100</v>
+        <v>66900</v>
       </c>
       <c r="H10" s="3">
-        <v>48700</v>
+        <v>57300</v>
       </c>
       <c r="I10" s="3">
-        <v>24200</v>
+        <v>46500</v>
       </c>
       <c r="J10" s="3">
+        <v>23000</v>
+      </c>
+      <c r="K10" s="3">
         <v>-200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-16000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>16400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>40200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>60200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>57700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>67200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>81400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>76300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>178400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>70000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>70100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>37000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>29200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>15700</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,19 +1183,22 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1186,32 +1206,32 @@
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
-        <v>140200</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>133600</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>2000</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1225,23 +1245,26 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>3</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-200</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>83900</v>
+        <v>87800</v>
       </c>
       <c r="E17" s="3">
-        <v>74700</v>
+        <v>79900</v>
       </c>
       <c r="F17" s="3">
-        <v>80900</v>
+        <v>71200</v>
       </c>
       <c r="G17" s="3">
-        <v>86800</v>
+        <v>77100</v>
       </c>
       <c r="H17" s="3">
-        <v>95700</v>
+        <v>82800</v>
       </c>
       <c r="I17" s="3">
-        <v>229800</v>
+        <v>91200</v>
       </c>
       <c r="J17" s="3">
+        <v>219000</v>
+      </c>
+      <c r="K17" s="3">
         <v>96600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>107500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>104000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>86700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>99800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>90600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>76000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>87500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>77700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>158900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>75400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>72900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>45700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>50600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>21000</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>45900</v>
+        <v>27000</v>
       </c>
       <c r="E18" s="3">
-        <v>45500</v>
+        <v>43700</v>
       </c>
       <c r="F18" s="3">
-        <v>60000</v>
+        <v>43400</v>
       </c>
       <c r="G18" s="3">
-        <v>49300</v>
+        <v>57200</v>
       </c>
       <c r="H18" s="3">
-        <v>36700</v>
+        <v>47000</v>
       </c>
       <c r="I18" s="3">
-        <v>-125200</v>
+        <v>35000</v>
       </c>
       <c r="J18" s="3">
+        <v>-119300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-14800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-50300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-20500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>15700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>33500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>33000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>42600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>43800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>38400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>99800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>35000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>35300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>21500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>6600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>11000</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,82 +1548,86 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
-        <v>-3900</v>
-      </c>
       <c r="F20" s="3">
-        <v>-1900</v>
+        <v>-3700</v>
       </c>
       <c r="G20" s="3">
-        <v>-8500</v>
+        <v>-1800</v>
       </c>
       <c r="H20" s="3">
-        <v>-3900</v>
+        <v>-8000</v>
       </c>
       <c r="I20" s="3">
-        <v>-2900</v>
+        <v>-3700</v>
       </c>
       <c r="J20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-15500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-14000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-8000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-13100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-6000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-600</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-200</v>
       </c>
       <c r="X20" s="3">
         <v>-200</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>3</v>
+      <c r="Y20" s="3">
+        <v>-200</v>
       </c>
       <c r="Z20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1633,38 +1670,41 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>37300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
         <v>87300</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3">
         <v>33600</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X21" s="3">
         <v>6700</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,156 +1777,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>46400</v>
+        <v>30700</v>
       </c>
       <c r="E23" s="3">
-        <v>41600</v>
+        <v>44200</v>
       </c>
       <c r="F23" s="3">
-        <v>58100</v>
+        <v>39700</v>
       </c>
       <c r="G23" s="3">
-        <v>40900</v>
+        <v>55400</v>
       </c>
       <c r="H23" s="3">
+        <v>39000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>31200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-122100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O23" s="3">
+        <v>29300</v>
+      </c>
+      <c r="P23" s="3">
+        <v>32000</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>39600</v>
+      </c>
+      <c r="R23" s="3">
+        <v>35800</v>
+      </c>
+      <c r="S23" s="3">
+        <v>32200</v>
+      </c>
+      <c r="T23" s="3">
+        <v>86600</v>
+      </c>
+      <c r="U23" s="3">
+        <v>29000</v>
+      </c>
+      <c r="V23" s="3">
         <v>32800</v>
       </c>
-      <c r="I23" s="3">
-        <v>-128100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-15800</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-57100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-36000</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1800</v>
-      </c>
-      <c r="N23" s="3">
-        <v>29300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>32000</v>
-      </c>
-      <c r="P23" s="3">
-        <v>39600</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>35800</v>
-      </c>
-      <c r="R23" s="3">
-        <v>32200</v>
-      </c>
-      <c r="S23" s="3">
-        <v>86600</v>
-      </c>
-      <c r="T23" s="3">
-        <v>29000</v>
-      </c>
-      <c r="U23" s="3">
-        <v>32800</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>20900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>6400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>10800</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>26400</v>
+        <v>5900</v>
       </c>
       <c r="E24" s="3">
-        <v>22500</v>
+        <v>25200</v>
       </c>
       <c r="F24" s="3">
-        <v>17400</v>
+        <v>21500</v>
       </c>
       <c r="G24" s="3">
-        <v>8500</v>
+        <v>16600</v>
       </c>
       <c r="H24" s="3">
-        <v>5400</v>
+        <v>8100</v>
       </c>
       <c r="I24" s="3">
-        <v>-33100</v>
+        <v>5200</v>
       </c>
       <c r="J24" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-10100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-16800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>25100</v>
-      </c>
-      <c r="T24" s="3">
-        <v>9100</v>
       </c>
       <c r="U24" s="3">
         <v>9100</v>
       </c>
       <c r="V24" s="3">
+        <v>9100</v>
+      </c>
+      <c r="W24" s="3">
         <v>6000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3300</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>20000</v>
+        <v>24800</v>
       </c>
       <c r="E26" s="3">
-        <v>19100</v>
+        <v>19000</v>
       </c>
       <c r="F26" s="3">
-        <v>40600</v>
+        <v>18200</v>
       </c>
       <c r="G26" s="3">
-        <v>32400</v>
+        <v>38700</v>
       </c>
       <c r="H26" s="3">
-        <v>27300</v>
+        <v>30900</v>
       </c>
       <c r="I26" s="3">
-        <v>-95000</v>
+        <v>26100</v>
       </c>
       <c r="J26" s="3">
+        <v>-90500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-16000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-50800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-31100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>25200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>48800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>31400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>36400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>27400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>61600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>19900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>23600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>14900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>7400</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>20400</v>
+        <v>25800</v>
       </c>
       <c r="E27" s="3">
-        <v>18900</v>
+        <v>19500</v>
       </c>
       <c r="F27" s="3">
-        <v>40900</v>
+        <v>18000</v>
       </c>
       <c r="G27" s="3">
-        <v>32600</v>
+        <v>39000</v>
       </c>
       <c r="H27" s="3">
-        <v>27600</v>
+        <v>31100</v>
       </c>
       <c r="I27" s="3">
-        <v>-95700</v>
+        <v>26300</v>
       </c>
       <c r="J27" s="3">
+        <v>-91200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-16500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-50600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-31000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>12300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>26500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>49300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>31900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>36800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>27700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>62000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>19900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>23500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>14900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>4400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>7500</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
-        <v>3900</v>
-      </c>
       <c r="F32" s="3">
-        <v>1900</v>
+        <v>3700</v>
       </c>
       <c r="G32" s="3">
-        <v>8500</v>
+        <v>1800</v>
       </c>
       <c r="H32" s="3">
-        <v>3900</v>
+        <v>8000</v>
       </c>
       <c r="I32" s="3">
-        <v>2900</v>
+        <v>3700</v>
       </c>
       <c r="J32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>15500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>14000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>8000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>13100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>6000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>600</v>
-      </c>
-      <c r="W32" s="3">
-        <v>200</v>
       </c>
       <c r="X32" s="3">
         <v>200</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>3</v>
+      <c r="Y32" s="3">
+        <v>200</v>
       </c>
       <c r="Z32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>20400</v>
+        <v>25800</v>
       </c>
       <c r="E33" s="3">
-        <v>18900</v>
+        <v>19500</v>
       </c>
       <c r="F33" s="3">
-        <v>40900</v>
+        <v>18000</v>
       </c>
       <c r="G33" s="3">
-        <v>32600</v>
+        <v>39000</v>
       </c>
       <c r="H33" s="3">
-        <v>27600</v>
+        <v>31100</v>
       </c>
       <c r="I33" s="3">
-        <v>-95700</v>
+        <v>26300</v>
       </c>
       <c r="J33" s="3">
+        <v>-91200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-16500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-50600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-31000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>12300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>26500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>49300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>31900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>36800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>27700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>62000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>19900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>23500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>14900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>4400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>7500</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>20400</v>
+        <v>25800</v>
       </c>
       <c r="E35" s="3">
-        <v>18900</v>
+        <v>19500</v>
       </c>
       <c r="F35" s="3">
-        <v>40900</v>
+        <v>18000</v>
       </c>
       <c r="G35" s="3">
-        <v>32600</v>
+        <v>39000</v>
       </c>
       <c r="H35" s="3">
-        <v>27600</v>
+        <v>31100</v>
       </c>
       <c r="I35" s="3">
-        <v>-95700</v>
+        <v>26300</v>
       </c>
       <c r="J35" s="3">
+        <v>-91200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-16500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-50600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-31000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>12300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>26500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>49300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>31900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>36800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>27700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>62000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>19900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>23500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>14900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>4400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>7500</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Z38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,62 +2920,63 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>94800</v>
+        <v>97800</v>
       </c>
       <c r="E41" s="3">
-        <v>85400</v>
+        <v>90400</v>
       </c>
       <c r="F41" s="3">
-        <v>141900</v>
+        <v>81400</v>
       </c>
       <c r="G41" s="3">
-        <v>172900</v>
+        <v>135300</v>
       </c>
       <c r="H41" s="3">
-        <v>116800</v>
+        <v>164800</v>
       </c>
       <c r="I41" s="3">
-        <v>109000</v>
+        <v>111300</v>
       </c>
       <c r="J41" s="3">
+        <v>103900</v>
+      </c>
+      <c r="K41" s="3">
         <v>47400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>49100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>96500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>154900</v>
-      </c>
-      <c r="N41" s="3">
-        <v>145200</v>
       </c>
       <c r="O41" s="3">
         <v>145200</v>
       </c>
       <c r="P41" s="3">
+        <v>145200</v>
+      </c>
+      <c r="Q41" s="3">
         <v>237600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>162700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>204900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>87200</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2908,8 +2995,11 @@
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,62 +3072,65 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>108500</v>
+        <v>101700</v>
       </c>
       <c r="E43" s="3">
-        <v>109200</v>
+        <v>103400</v>
       </c>
       <c r="F43" s="3">
-        <v>129700</v>
+        <v>104000</v>
       </c>
       <c r="G43" s="3">
-        <v>107100</v>
+        <v>123700</v>
       </c>
       <c r="H43" s="3">
-        <v>86000</v>
+        <v>102000</v>
       </c>
       <c r="I43" s="3">
-        <v>60400</v>
+        <v>82000</v>
       </c>
       <c r="J43" s="3">
+        <v>57500</v>
+      </c>
+      <c r="K43" s="3">
         <v>44700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>36300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>69600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>118700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>182000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>184600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>190500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>209800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>200200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>214700</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,62 +3226,65 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>12200</v>
+        <v>10500</v>
       </c>
       <c r="E45" s="3">
-        <v>31100</v>
+        <v>11600</v>
       </c>
       <c r="F45" s="3">
-        <v>69700</v>
+        <v>29700</v>
       </c>
       <c r="G45" s="3">
-        <v>57600</v>
+        <v>66500</v>
       </c>
       <c r="H45" s="3">
-        <v>57600</v>
+        <v>54900</v>
       </c>
       <c r="I45" s="3">
-        <v>59000</v>
+        <v>54900</v>
       </c>
       <c r="J45" s="3">
+        <v>56200</v>
+      </c>
+      <c r="K45" s="3">
         <v>76500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>90700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>317700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>188800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>90900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>101400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>34900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>17500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>29300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>25900</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3204,8 +3303,11 @@
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3278,62 +3380,65 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>850500</v>
+        <v>876800</v>
       </c>
       <c r="E47" s="3">
-        <v>734400</v>
+        <v>810700</v>
       </c>
       <c r="F47" s="3">
-        <v>596700</v>
+        <v>700100</v>
       </c>
       <c r="G47" s="3">
-        <v>537500</v>
+        <v>568800</v>
       </c>
       <c r="H47" s="3">
-        <v>569500</v>
+        <v>512300</v>
       </c>
       <c r="I47" s="3">
-        <v>595600</v>
+        <v>542800</v>
       </c>
       <c r="J47" s="3">
+        <v>567800</v>
+      </c>
+      <c r="K47" s="3">
         <v>738100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>695800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>442800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>531800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>441800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>332600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>168100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>167600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>95900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>137000</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3352,62 +3457,65 @@
       <c r="Z47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>800</v>
+      </c>
+      <c r="E48" s="3">
         <v>700</v>
-      </c>
-      <c r="E48" s="3">
-        <v>900</v>
       </c>
       <c r="F48" s="3">
         <v>900</v>
       </c>
       <c r="G48" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="H48" s="3">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="I48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J48" s="3">
         <v>1600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3500</v>
-      </c>
-      <c r="O48" s="3">
-        <v>3400</v>
       </c>
       <c r="P48" s="3">
         <v>3400</v>
       </c>
       <c r="Q48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="R48" s="3">
         <v>3500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2900</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3426,62 +3534,65 @@
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="E49" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F49" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G49" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H49" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I49" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K49" s="3">
+        <v>5500</v>
+      </c>
+      <c r="L49" s="3">
+        <v>5600</v>
+      </c>
+      <c r="M49" s="3">
+        <v>5500</v>
+      </c>
+      <c r="N49" s="3">
         <v>5400</v>
       </c>
-      <c r="F49" s="3">
-        <v>5400</v>
-      </c>
-      <c r="G49" s="3">
-        <v>5400</v>
-      </c>
-      <c r="H49" s="3">
-        <v>5400</v>
-      </c>
-      <c r="I49" s="3">
-        <v>5500</v>
-      </c>
-      <c r="J49" s="3">
-        <v>5500</v>
-      </c>
-      <c r="K49" s="3">
-        <v>5600</v>
-      </c>
-      <c r="L49" s="3">
-        <v>5500</v>
-      </c>
-      <c r="M49" s="3">
-        <v>5400</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>200</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,62 +3765,65 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>118600</v>
+        <v>74500</v>
       </c>
       <c r="E52" s="3">
-        <v>99600</v>
+        <v>113100</v>
       </c>
       <c r="F52" s="3">
-        <v>103500</v>
+        <v>95000</v>
       </c>
       <c r="G52" s="3">
+        <v>98700</v>
+      </c>
+      <c r="H52" s="3">
+        <v>153700</v>
+      </c>
+      <c r="I52" s="3">
         <v>161200</v>
       </c>
-      <c r="H52" s="3">
-        <v>169100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>212900</v>
-      </c>
       <c r="J52" s="3">
+        <v>202900</v>
+      </c>
+      <c r="K52" s="3">
         <v>195000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>241000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>234200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>150900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>162300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>159700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>144700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>84400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>48500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>53200</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,62 +3919,65 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1202900</v>
+        <v>1170200</v>
       </c>
       <c r="E54" s="3">
-        <v>1072300</v>
+        <v>1146600</v>
       </c>
       <c r="F54" s="3">
-        <v>1053100</v>
+        <v>1022100</v>
       </c>
       <c r="G54" s="3">
-        <v>1048700</v>
+        <v>1003800</v>
       </c>
       <c r="H54" s="3">
-        <v>1023200</v>
+        <v>999700</v>
       </c>
       <c r="I54" s="3">
-        <v>1094900</v>
+        <v>975400</v>
       </c>
       <c r="J54" s="3">
+        <v>1043700</v>
+      </c>
+      <c r="K54" s="3">
         <v>1188400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1197200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1255400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1275100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1182400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1062400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>878800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>705400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>587100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>523200</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3870,8 +3996,11 @@
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4000,56 +4131,59 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>17500</v>
+        <v>2800</v>
       </c>
       <c r="E58" s="3">
-        <v>24300</v>
+        <v>16600</v>
       </c>
       <c r="F58" s="3">
-        <v>11000</v>
+        <v>23200</v>
       </c>
       <c r="G58" s="3">
-        <v>25600</v>
+        <v>10400</v>
       </c>
       <c r="H58" s="3">
-        <v>18700</v>
+        <v>24400</v>
       </c>
       <c r="I58" s="3">
-        <v>51200</v>
+        <v>17800</v>
       </c>
       <c r="J58" s="3">
+        <v>48800</v>
+      </c>
+      <c r="K58" s="3">
         <v>47100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>50300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>53900</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>62200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>62400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>61300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>30100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4065,8 +4199,8 @@
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
+      <c r="X58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
@@ -4074,62 +4208,65 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>176500</v>
+        <v>171600</v>
       </c>
       <c r="E59" s="3">
-        <v>165600</v>
+        <v>168200</v>
       </c>
       <c r="F59" s="3">
-        <v>171000</v>
+        <v>157900</v>
       </c>
       <c r="G59" s="3">
-        <v>243200</v>
+        <v>163000</v>
       </c>
       <c r="H59" s="3">
-        <v>276600</v>
+        <v>231800</v>
       </c>
       <c r="I59" s="3">
+        <v>263700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>340100</v>
+      </c>
+      <c r="K59" s="3">
+        <v>581400</v>
+      </c>
+      <c r="L59" s="3">
+        <v>566700</v>
+      </c>
+      <c r="M59" s="3">
+        <v>526300</v>
+      </c>
+      <c r="N59" s="3">
+        <v>593200</v>
+      </c>
+      <c r="O59" s="3">
+        <v>451000</v>
+      </c>
+      <c r="P59" s="3">
         <v>356800</v>
       </c>
-      <c r="J59" s="3">
-        <v>581400</v>
-      </c>
-      <c r="K59" s="3">
-        <v>566700</v>
-      </c>
-      <c r="L59" s="3">
-        <v>526300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>593200</v>
-      </c>
-      <c r="N59" s="3">
-        <v>451000</v>
-      </c>
-      <c r="O59" s="3">
-        <v>356800</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>242900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>129700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>125800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>161600</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4148,8 +4285,11 @@
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4222,62 +4362,65 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>315200</v>
+        <v>321200</v>
       </c>
       <c r="E61" s="3">
-        <v>217200</v>
+        <v>300500</v>
       </c>
       <c r="F61" s="3">
-        <v>203500</v>
+        <v>207000</v>
       </c>
       <c r="G61" s="3">
-        <v>187700</v>
+        <v>194000</v>
       </c>
       <c r="H61" s="3">
-        <v>204100</v>
+        <v>178900</v>
       </c>
       <c r="I61" s="3">
-        <v>214700</v>
+        <v>194600</v>
       </c>
       <c r="J61" s="3">
+        <v>204600</v>
+      </c>
+      <c r="K61" s="3">
         <v>1500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>12600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>32400</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4296,13 +4439,16 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
+      <c r="D62" s="3">
+        <v>200</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -4313,14 +4459,14 @@
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
@@ -4329,22 +4475,22 @@
         <v>100</v>
       </c>
       <c r="M62" s="3">
+        <v>100</v>
+      </c>
+      <c r="N62" s="3">
         <v>200</v>
-      </c>
-      <c r="N62" s="3">
-        <v>7400</v>
       </c>
       <c r="O62" s="3">
         <v>7400</v>
       </c>
       <c r="P62" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="Q62" s="3">
         <v>7200</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
+      <c r="R62" s="3">
+        <v>7200</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
@@ -4361,8 +4507,8 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,62 +4747,65 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>600100</v>
+        <v>563100</v>
       </c>
       <c r="E66" s="3">
-        <v>491500</v>
+        <v>572000</v>
       </c>
       <c r="F66" s="3">
-        <v>495200</v>
+        <v>468500</v>
       </c>
       <c r="G66" s="3">
-        <v>533700</v>
+        <v>472100</v>
       </c>
       <c r="H66" s="3">
-        <v>542000</v>
+        <v>508800</v>
       </c>
       <c r="I66" s="3">
-        <v>645900</v>
+        <v>516600</v>
       </c>
       <c r="J66" s="3">
+        <v>615700</v>
+      </c>
+      <c r="K66" s="3">
         <v>640500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>623800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>589900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>602800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>527800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>435400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>320900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>170400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>140000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>202200</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4666,8 +4824,11 @@
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,62 +5161,65 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>138800</v>
+        <v>158200</v>
       </c>
       <c r="E72" s="3">
-        <v>118400</v>
+        <v>132300</v>
       </c>
       <c r="F72" s="3">
-        <v>99500</v>
+        <v>112900</v>
       </c>
       <c r="G72" s="3">
-        <v>58600</v>
+        <v>94800</v>
       </c>
       <c r="H72" s="3">
-        <v>26000</v>
+        <v>55900</v>
       </c>
       <c r="I72" s="3">
-        <v>-2100</v>
+        <v>24800</v>
       </c>
       <c r="J72" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K72" s="3">
         <v>96100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>113600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>175900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>201900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>185000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>164500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>114700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>97400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>55700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>28000</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5064,8 +5238,11 @@
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,62 +5469,65 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>602800</v>
+        <v>607100</v>
       </c>
       <c r="E76" s="3">
-        <v>580700</v>
+        <v>574600</v>
       </c>
       <c r="F76" s="3">
+        <v>553600</v>
+      </c>
+      <c r="G76" s="3">
+        <v>531800</v>
+      </c>
+      <c r="H76" s="3">
+        <v>490900</v>
+      </c>
+      <c r="I76" s="3">
+        <v>458800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>428000</v>
+      </c>
+      <c r="K76" s="3">
+        <v>547900</v>
+      </c>
+      <c r="L76" s="3">
+        <v>573300</v>
+      </c>
+      <c r="M76" s="3">
+        <v>665500</v>
+      </c>
+      <c r="N76" s="3">
+        <v>672300</v>
+      </c>
+      <c r="O76" s="3">
+        <v>654500</v>
+      </c>
+      <c r="P76" s="3">
+        <v>627000</v>
+      </c>
+      <c r="Q76" s="3">
         <v>557900</v>
       </c>
-      <c r="G76" s="3">
-        <v>515000</v>
-      </c>
-      <c r="H76" s="3">
-        <v>481300</v>
-      </c>
-      <c r="I76" s="3">
-        <v>449000</v>
-      </c>
-      <c r="J76" s="3">
-        <v>547900</v>
-      </c>
-      <c r="K76" s="3">
-        <v>573300</v>
-      </c>
-      <c r="L76" s="3">
-        <v>665500</v>
-      </c>
-      <c r="M76" s="3">
-        <v>672300</v>
-      </c>
-      <c r="N76" s="3">
-        <v>654500</v>
-      </c>
-      <c r="O76" s="3">
-        <v>627000</v>
-      </c>
-      <c r="P76" s="3">
-        <v>557900</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>535000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>447100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>321000</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5360,8 +5546,11 @@
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Z80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>20400</v>
+        <v>25800</v>
       </c>
       <c r="E81" s="3">
-        <v>18900</v>
+        <v>19500</v>
       </c>
       <c r="F81" s="3">
-        <v>40900</v>
+        <v>18000</v>
       </c>
       <c r="G81" s="3">
-        <v>32600</v>
+        <v>39000</v>
       </c>
       <c r="H81" s="3">
-        <v>27600</v>
+        <v>31100</v>
       </c>
       <c r="I81" s="3">
-        <v>-95700</v>
+        <v>26300</v>
       </c>
       <c r="J81" s="3">
+        <v>-91200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-16500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-50600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-31000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>12300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>26500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>49300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>31900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>36800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>27700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>62000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>19900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>23500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>14900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>4400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>7500</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5671,8 +5870,8 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
+      <c r="U83" s="3">
+        <v>0</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
@@ -5680,8 +5879,8 @@
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X83" s="3">
-        <v>0</v>
+      <c r="X83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y83" s="3">
         <v>0</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,8 +6273,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6115,8 +6332,8 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
+      <c r="U89" s="3">
+        <v>0</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
@@ -6124,8 +6341,8 @@
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
+      <c r="X89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y89" s="3">
         <v>0</v>
@@ -6133,8 +6350,11 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6217,8 +6438,8 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
@@ -6226,8 +6447,8 @@
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="X91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6439,8 +6669,8 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
@@ -6448,8 +6678,8 @@
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
+      <c r="X94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6837,8 +7083,8 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
+      <c r="U100" s="3">
+        <v>0</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
@@ -6846,8 +7092,8 @@
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
+      <c r="X100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y100" s="3">
         <v>0</v>
@@ -6855,8 +7101,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6911,8 +7160,8 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>3</v>
+      <c r="U101" s="3">
+        <v>0</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>3</v>
@@ -6920,8 +7169,8 @@
       <c r="W101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
+      <c r="X101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y101" s="3">
         <v>0</v>
@@ -6929,8 +7178,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6985,8 +7237,8 @@
       <c r="T102" s="3">
         <v>0</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
+      <c r="U102" s="3">
+        <v>0</v>
       </c>
       <c r="V102" s="3" t="s">
         <v>3</v>
@@ -6994,13 +7246,16 @@
       <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
+      <c r="X102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
   <si>
     <t>XYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>114700</v>
+        <v>128500</v>
       </c>
       <c r="E8" s="3">
-        <v>123700</v>
+        <v>118400</v>
       </c>
       <c r="F8" s="3">
-        <v>114600</v>
+        <v>127600</v>
       </c>
       <c r="G8" s="3">
-        <v>134200</v>
+        <v>118300</v>
       </c>
       <c r="H8" s="3">
-        <v>129800</v>
+        <v>138500</v>
       </c>
       <c r="I8" s="3">
-        <v>126200</v>
+        <v>133900</v>
       </c>
       <c r="J8" s="3">
+        <v>130200</v>
+      </c>
+      <c r="K8" s="3">
         <v>99700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>81700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>57200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>83500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>102400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>133300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>123600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>118600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>131300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>116100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>258700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>110400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>108200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>67200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>57200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>32000</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>74200</v>
+        <v>77600</v>
       </c>
       <c r="E9" s="3">
-        <v>64700</v>
+        <v>76600</v>
       </c>
       <c r="F9" s="3">
-        <v>53700</v>
+        <v>66700</v>
       </c>
       <c r="G9" s="3">
-        <v>67300</v>
+        <v>55400</v>
       </c>
       <c r="H9" s="3">
-        <v>72500</v>
+        <v>69500</v>
       </c>
       <c r="I9" s="3">
-        <v>79700</v>
+        <v>74800</v>
       </c>
       <c r="J9" s="3">
+        <v>82200</v>
+      </c>
+      <c r="K9" s="3">
         <v>76700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>82000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>73200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>67000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>62200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>73000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>65900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>51400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>49800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>39800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>80300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>40300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>38100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>30200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>27900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>16200</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>40500</v>
+        <v>50900</v>
       </c>
       <c r="E10" s="3">
-        <v>59000</v>
+        <v>41800</v>
       </c>
       <c r="F10" s="3">
         <v>60900</v>
       </c>
       <c r="G10" s="3">
-        <v>66900</v>
+        <v>62800</v>
       </c>
       <c r="H10" s="3">
-        <v>57300</v>
+        <v>69000</v>
       </c>
       <c r="I10" s="3">
-        <v>46500</v>
+        <v>59100</v>
       </c>
       <c r="J10" s="3">
+        <v>47900</v>
+      </c>
+      <c r="K10" s="3">
         <v>23000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-16000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>16400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>40200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>60200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>57700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>67200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>81400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>76300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>178400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>70000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>70100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>37000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>29200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>15700</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,22 +1203,25 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>1300</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -1209,32 +1229,32 @@
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>133600</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>2000</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1248,23 +1268,26 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>3</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="3">
         <v>-200</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>87800</v>
+        <v>86600</v>
       </c>
       <c r="E17" s="3">
-        <v>79900</v>
+        <v>90600</v>
       </c>
       <c r="F17" s="3">
-        <v>71200</v>
+        <v>82500</v>
       </c>
       <c r="G17" s="3">
-        <v>77100</v>
+        <v>73500</v>
       </c>
       <c r="H17" s="3">
-        <v>82800</v>
+        <v>79500</v>
       </c>
       <c r="I17" s="3">
-        <v>91200</v>
+        <v>85400</v>
       </c>
       <c r="J17" s="3">
+        <v>94100</v>
+      </c>
+      <c r="K17" s="3">
         <v>219000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>96600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>107500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>104000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>86700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>99800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>90600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>76000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>87500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>77700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>158900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>75400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>72900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>45700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>50600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>21000</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>27000</v>
+        <v>41900</v>
       </c>
       <c r="E18" s="3">
-        <v>43700</v>
+        <v>27800</v>
       </c>
       <c r="F18" s="3">
-        <v>43400</v>
+        <v>45100</v>
       </c>
       <c r="G18" s="3">
-        <v>57200</v>
+        <v>44700</v>
       </c>
       <c r="H18" s="3">
-        <v>47000</v>
+        <v>59000</v>
       </c>
       <c r="I18" s="3">
+        <v>48500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>36100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-119300</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="O18" s="3">
+        <v>15700</v>
+      </c>
+      <c r="P18" s="3">
+        <v>33500</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>33000</v>
+      </c>
+      <c r="R18" s="3">
+        <v>42600</v>
+      </c>
+      <c r="S18" s="3">
+        <v>43800</v>
+      </c>
+      <c r="T18" s="3">
+        <v>38400</v>
+      </c>
+      <c r="U18" s="3">
+        <v>99800</v>
+      </c>
+      <c r="V18" s="3">
         <v>35000</v>
       </c>
-      <c r="J18" s="3">
-        <v>-119300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-50300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-20500</v>
-      </c>
-      <c r="N18" s="3">
-        <v>15700</v>
-      </c>
-      <c r="O18" s="3">
-        <v>33500</v>
-      </c>
-      <c r="P18" s="3">
-        <v>33000</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>42600</v>
-      </c>
-      <c r="R18" s="3">
-        <v>43800</v>
-      </c>
-      <c r="S18" s="3">
-        <v>38400</v>
-      </c>
-      <c r="T18" s="3">
-        <v>99800</v>
-      </c>
-      <c r="U18" s="3">
-        <v>35000</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>35300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>21500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>6600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>11000</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,85 +1582,89 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3700</v>
+        <v>1600</v>
       </c>
       <c r="E20" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
-        <v>-3700</v>
-      </c>
       <c r="G20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="S20" s="3">
         <v>-8000</v>
       </c>
-      <c r="I20" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-15500</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-14000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-900</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-6200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-13100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-6000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-600</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-200</v>
       </c>
       <c r="Y20" s="3">
         <v>-200</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>3</v>
+      <c r="Z20" s="3">
+        <v>-200</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1673,38 +1710,41 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
         <v>37300</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3">
         <v>87300</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="3">
         <v>33600</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="3">
         <v>6700</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,162 +1820,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>30700</v>
+        <v>43500</v>
       </c>
       <c r="E23" s="3">
-        <v>44200</v>
+        <v>31600</v>
       </c>
       <c r="F23" s="3">
-        <v>39700</v>
+        <v>45600</v>
       </c>
       <c r="G23" s="3">
-        <v>55400</v>
+        <v>40900</v>
       </c>
       <c r="H23" s="3">
-        <v>39000</v>
+        <v>57100</v>
       </c>
       <c r="I23" s="3">
-        <v>31200</v>
+        <v>40200</v>
       </c>
       <c r="J23" s="3">
+        <v>32200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-122100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-57100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-36000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>29300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>32000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>39600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>35800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>32200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>86600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>29000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>32800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>20900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>6400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>10800</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5900</v>
+        <v>13100</v>
       </c>
       <c r="E24" s="3">
-        <v>25200</v>
+        <v>6100</v>
       </c>
       <c r="F24" s="3">
-        <v>21500</v>
+        <v>26000</v>
       </c>
       <c r="G24" s="3">
-        <v>16600</v>
+        <v>22100</v>
       </c>
       <c r="H24" s="3">
-        <v>8100</v>
+        <v>17200</v>
       </c>
       <c r="I24" s="3">
-        <v>5200</v>
+        <v>8300</v>
       </c>
       <c r="J24" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-31600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-6400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-4900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-10100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-16800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>25100</v>
-      </c>
-      <c r="U24" s="3">
-        <v>9100</v>
       </c>
       <c r="V24" s="3">
         <v>9100</v>
       </c>
       <c r="W24" s="3">
+        <v>9100</v>
+      </c>
+      <c r="X24" s="3">
         <v>6000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>3300</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>24800</v>
+        <v>30400</v>
       </c>
       <c r="E26" s="3">
-        <v>19000</v>
+        <v>25600</v>
       </c>
       <c r="F26" s="3">
-        <v>18200</v>
+        <v>19600</v>
       </c>
       <c r="G26" s="3">
-        <v>38700</v>
+        <v>18800</v>
       </c>
       <c r="H26" s="3">
-        <v>30900</v>
+        <v>40000</v>
       </c>
       <c r="I26" s="3">
-        <v>26100</v>
+        <v>31900</v>
       </c>
       <c r="J26" s="3">
+        <v>26900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-90500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-16000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-50800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-31100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>25200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>48800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>31400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>36400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>27400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>61600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>19900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>23600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>14900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>7400</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>25800</v>
+        <v>30400</v>
       </c>
       <c r="E27" s="3">
-        <v>19500</v>
+        <v>26700</v>
       </c>
       <c r="F27" s="3">
-        <v>18000</v>
+        <v>20100</v>
       </c>
       <c r="G27" s="3">
-        <v>39000</v>
+        <v>18600</v>
       </c>
       <c r="H27" s="3">
-        <v>31100</v>
+        <v>40200</v>
       </c>
       <c r="I27" s="3">
-        <v>26300</v>
+        <v>32100</v>
       </c>
       <c r="J27" s="3">
+        <v>27200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-91200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-16500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-50600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-31000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>12300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>26500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>49300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>31900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>36800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>27700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>62000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>19900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>23500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>14900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>4400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>7500</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3700</v>
+        <v>-1600</v>
       </c>
       <c r="E32" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
-        <v>3700</v>
-      </c>
       <c r="G32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H32" s="3">
         <v>1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M32" s="3">
+        <v>6800</v>
+      </c>
+      <c r="N32" s="3">
+        <v>15500</v>
+      </c>
+      <c r="O32" s="3">
+        <v>14000</v>
+      </c>
+      <c r="P32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>900</v>
+      </c>
+      <c r="R32" s="3">
+        <v>3100</v>
+      </c>
+      <c r="S32" s="3">
         <v>8000</v>
       </c>
-      <c r="I32" s="3">
-        <v>3700</v>
-      </c>
-      <c r="J32" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>6800</v>
-      </c>
-      <c r="M32" s="3">
-        <v>15500</v>
-      </c>
-      <c r="N32" s="3">
-        <v>14000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>4200</v>
-      </c>
-      <c r="P32" s="3">
-        <v>900</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>3100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>8000</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>6200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>13100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>6000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>600</v>
-      </c>
-      <c r="X32" s="3">
-        <v>200</v>
       </c>
       <c r="Y32" s="3">
         <v>200</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>3</v>
+      <c r="Z32" s="3">
+        <v>200</v>
       </c>
       <c r="AA32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>25800</v>
+        <v>30400</v>
       </c>
       <c r="E33" s="3">
-        <v>19500</v>
+        <v>26700</v>
       </c>
       <c r="F33" s="3">
-        <v>18000</v>
+        <v>20100</v>
       </c>
       <c r="G33" s="3">
-        <v>39000</v>
+        <v>18600</v>
       </c>
       <c r="H33" s="3">
-        <v>31100</v>
+        <v>40200</v>
       </c>
       <c r="I33" s="3">
-        <v>26300</v>
+        <v>32100</v>
       </c>
       <c r="J33" s="3">
+        <v>27200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-91200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-16500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-50600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-31000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>12300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>26500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>49300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>31900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>36800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>27700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>62000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>19900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>23500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>14900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>4400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>7500</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>25800</v>
+        <v>30400</v>
       </c>
       <c r="E35" s="3">
-        <v>19500</v>
+        <v>26700</v>
       </c>
       <c r="F35" s="3">
-        <v>18000</v>
+        <v>20100</v>
       </c>
       <c r="G35" s="3">
-        <v>39000</v>
+        <v>18600</v>
       </c>
       <c r="H35" s="3">
-        <v>31100</v>
+        <v>40200</v>
       </c>
       <c r="I35" s="3">
-        <v>26300</v>
+        <v>32100</v>
       </c>
       <c r="J35" s="3">
+        <v>27200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-91200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-16500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-50600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-31000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>12300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>26500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>49300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>31900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>36800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>27700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>62000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>19900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>23500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>14900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>4400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>7500</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,65 +3007,66 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>97800</v>
+        <v>93900</v>
       </c>
       <c r="E41" s="3">
-        <v>90400</v>
+        <v>101000</v>
       </c>
       <c r="F41" s="3">
-        <v>81400</v>
+        <v>93200</v>
       </c>
       <c r="G41" s="3">
-        <v>135300</v>
+        <v>84000</v>
       </c>
       <c r="H41" s="3">
-        <v>164800</v>
+        <v>139600</v>
       </c>
       <c r="I41" s="3">
-        <v>111300</v>
+        <v>170000</v>
       </c>
       <c r="J41" s="3">
+        <v>114900</v>
+      </c>
+      <c r="K41" s="3">
         <v>103900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>47400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>49100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>96500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>154900</v>
-      </c>
-      <c r="O41" s="3">
-        <v>145200</v>
       </c>
       <c r="P41" s="3">
         <v>145200</v>
       </c>
       <c r="Q41" s="3">
+        <v>145200</v>
+      </c>
+      <c r="R41" s="3">
         <v>237600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>162700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>204900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>87200</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2998,8 +3085,11 @@
       <c r="AA41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,65 +3165,68 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>101700</v>
+        <v>132500</v>
       </c>
       <c r="E43" s="3">
-        <v>103400</v>
+        <v>105000</v>
       </c>
       <c r="F43" s="3">
-        <v>104000</v>
+        <v>106700</v>
       </c>
       <c r="G43" s="3">
-        <v>123700</v>
+        <v>107400</v>
       </c>
       <c r="H43" s="3">
-        <v>102000</v>
+        <v>127600</v>
       </c>
       <c r="I43" s="3">
-        <v>82000</v>
+        <v>105300</v>
       </c>
       <c r="J43" s="3">
+        <v>84600</v>
+      </c>
+      <c r="K43" s="3">
         <v>57500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>44700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>36300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>69600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>118700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>182000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>184600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>190500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>209800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>200200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>214700</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,65 +3325,68 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="E45" s="3">
-        <v>11600</v>
+        <v>10800</v>
       </c>
       <c r="F45" s="3">
-        <v>29700</v>
+        <v>12000</v>
       </c>
       <c r="G45" s="3">
-        <v>66500</v>
+        <v>30600</v>
       </c>
       <c r="H45" s="3">
-        <v>54900</v>
+        <v>68600</v>
       </c>
       <c r="I45" s="3">
-        <v>54900</v>
+        <v>56600</v>
       </c>
       <c r="J45" s="3">
+        <v>56700</v>
+      </c>
+      <c r="K45" s="3">
         <v>56200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>76500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>90700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>317700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>188800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>90900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>101400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>34900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>17500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>29300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>25900</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3383,65 +3485,68 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>876800</v>
+        <v>909500</v>
       </c>
       <c r="E47" s="3">
-        <v>810700</v>
+        <v>904600</v>
       </c>
       <c r="F47" s="3">
-        <v>700100</v>
+        <v>836500</v>
       </c>
       <c r="G47" s="3">
-        <v>568800</v>
+        <v>722300</v>
       </c>
       <c r="H47" s="3">
-        <v>512300</v>
+        <v>586800</v>
       </c>
       <c r="I47" s="3">
-        <v>542800</v>
+        <v>528600</v>
       </c>
       <c r="J47" s="3">
+        <v>560100</v>
+      </c>
+      <c r="K47" s="3">
         <v>567800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>738100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>695800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>442800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>531800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>441800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>332600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>168100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>167600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>95900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>137000</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3469,56 +3577,56 @@
         <v>800</v>
       </c>
       <c r="E48" s="3">
+        <v>800</v>
+      </c>
+      <c r="F48" s="3">
         <v>700</v>
-      </c>
-      <c r="F48" s="3">
-        <v>900</v>
       </c>
       <c r="G48" s="3">
         <v>900</v>
       </c>
       <c r="H48" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="I48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J48" s="3">
         <v>1300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3500</v>
-      </c>
-      <c r="P48" s="3">
-        <v>3400</v>
       </c>
       <c r="Q48" s="3">
         <v>3400</v>
       </c>
       <c r="R48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="S48" s="3">
         <v>3500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2900</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3537,65 +3645,68 @@
       <c r="AA48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="E49" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="F49" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="G49" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="H49" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="I49" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="J49" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K49" s="3">
         <v>5200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>200</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,65 +3885,68 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>74500</v>
+        <v>84700</v>
       </c>
       <c r="E52" s="3">
-        <v>113100</v>
+        <v>76900</v>
       </c>
       <c r="F52" s="3">
-        <v>95000</v>
+        <v>116600</v>
       </c>
       <c r="G52" s="3">
-        <v>98700</v>
+        <v>98000</v>
       </c>
       <c r="H52" s="3">
-        <v>153700</v>
+        <v>101800</v>
       </c>
       <c r="I52" s="3">
-        <v>161200</v>
+        <v>158500</v>
       </c>
       <c r="J52" s="3">
+        <v>166300</v>
+      </c>
+      <c r="K52" s="3">
         <v>202900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>195000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>241000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>234200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>150900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>162300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>159700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>144700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>84400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>48500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>53200</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,65 +4045,68 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1170200</v>
+        <v>1245600</v>
       </c>
       <c r="E54" s="3">
-        <v>1146600</v>
+        <v>1207400</v>
       </c>
       <c r="F54" s="3">
-        <v>1022100</v>
+        <v>1183000</v>
       </c>
       <c r="G54" s="3">
-        <v>1003800</v>
+        <v>1054600</v>
       </c>
       <c r="H54" s="3">
-        <v>999700</v>
+        <v>1035700</v>
       </c>
       <c r="I54" s="3">
-        <v>975400</v>
+        <v>1031400</v>
       </c>
       <c r="J54" s="3">
+        <v>1006400</v>
+      </c>
+      <c r="K54" s="3">
         <v>1043700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1188400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1197200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1255400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1275100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1182400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1062400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>878800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>705400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>587100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>523200</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4134,59 +4265,62 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2800</v>
+        <v>13000</v>
       </c>
       <c r="E58" s="3">
-        <v>16600</v>
+        <v>2900</v>
       </c>
       <c r="F58" s="3">
-        <v>23200</v>
+        <v>17200</v>
       </c>
       <c r="G58" s="3">
-        <v>10400</v>
+        <v>23900</v>
       </c>
       <c r="H58" s="3">
-        <v>24400</v>
+        <v>10800</v>
       </c>
       <c r="I58" s="3">
-        <v>17800</v>
+        <v>25100</v>
       </c>
       <c r="J58" s="3">
+        <v>18400</v>
+      </c>
+      <c r="K58" s="3">
         <v>48800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>47100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>50300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>53900</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>62200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>62400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>61300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>30100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4202,8 +4336,8 @@
       <c r="X58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
@@ -4211,65 +4345,68 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>171600</v>
+        <v>168400</v>
       </c>
       <c r="E59" s="3">
+        <v>177100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>173600</v>
+      </c>
+      <c r="G59" s="3">
+        <v>162900</v>
+      </c>
+      <c r="H59" s="3">
         <v>168200</v>
       </c>
-      <c r="F59" s="3">
-        <v>157900</v>
-      </c>
-      <c r="G59" s="3">
-        <v>163000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>231800</v>
-      </c>
       <c r="I59" s="3">
-        <v>263700</v>
+        <v>239200</v>
       </c>
       <c r="J59" s="3">
+        <v>272100</v>
+      </c>
+      <c r="K59" s="3">
         <v>340100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>581400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>566700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>526300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>593200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>451000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>356800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>242900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>129700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>125800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>161600</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4288,8 +4425,11 @@
       <c r="AA59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4365,65 +4505,68 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>321200</v>
+        <v>360500</v>
       </c>
       <c r="E61" s="3">
-        <v>300500</v>
+        <v>331400</v>
       </c>
       <c r="F61" s="3">
-        <v>207000</v>
+        <v>310000</v>
       </c>
       <c r="G61" s="3">
-        <v>194000</v>
+        <v>213600</v>
       </c>
       <c r="H61" s="3">
-        <v>178900</v>
+        <v>200100</v>
       </c>
       <c r="I61" s="3">
-        <v>194600</v>
+        <v>184600</v>
       </c>
       <c r="J61" s="3">
+        <v>200800</v>
+      </c>
+      <c r="K61" s="3">
         <v>204600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>12600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>32400</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4442,16 +4585,19 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>300</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -4462,14 +4608,14 @@
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
@@ -4478,22 +4624,22 @@
         <v>100</v>
       </c>
       <c r="N62" s="3">
+        <v>100</v>
+      </c>
+      <c r="O62" s="3">
         <v>200</v>
-      </c>
-      <c r="O62" s="3">
-        <v>7400</v>
       </c>
       <c r="P62" s="3">
         <v>7400</v>
       </c>
       <c r="Q62" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="R62" s="3">
         <v>7200</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
+      <c r="S62" s="3">
+        <v>7200</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
@@ -4510,8 +4656,8 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,65 +4905,68 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>563100</v>
+        <v>595000</v>
       </c>
       <c r="E66" s="3">
-        <v>572000</v>
+        <v>581000</v>
       </c>
       <c r="F66" s="3">
-        <v>468500</v>
+        <v>590200</v>
       </c>
       <c r="G66" s="3">
-        <v>472100</v>
+        <v>483400</v>
       </c>
       <c r="H66" s="3">
-        <v>508800</v>
+        <v>487100</v>
       </c>
       <c r="I66" s="3">
-        <v>516600</v>
+        <v>524900</v>
       </c>
       <c r="J66" s="3">
+        <v>533000</v>
+      </c>
+      <c r="K66" s="3">
         <v>615700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>640500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>623800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>589900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>602800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>527800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>435400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>320900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>170400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>140000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>202200</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4827,8 +4985,11 @@
       <c r="AA66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,65 +5335,68 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>158200</v>
+        <v>193600</v>
       </c>
       <c r="E72" s="3">
-        <v>132300</v>
+        <v>163200</v>
       </c>
       <c r="F72" s="3">
-        <v>112900</v>
+        <v>136600</v>
       </c>
       <c r="G72" s="3">
-        <v>94800</v>
+        <v>116500</v>
       </c>
       <c r="H72" s="3">
-        <v>55900</v>
+        <v>97900</v>
       </c>
       <c r="I72" s="3">
-        <v>24800</v>
+        <v>57700</v>
       </c>
       <c r="J72" s="3">
+        <v>25600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>96100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>113600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>175900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>201900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>185000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>164500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>114700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>97400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>55700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>28000</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5241,8 +5415,11 @@
       <c r="AA72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,65 +5655,68 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>607100</v>
+        <v>650600</v>
       </c>
       <c r="E76" s="3">
-        <v>574600</v>
+        <v>626400</v>
       </c>
       <c r="F76" s="3">
-        <v>553600</v>
+        <v>592900</v>
       </c>
       <c r="G76" s="3">
-        <v>531800</v>
+        <v>571200</v>
       </c>
       <c r="H76" s="3">
-        <v>490900</v>
+        <v>548600</v>
       </c>
       <c r="I76" s="3">
-        <v>458800</v>
+        <v>506500</v>
       </c>
       <c r="J76" s="3">
+        <v>473300</v>
+      </c>
+      <c r="K76" s="3">
         <v>428000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>547900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>573300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>665500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>672300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>654500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>627000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>557900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>535000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>447100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>321000</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5549,8 +5735,11 @@
       <c r="AA76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>25800</v>
+        <v>30400</v>
       </c>
       <c r="E81" s="3">
-        <v>19500</v>
+        <v>26700</v>
       </c>
       <c r="F81" s="3">
-        <v>18000</v>
+        <v>20100</v>
       </c>
       <c r="G81" s="3">
-        <v>39000</v>
+        <v>18600</v>
       </c>
       <c r="H81" s="3">
-        <v>31100</v>
+        <v>40200</v>
       </c>
       <c r="I81" s="3">
-        <v>26300</v>
+        <v>32100</v>
       </c>
       <c r="J81" s="3">
+        <v>27200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-91200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-16500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-50600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-31000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>12300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>26500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>49300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>31900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>36800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>27700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>62000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>19900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>23500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>14900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>4400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>7500</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5873,8 +6072,8 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
+      <c r="V83" s="3">
+        <v>0</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
@@ -5882,8 +6081,8 @@
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y83" s="3">
-        <v>0</v>
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z83" s="3">
         <v>0</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6335,8 +6552,8 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
+      <c r="V89" s="3">
+        <v>0</v>
       </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
@@ -6344,8 +6561,8 @@
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z89" s="3">
         <v>0</v>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6441,8 +6662,8 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
@@ -6450,8 +6671,8 @@
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6672,8 +6902,8 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
@@ -6681,8 +6911,8 @@
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z94" s="3">
         <v>0</v>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7086,8 +7332,8 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
+      <c r="V100" s="3">
+        <v>0</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
@@ -7095,8 +7341,8 @@
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z100" s="3">
         <v>0</v>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7163,8 +7412,8 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>3</v>
+      <c r="V101" s="3">
+        <v>0</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>3</v>
@@ -7172,8 +7421,8 @@
       <c r="X101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
+      <c r="Y101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z101" s="3">
         <v>0</v>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7240,8 +7492,8 @@
       <c r="U102" s="3">
         <v>0</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
+      <c r="V102" s="3">
+        <v>0</v>
       </c>
       <c r="W102" s="3" t="s">
         <v>3</v>
@@ -7249,13 +7501,16 @@
       <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
+      <c r="Y102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z102" s="3">
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XYF_QTR_FIN.xlsx
@@ -782,25 +782,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>128500</v>
+        <v>127200</v>
       </c>
       <c r="E8" s="3">
-        <v>118400</v>
+        <v>117200</v>
       </c>
       <c r="F8" s="3">
-        <v>127600</v>
+        <v>126300</v>
       </c>
       <c r="G8" s="3">
-        <v>118300</v>
+        <v>117000</v>
       </c>
       <c r="H8" s="3">
-        <v>138500</v>
+        <v>137100</v>
       </c>
       <c r="I8" s="3">
-        <v>133900</v>
+        <v>132500</v>
       </c>
       <c r="J8" s="3">
-        <v>130200</v>
+        <v>128800</v>
       </c>
       <c r="K8" s="3">
         <v>99700</v>
@@ -862,25 +862,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>77600</v>
+        <v>76800</v>
       </c>
       <c r="E9" s="3">
-        <v>76600</v>
+        <v>75800</v>
       </c>
       <c r="F9" s="3">
-        <v>66700</v>
+        <v>66000</v>
       </c>
       <c r="G9" s="3">
-        <v>55400</v>
+        <v>54800</v>
       </c>
       <c r="H9" s="3">
-        <v>69500</v>
+        <v>68800</v>
       </c>
       <c r="I9" s="3">
-        <v>74800</v>
+        <v>74000</v>
       </c>
       <c r="J9" s="3">
-        <v>82200</v>
+        <v>81400</v>
       </c>
       <c r="K9" s="3">
         <v>76700</v>
@@ -942,25 +942,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>50900</v>
+        <v>50300</v>
       </c>
       <c r="E10" s="3">
-        <v>41800</v>
+        <v>41400</v>
       </c>
       <c r="F10" s="3">
-        <v>60900</v>
+        <v>60300</v>
       </c>
       <c r="G10" s="3">
-        <v>62800</v>
+        <v>62200</v>
       </c>
       <c r="H10" s="3">
-        <v>69000</v>
+        <v>68300</v>
       </c>
       <c r="I10" s="3">
-        <v>59100</v>
+        <v>58500</v>
       </c>
       <c r="J10" s="3">
-        <v>47900</v>
+        <v>47400</v>
       </c>
       <c r="K10" s="3">
         <v>23000</v>
@@ -1399,25 +1399,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>86600</v>
+        <v>85700</v>
       </c>
       <c r="E17" s="3">
-        <v>90600</v>
+        <v>89600</v>
       </c>
       <c r="F17" s="3">
-        <v>82500</v>
+        <v>81600</v>
       </c>
       <c r="G17" s="3">
-        <v>73500</v>
+        <v>72800</v>
       </c>
       <c r="H17" s="3">
-        <v>79500</v>
+        <v>78700</v>
       </c>
       <c r="I17" s="3">
-        <v>85400</v>
+        <v>84500</v>
       </c>
       <c r="J17" s="3">
-        <v>94100</v>
+        <v>93100</v>
       </c>
       <c r="K17" s="3">
         <v>219000</v>
@@ -1479,25 +1479,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>41900</v>
+        <v>41400</v>
       </c>
       <c r="E18" s="3">
-        <v>27800</v>
+        <v>27500</v>
       </c>
       <c r="F18" s="3">
-        <v>45100</v>
+        <v>44700</v>
       </c>
       <c r="G18" s="3">
-        <v>44700</v>
+        <v>44300</v>
       </c>
       <c r="H18" s="3">
-        <v>59000</v>
+        <v>58400</v>
       </c>
       <c r="I18" s="3">
-        <v>48500</v>
+        <v>48000</v>
       </c>
       <c r="J18" s="3">
-        <v>36100</v>
+        <v>35700</v>
       </c>
       <c r="K18" s="3">
         <v>-119300</v>
@@ -1604,7 +1604,7 @@
         <v>-1800</v>
       </c>
       <c r="I20" s="3">
-        <v>-8300</v>
+        <v>-8200</v>
       </c>
       <c r="J20" s="3">
         <v>-3800</v>
@@ -1829,25 +1829,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>43500</v>
+        <v>43100</v>
       </c>
       <c r="E23" s="3">
-        <v>31600</v>
+        <v>31300</v>
       </c>
       <c r="F23" s="3">
-        <v>45600</v>
+        <v>45200</v>
       </c>
       <c r="G23" s="3">
-        <v>40900</v>
+        <v>40500</v>
       </c>
       <c r="H23" s="3">
-        <v>57100</v>
+        <v>56500</v>
       </c>
       <c r="I23" s="3">
-        <v>40200</v>
+        <v>39800</v>
       </c>
       <c r="J23" s="3">
-        <v>32200</v>
+        <v>31900</v>
       </c>
       <c r="K23" s="3">
         <v>-122100</v>
@@ -1909,22 +1909,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="E24" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="F24" s="3">
-        <v>26000</v>
+        <v>25700</v>
       </c>
       <c r="G24" s="3">
-        <v>22100</v>
+        <v>21900</v>
       </c>
       <c r="H24" s="3">
-        <v>17200</v>
+        <v>17000</v>
       </c>
       <c r="I24" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="J24" s="3">
         <v>5300</v>
@@ -2069,25 +2069,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>30400</v>
+        <v>30100</v>
       </c>
       <c r="E26" s="3">
-        <v>25600</v>
+        <v>25300</v>
       </c>
       <c r="F26" s="3">
-        <v>19600</v>
+        <v>19400</v>
       </c>
       <c r="G26" s="3">
-        <v>18800</v>
+        <v>18600</v>
       </c>
       <c r="H26" s="3">
-        <v>40000</v>
+        <v>39600</v>
       </c>
       <c r="I26" s="3">
-        <v>31900</v>
+        <v>31600</v>
       </c>
       <c r="J26" s="3">
-        <v>26900</v>
+        <v>26600</v>
       </c>
       <c r="K26" s="3">
         <v>-90500</v>
@@ -2149,25 +2149,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>30400</v>
+        <v>30100</v>
       </c>
       <c r="E27" s="3">
-        <v>26700</v>
+        <v>26400</v>
       </c>
       <c r="F27" s="3">
-        <v>20100</v>
+        <v>19900</v>
       </c>
       <c r="G27" s="3">
-        <v>18600</v>
+        <v>18400</v>
       </c>
       <c r="H27" s="3">
-        <v>40200</v>
+        <v>39800</v>
       </c>
       <c r="I27" s="3">
-        <v>32100</v>
+        <v>31800</v>
       </c>
       <c r="J27" s="3">
-        <v>27200</v>
+        <v>26900</v>
       </c>
       <c r="K27" s="3">
         <v>-91200</v>
@@ -2564,7 +2564,7 @@
         <v>1800</v>
       </c>
       <c r="I32" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="J32" s="3">
         <v>3800</v>
@@ -2629,25 +2629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>30400</v>
+        <v>30100</v>
       </c>
       <c r="E33" s="3">
-        <v>26700</v>
+        <v>26400</v>
       </c>
       <c r="F33" s="3">
-        <v>20100</v>
+        <v>19900</v>
       </c>
       <c r="G33" s="3">
-        <v>18600</v>
+        <v>18400</v>
       </c>
       <c r="H33" s="3">
-        <v>40200</v>
+        <v>39800</v>
       </c>
       <c r="I33" s="3">
-        <v>32100</v>
+        <v>31800</v>
       </c>
       <c r="J33" s="3">
-        <v>27200</v>
+        <v>26900</v>
       </c>
       <c r="K33" s="3">
         <v>-91200</v>
@@ -2789,25 +2789,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>30400</v>
+        <v>30100</v>
       </c>
       <c r="E35" s="3">
-        <v>26700</v>
+        <v>26400</v>
       </c>
       <c r="F35" s="3">
-        <v>20100</v>
+        <v>19900</v>
       </c>
       <c r="G35" s="3">
-        <v>18600</v>
+        <v>18400</v>
       </c>
       <c r="H35" s="3">
-        <v>40200</v>
+        <v>39800</v>
       </c>
       <c r="I35" s="3">
-        <v>32100</v>
+        <v>31800</v>
       </c>
       <c r="J35" s="3">
-        <v>27200</v>
+        <v>26900</v>
       </c>
       <c r="K35" s="3">
         <v>-91200</v>
@@ -3014,25 +3014,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>93900</v>
+        <v>92900</v>
       </c>
       <c r="E41" s="3">
-        <v>101000</v>
+        <v>99900</v>
       </c>
       <c r="F41" s="3">
-        <v>93200</v>
+        <v>92300</v>
       </c>
       <c r="G41" s="3">
-        <v>84000</v>
+        <v>83100</v>
       </c>
       <c r="H41" s="3">
-        <v>139600</v>
+        <v>138100</v>
       </c>
       <c r="I41" s="3">
-        <v>170000</v>
+        <v>168300</v>
       </c>
       <c r="J41" s="3">
-        <v>114900</v>
+        <v>113700</v>
       </c>
       <c r="K41" s="3">
         <v>103900</v>
@@ -3174,25 +3174,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>132500</v>
+        <v>131100</v>
       </c>
       <c r="E43" s="3">
-        <v>105000</v>
+        <v>103900</v>
       </c>
       <c r="F43" s="3">
-        <v>106700</v>
+        <v>105600</v>
       </c>
       <c r="G43" s="3">
-        <v>107400</v>
+        <v>106300</v>
       </c>
       <c r="H43" s="3">
-        <v>127600</v>
+        <v>126300</v>
       </c>
       <c r="I43" s="3">
-        <v>105300</v>
+        <v>104200</v>
       </c>
       <c r="J43" s="3">
-        <v>84600</v>
+        <v>83700</v>
       </c>
       <c r="K43" s="3">
         <v>57500</v>
@@ -3334,25 +3334,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="E45" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="F45" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="G45" s="3">
-        <v>30600</v>
+        <v>30300</v>
       </c>
       <c r="H45" s="3">
-        <v>68600</v>
+        <v>67900</v>
       </c>
       <c r="I45" s="3">
-        <v>56600</v>
+        <v>56100</v>
       </c>
       <c r="J45" s="3">
-        <v>56700</v>
+        <v>56100</v>
       </c>
       <c r="K45" s="3">
         <v>56200</v>
@@ -3494,25 +3494,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>909500</v>
+        <v>900200</v>
       </c>
       <c r="E47" s="3">
-        <v>904600</v>
+        <v>895400</v>
       </c>
       <c r="F47" s="3">
-        <v>836500</v>
+        <v>827900</v>
       </c>
       <c r="G47" s="3">
-        <v>722300</v>
+        <v>714900</v>
       </c>
       <c r="H47" s="3">
-        <v>586800</v>
+        <v>580800</v>
       </c>
       <c r="I47" s="3">
-        <v>528600</v>
+        <v>523200</v>
       </c>
       <c r="J47" s="3">
-        <v>560100</v>
+        <v>554300</v>
       </c>
       <c r="K47" s="3">
         <v>567800</v>
@@ -3589,7 +3589,7 @@
         <v>900</v>
       </c>
       <c r="I48" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J48" s="3">
         <v>1300</v>
@@ -3663,13 +3663,13 @@
         <v>5200</v>
       </c>
       <c r="G49" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="H49" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="I49" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="J49" s="3">
         <v>5300</v>
@@ -3894,25 +3894,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>84700</v>
+        <v>83800</v>
       </c>
       <c r="E52" s="3">
-        <v>76900</v>
+        <v>76100</v>
       </c>
       <c r="F52" s="3">
-        <v>116600</v>
+        <v>115500</v>
       </c>
       <c r="G52" s="3">
-        <v>98000</v>
+        <v>97000</v>
       </c>
       <c r="H52" s="3">
-        <v>101800</v>
+        <v>100800</v>
       </c>
       <c r="I52" s="3">
-        <v>158500</v>
+        <v>156900</v>
       </c>
       <c r="J52" s="3">
-        <v>166300</v>
+        <v>164600</v>
       </c>
       <c r="K52" s="3">
         <v>202900</v>
@@ -4054,25 +4054,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1245600</v>
+        <v>1232900</v>
       </c>
       <c r="E54" s="3">
-        <v>1207400</v>
+        <v>1195000</v>
       </c>
       <c r="F54" s="3">
-        <v>1183000</v>
+        <v>1170900</v>
       </c>
       <c r="G54" s="3">
-        <v>1054600</v>
+        <v>1043800</v>
       </c>
       <c r="H54" s="3">
-        <v>1035700</v>
+        <v>1025100</v>
       </c>
       <c r="I54" s="3">
-        <v>1031400</v>
+        <v>1020800</v>
       </c>
       <c r="J54" s="3">
-        <v>1006400</v>
+        <v>996100</v>
       </c>
       <c r="K54" s="3">
         <v>1043700</v>
@@ -4274,25 +4274,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="E58" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F58" s="3">
-        <v>17200</v>
+        <v>17000</v>
       </c>
       <c r="G58" s="3">
-        <v>23900</v>
+        <v>23700</v>
       </c>
       <c r="H58" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="I58" s="3">
-        <v>25100</v>
+        <v>24900</v>
       </c>
       <c r="J58" s="3">
-        <v>18400</v>
+        <v>18200</v>
       </c>
       <c r="K58" s="3">
         <v>48800</v>
@@ -4354,25 +4354,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>168400</v>
+        <v>166700</v>
       </c>
       <c r="E59" s="3">
-        <v>177100</v>
+        <v>175200</v>
       </c>
       <c r="F59" s="3">
-        <v>173600</v>
+        <v>171800</v>
       </c>
       <c r="G59" s="3">
-        <v>162900</v>
+        <v>161200</v>
       </c>
       <c r="H59" s="3">
-        <v>168200</v>
+        <v>166500</v>
       </c>
       <c r="I59" s="3">
-        <v>239200</v>
+        <v>236700</v>
       </c>
       <c r="J59" s="3">
-        <v>272100</v>
+        <v>269300</v>
       </c>
       <c r="K59" s="3">
         <v>340100</v>
@@ -4514,25 +4514,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>360500</v>
+        <v>356800</v>
       </c>
       <c r="E61" s="3">
-        <v>331400</v>
+        <v>328000</v>
       </c>
       <c r="F61" s="3">
-        <v>310000</v>
+        <v>306800</v>
       </c>
       <c r="G61" s="3">
-        <v>213600</v>
+        <v>211400</v>
       </c>
       <c r="H61" s="3">
-        <v>200100</v>
+        <v>198100</v>
       </c>
       <c r="I61" s="3">
-        <v>184600</v>
+        <v>182700</v>
       </c>
       <c r="J61" s="3">
-        <v>200800</v>
+        <v>198700</v>
       </c>
       <c r="K61" s="3">
         <v>204600</v>
@@ -4597,7 +4597,7 @@
         <v>300</v>
       </c>
       <c r="E62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -4914,25 +4914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>595000</v>
+        <v>588900</v>
       </c>
       <c r="E66" s="3">
-        <v>581000</v>
+        <v>575000</v>
       </c>
       <c r="F66" s="3">
-        <v>590200</v>
+        <v>584100</v>
       </c>
       <c r="G66" s="3">
-        <v>483400</v>
+        <v>478500</v>
       </c>
       <c r="H66" s="3">
-        <v>487100</v>
+        <v>482100</v>
       </c>
       <c r="I66" s="3">
-        <v>524900</v>
+        <v>519600</v>
       </c>
       <c r="J66" s="3">
-        <v>533000</v>
+        <v>527600</v>
       </c>
       <c r="K66" s="3">
         <v>615700</v>
@@ -5344,25 +5344,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>193600</v>
+        <v>191600</v>
       </c>
       <c r="E72" s="3">
-        <v>163200</v>
+        <v>161600</v>
       </c>
       <c r="F72" s="3">
-        <v>136600</v>
+        <v>135200</v>
       </c>
       <c r="G72" s="3">
-        <v>116500</v>
+        <v>115300</v>
       </c>
       <c r="H72" s="3">
-        <v>97900</v>
+        <v>96900</v>
       </c>
       <c r="I72" s="3">
-        <v>57700</v>
+        <v>57100</v>
       </c>
       <c r="J72" s="3">
-        <v>25600</v>
+        <v>25300</v>
       </c>
       <c r="K72" s="3">
         <v>-2000</v>
@@ -5664,25 +5664,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>650600</v>
+        <v>644000</v>
       </c>
       <c r="E76" s="3">
-        <v>626400</v>
+        <v>620000</v>
       </c>
       <c r="F76" s="3">
-        <v>592900</v>
+        <v>586800</v>
       </c>
       <c r="G76" s="3">
-        <v>571200</v>
+        <v>565300</v>
       </c>
       <c r="H76" s="3">
-        <v>548600</v>
+        <v>543000</v>
       </c>
       <c r="I76" s="3">
-        <v>506500</v>
+        <v>501300</v>
       </c>
       <c r="J76" s="3">
-        <v>473300</v>
+        <v>468500</v>
       </c>
       <c r="K76" s="3">
         <v>428000</v>
@@ -5909,25 +5909,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>30400</v>
+        <v>30100</v>
       </c>
       <c r="E81" s="3">
-        <v>26700</v>
+        <v>26400</v>
       </c>
       <c r="F81" s="3">
-        <v>20100</v>
+        <v>19900</v>
       </c>
       <c r="G81" s="3">
-        <v>18600</v>
+        <v>18400</v>
       </c>
       <c r="H81" s="3">
-        <v>40200</v>
+        <v>39800</v>
       </c>
       <c r="I81" s="3">
-        <v>32100</v>
+        <v>31800</v>
       </c>
       <c r="J81" s="3">
-        <v>27200</v>
+        <v>26900</v>
       </c>
       <c r="K81" s="3">
         <v>-91200</v>

--- a/AAII_Financials/Quarterly/XYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XYF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="92">
   <si>
     <t>XYF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,397 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AD7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>127200</v>
+        <v>168100</v>
       </c>
       <c r="E8" s="3">
-        <v>117200</v>
+        <v>138500</v>
       </c>
       <c r="F8" s="3">
-        <v>126300</v>
+        <v>131700</v>
       </c>
       <c r="G8" s="3">
-        <v>117000</v>
+        <v>123300</v>
       </c>
       <c r="H8" s="3">
+        <v>113600</v>
+      </c>
+      <c r="I8" s="3">
+        <v>122400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>113400</v>
+      </c>
+      <c r="K8" s="3">
         <v>137100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>132500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>128800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>99700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>81700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>57200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <v>83500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="R8" s="3">
         <v>102400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="S8" s="3">
         <v>133300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="T8" s="3">
         <v>123600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="U8" s="3">
         <v>118600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="V8" s="3">
         <v>131300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="W8" s="3">
         <v>116100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="X8" s="3">
         <v>258700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="Y8" s="3">
         <v>110400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Z8" s="3">
         <v>108200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="AA8" s="3">
         <v>67200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AB8" s="3">
         <v>57200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AC8" s="3">
         <v>32000</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>76800</v>
+        <v>92300</v>
       </c>
       <c r="E9" s="3">
-        <v>75800</v>
+        <v>87300</v>
       </c>
       <c r="F9" s="3">
-        <v>66000</v>
+        <v>81100</v>
       </c>
       <c r="G9" s="3">
-        <v>54800</v>
+        <v>74500</v>
       </c>
       <c r="H9" s="3">
+        <v>73400</v>
+      </c>
+      <c r="I9" s="3">
+        <v>64000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>53200</v>
+      </c>
+      <c r="K9" s="3">
         <v>68800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>74000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>81400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>76700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>82000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>73200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="Q9" s="3">
         <v>67000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="R9" s="3">
         <v>62200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="S9" s="3">
         <v>73000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="T9" s="3">
         <v>65900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="U9" s="3">
         <v>51400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="V9" s="3">
         <v>49800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="W9" s="3">
         <v>39800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="X9" s="3">
         <v>80300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="Y9" s="3">
         <v>40300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Z9" s="3">
         <v>38100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="AA9" s="3">
         <v>30200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AB9" s="3">
         <v>27900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AC9" s="3">
         <v>16200</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>50300</v>
+        <v>75900</v>
       </c>
       <c r="E10" s="3">
-        <v>41400</v>
+        <v>51100</v>
       </c>
       <c r="F10" s="3">
+        <v>50500</v>
+      </c>
+      <c r="G10" s="3">
+        <v>48800</v>
+      </c>
+      <c r="H10" s="3">
+        <v>40100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>58400</v>
+      </c>
+      <c r="J10" s="3">
         <v>60300</v>
       </c>
-      <c r="G10" s="3">
-        <v>62200</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <v>68300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>58500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>47400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>23000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>-200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>-16000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="Q10" s="3">
         <v>16400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="R10" s="3">
         <v>40200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="S10" s="3">
         <v>60200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="T10" s="3">
         <v>57700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="U10" s="3">
         <v>67200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="V10" s="3">
         <v>81400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="W10" s="3">
         <v>76300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="X10" s="3">
         <v>178400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="Y10" s="3">
         <v>70000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Z10" s="3">
         <v>70100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="AA10" s="3">
         <v>37000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AB10" s="3">
         <v>29200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AC10" s="3">
         <v>15700</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1084,11 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1167,17 @@
       <c r="AB12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,22 +1256,31 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>1300</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3">
+        <v>3700</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -1229,41 +1288,41 @@
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
         <v>133600</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>2000</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1271,23 +1330,32 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>3</v>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC14" s="3">
         <v>-200</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1434,17 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1470,189 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>85700</v>
+        <v>106900</v>
       </c>
       <c r="E17" s="3">
-        <v>89600</v>
+        <v>96600</v>
       </c>
       <c r="F17" s="3">
-        <v>81600</v>
+        <v>97600</v>
       </c>
       <c r="G17" s="3">
-        <v>72800</v>
+        <v>83100</v>
       </c>
       <c r="H17" s="3">
+        <v>86900</v>
+      </c>
+      <c r="I17" s="3">
+        <v>79100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>70500</v>
+      </c>
+      <c r="K17" s="3">
         <v>78700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>84500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>93100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>219000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>96600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>107500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>104000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>86700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>99800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>90600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="3">
         <v>76000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="V17" s="3">
         <v>87500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="W17" s="3">
         <v>77700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="X17" s="3">
         <v>158900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="Y17" s="3">
         <v>75400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Z17" s="3">
         <v>72900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="AA17" s="3">
         <v>45700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AB17" s="3">
         <v>50600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AC17" s="3">
         <v>21000</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>41400</v>
+        <v>61300</v>
       </c>
       <c r="E18" s="3">
-        <v>27500</v>
+        <v>41900</v>
       </c>
       <c r="F18" s="3">
-        <v>44700</v>
+        <v>34000</v>
       </c>
       <c r="G18" s="3">
-        <v>44300</v>
+        <v>40200</v>
       </c>
       <c r="H18" s="3">
+        <v>26700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>43300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>42900</v>
+      </c>
+      <c r="K18" s="3">
         <v>58400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>48000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>35700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>-119300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>-14800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>-50300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>-20500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>15700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>33500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>33000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="U18" s="3">
         <v>42600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="V18" s="3">
         <v>43800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="W18" s="3">
         <v>38400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="X18" s="3">
         <v>99800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="Y18" s="3">
         <v>35000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Z18" s="3">
         <v>35300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="AA18" s="3">
         <v>21500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AB18" s="3">
         <v>6600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AC18" s="3">
         <v>11000</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,88 +1681,100 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>18700</v>
+      </c>
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="E20" s="3">
-        <v>3800</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="M20" s="3">
         <v>-3800</v>
       </c>
-      <c r="H20" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>-2800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>-6800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="Q20" s="3">
         <v>-15500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="R20" s="3">
         <v>-14000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="S20" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="T20" s="3">
         <v>-900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="U20" s="3">
         <v>-3100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="V20" s="3">
         <v>-8000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="W20" s="3">
         <v>-6200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="X20" s="3">
         <v>-13100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="Y20" s="3">
         <v>-6000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Z20" s="3">
         <v>-2600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="AA20" s="3">
         <v>-600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AB20" s="3">
         <v>-200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AC20" s="3">
         <v>-200</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1713,38 +1823,47 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3">
         <v>37300</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X21" s="3">
         <v>87300</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="3">
         <v>33600</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB21" s="3">
         <v>6700</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,168 +1942,195 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>43100</v>
+        <v>61200</v>
       </c>
       <c r="E23" s="3">
-        <v>31300</v>
+        <v>45600</v>
       </c>
       <c r="F23" s="3">
-        <v>45200</v>
+        <v>52700</v>
       </c>
       <c r="G23" s="3">
-        <v>40500</v>
+        <v>41700</v>
       </c>
       <c r="H23" s="3">
+        <v>30300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>43800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>39300</v>
+      </c>
+      <c r="K23" s="3">
         <v>56500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>39800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>31900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-122100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>-15800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>-57100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-36000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>29300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>32000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="U23" s="3">
         <v>39600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="V23" s="3">
         <v>35800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="W23" s="3">
         <v>32200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="X23" s="3">
         <v>86600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="Y23" s="3">
         <v>29000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Z23" s="3">
         <v>32800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="AA23" s="3">
         <v>20900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AB23" s="3">
         <v>6400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AC23" s="3">
         <v>10800</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="E24" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F24" s="3">
+        <v>10300</v>
+      </c>
+      <c r="G24" s="3">
+        <v>12600</v>
+      </c>
+      <c r="H24" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I24" s="3">
+        <v>24900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K24" s="3">
+        <v>17000</v>
+      </c>
+      <c r="L24" s="3">
+        <v>8200</v>
+      </c>
+      <c r="M24" s="3">
+        <v>5300</v>
+      </c>
+      <c r="N24" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="O24" s="3">
+        <v>200</v>
+      </c>
+      <c r="P24" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="R24" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="S24" s="3">
+        <v>4100</v>
+      </c>
+      <c r="T24" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="U24" s="3">
+        <v>8200</v>
+      </c>
+      <c r="V24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="W24" s="3">
+        <v>4800</v>
+      </c>
+      <c r="X24" s="3">
+        <v>25100</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>9100</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>9100</v>
+      </c>
+      <c r="AA24" s="3">
         <v>6000</v>
       </c>
-      <c r="F24" s="3">
-        <v>25700</v>
-      </c>
-      <c r="G24" s="3">
-        <v>21900</v>
-      </c>
-      <c r="H24" s="3">
-        <v>17000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>8200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>5300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-31600</v>
-      </c>
-      <c r="L24" s="3">
-        <v>200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="N24" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-10100</v>
-      </c>
-      <c r="P24" s="3">
-        <v>4100</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>-16800</v>
-      </c>
-      <c r="R24" s="3">
-        <v>8200</v>
-      </c>
-      <c r="S24" s="3">
-        <v>-600</v>
-      </c>
-      <c r="T24" s="3">
-        <v>4800</v>
-      </c>
-      <c r="U24" s="3">
-        <v>25100</v>
-      </c>
-      <c r="V24" s="3">
-        <v>9100</v>
-      </c>
-      <c r="W24" s="3">
-        <v>9100</v>
-      </c>
-      <c r="X24" s="3">
-        <v>6000</v>
-      </c>
-      <c r="Y24" s="3">
+      <c r="AB24" s="3">
         <v>2000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AC24" s="3">
         <v>3300</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2209,195 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>30100</v>
+        <v>49200</v>
       </c>
       <c r="E26" s="3">
-        <v>25300</v>
+        <v>38300</v>
       </c>
       <c r="F26" s="3">
-        <v>19400</v>
+        <v>42400</v>
       </c>
       <c r="G26" s="3">
-        <v>18600</v>
+        <v>29200</v>
       </c>
       <c r="H26" s="3">
+        <v>24500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>18800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K26" s="3">
         <v>39600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>31600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>26600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-90500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>-16000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>-50800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-31100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>11900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>25200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>48800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="U26" s="3">
         <v>31400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="V26" s="3">
         <v>36400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="W26" s="3">
         <v>27400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="X26" s="3">
         <v>61600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="Y26" s="3">
         <v>19900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Z26" s="3">
         <v>23600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="AA26" s="3">
         <v>14900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AB26" s="3">
         <v>4400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AC26" s="3">
         <v>7400</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>30100</v>
+        <v>50500</v>
       </c>
       <c r="E27" s="3">
-        <v>26400</v>
+        <v>39200</v>
       </c>
       <c r="F27" s="3">
+        <v>37800</v>
+      </c>
+      <c r="G27" s="3">
+        <v>29200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>25600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>19300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>17800</v>
+      </c>
+      <c r="K27" s="3">
+        <v>39800</v>
+      </c>
+      <c r="L27" s="3">
+        <v>31800</v>
+      </c>
+      <c r="M27" s="3">
+        <v>26900</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-91200</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="R27" s="3">
+        <v>12300</v>
+      </c>
+      <c r="S27" s="3">
+        <v>26500</v>
+      </c>
+      <c r="T27" s="3">
+        <v>49300</v>
+      </c>
+      <c r="U27" s="3">
+        <v>31900</v>
+      </c>
+      <c r="V27" s="3">
+        <v>36800</v>
+      </c>
+      <c r="W27" s="3">
+        <v>27700</v>
+      </c>
+      <c r="X27" s="3">
+        <v>62000</v>
+      </c>
+      <c r="Y27" s="3">
         <v>19900</v>
       </c>
-      <c r="G27" s="3">
-        <v>18400</v>
-      </c>
-      <c r="H27" s="3">
-        <v>39800</v>
-      </c>
-      <c r="I27" s="3">
-        <v>31800</v>
-      </c>
-      <c r="J27" s="3">
-        <v>26900</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-91200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-16500</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-50600</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-31000</v>
-      </c>
-      <c r="O27" s="3">
-        <v>12300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>26500</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>49300</v>
-      </c>
-      <c r="R27" s="3">
-        <v>31900</v>
-      </c>
-      <c r="S27" s="3">
-        <v>36800</v>
-      </c>
-      <c r="T27" s="3">
-        <v>27700</v>
-      </c>
-      <c r="U27" s="3">
-        <v>62000</v>
-      </c>
-      <c r="V27" s="3">
-        <v>19900</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="Z27" s="3">
         <v>23500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="AA27" s="3">
         <v>14900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AB27" s="3">
         <v>4400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AC27" s="3">
         <v>7500</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2476,17 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2565,17 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2654,17 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2743,195 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="E32" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L32" s="3">
+        <v>8200</v>
+      </c>
+      <c r="M32" s="3">
         <v>3800</v>
       </c>
-      <c r="H32" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>3800</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>2800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>6800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="Q32" s="3">
         <v>15500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="R32" s="3">
         <v>14000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="S32" s="3">
         <v>4200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="T32" s="3">
         <v>900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="U32" s="3">
         <v>3100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="V32" s="3">
         <v>8000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="W32" s="3">
         <v>6200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="X32" s="3">
         <v>13100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="Y32" s="3">
         <v>6000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Z32" s="3">
         <v>2600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="AA32" s="3">
         <v>600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AB32" s="3">
         <v>200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AC32" s="3">
         <v>200</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>30100</v>
+        <v>50500</v>
       </c>
       <c r="E33" s="3">
-        <v>26400</v>
+        <v>39200</v>
       </c>
       <c r="F33" s="3">
+        <v>37800</v>
+      </c>
+      <c r="G33" s="3">
+        <v>29200</v>
+      </c>
+      <c r="H33" s="3">
+        <v>25600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>19300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>17800</v>
+      </c>
+      <c r="K33" s="3">
+        <v>39800</v>
+      </c>
+      <c r="L33" s="3">
+        <v>31800</v>
+      </c>
+      <c r="M33" s="3">
+        <v>26900</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-91200</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="R33" s="3">
+        <v>12300</v>
+      </c>
+      <c r="S33" s="3">
+        <v>26500</v>
+      </c>
+      <c r="T33" s="3">
+        <v>49300</v>
+      </c>
+      <c r="U33" s="3">
+        <v>31900</v>
+      </c>
+      <c r="V33" s="3">
+        <v>36800</v>
+      </c>
+      <c r="W33" s="3">
+        <v>27700</v>
+      </c>
+      <c r="X33" s="3">
+        <v>62000</v>
+      </c>
+      <c r="Y33" s="3">
         <v>19900</v>
       </c>
-      <c r="G33" s="3">
-        <v>18400</v>
-      </c>
-      <c r="H33" s="3">
-        <v>39800</v>
-      </c>
-      <c r="I33" s="3">
-        <v>31800</v>
-      </c>
-      <c r="J33" s="3">
-        <v>26900</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-91200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-16500</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-50600</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-31000</v>
-      </c>
-      <c r="O33" s="3">
-        <v>12300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>26500</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>49300</v>
-      </c>
-      <c r="R33" s="3">
-        <v>31900</v>
-      </c>
-      <c r="S33" s="3">
-        <v>36800</v>
-      </c>
-      <c r="T33" s="3">
-        <v>27700</v>
-      </c>
-      <c r="U33" s="3">
-        <v>62000</v>
-      </c>
-      <c r="V33" s="3">
-        <v>19900</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="Z33" s="3">
         <v>23500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="AA33" s="3">
         <v>14900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AB33" s="3">
         <v>4400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AC33" s="3">
         <v>7500</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +3010,200 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>30100</v>
+        <v>50500</v>
       </c>
       <c r="E35" s="3">
-        <v>26400</v>
+        <v>39200</v>
       </c>
       <c r="F35" s="3">
+        <v>37800</v>
+      </c>
+      <c r="G35" s="3">
+        <v>29200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>25600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>19300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>17800</v>
+      </c>
+      <c r="K35" s="3">
+        <v>39800</v>
+      </c>
+      <c r="L35" s="3">
+        <v>31800</v>
+      </c>
+      <c r="M35" s="3">
+        <v>26900</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-91200</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="R35" s="3">
+        <v>12300</v>
+      </c>
+      <c r="S35" s="3">
+        <v>26500</v>
+      </c>
+      <c r="T35" s="3">
+        <v>49300</v>
+      </c>
+      <c r="U35" s="3">
+        <v>31900</v>
+      </c>
+      <c r="V35" s="3">
+        <v>36800</v>
+      </c>
+      <c r="W35" s="3">
+        <v>27700</v>
+      </c>
+      <c r="X35" s="3">
+        <v>62000</v>
+      </c>
+      <c r="Y35" s="3">
         <v>19900</v>
       </c>
-      <c r="G35" s="3">
-        <v>18400</v>
-      </c>
-      <c r="H35" s="3">
-        <v>39800</v>
-      </c>
-      <c r="I35" s="3">
-        <v>31800</v>
-      </c>
-      <c r="J35" s="3">
-        <v>26900</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-91200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-16500</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-50600</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-31000</v>
-      </c>
-      <c r="O35" s="3">
-        <v>12300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>26500</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>49300</v>
-      </c>
-      <c r="R35" s="3">
-        <v>31900</v>
-      </c>
-      <c r="S35" s="3">
-        <v>36800</v>
-      </c>
-      <c r="T35" s="3">
-        <v>27700</v>
-      </c>
-      <c r="U35" s="3">
-        <v>62000</v>
-      </c>
-      <c r="V35" s="3">
-        <v>19900</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="Z35" s="3">
         <v>23500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="AA35" s="3">
         <v>14900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AB35" s="3">
         <v>4400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AC35" s="3">
         <v>7500</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3232,11 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,74 +3265,77 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>92900</v>
+        <v>181900</v>
       </c>
       <c r="E41" s="3">
-        <v>99900</v>
+        <v>126900</v>
       </c>
       <c r="F41" s="3">
-        <v>92300</v>
+        <v>83000</v>
       </c>
       <c r="G41" s="3">
-        <v>83100</v>
+        <v>90100</v>
       </c>
       <c r="H41" s="3">
+        <v>96800</v>
+      </c>
+      <c r="I41" s="3">
+        <v>89400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>80600</v>
+      </c>
+      <c r="K41" s="3">
         <v>138100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>168300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>113700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>103900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>47400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>49100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="Q41" s="3">
         <v>96500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="R41" s="3">
         <v>154900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="S41" s="3">
         <v>145200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="T41" s="3">
         <v>145200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="U41" s="3">
         <v>237600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="V41" s="3">
         <v>162700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="W41" s="3">
         <v>204900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="X41" s="3">
         <v>87200</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3088,8 +3348,17 @@
       <c r="AB41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,74 +3437,83 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>131100</v>
+        <v>205800</v>
       </c>
       <c r="E43" s="3">
-        <v>103900</v>
+        <v>175200</v>
       </c>
       <c r="F43" s="3">
-        <v>105600</v>
+        <v>160100</v>
       </c>
       <c r="G43" s="3">
-        <v>106300</v>
+        <v>127100</v>
       </c>
       <c r="H43" s="3">
+        <v>100700</v>
+      </c>
+      <c r="I43" s="3">
+        <v>102300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>103000</v>
+      </c>
+      <c r="K43" s="3">
         <v>126300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>104200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>83700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>57500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>44700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>36300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="Q43" s="3">
         <v>69600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="R43" s="3">
         <v>118700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="S43" s="3">
         <v>182000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="T43" s="3">
         <v>184600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="U43" s="3">
         <v>190500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="V43" s="3">
         <v>209800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="W43" s="3">
         <v>200200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="X43" s="3">
         <v>214700</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3248,8 +3526,17 @@
       <c r="AB43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,74 +3615,83 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9900</v>
+        <v>3700</v>
       </c>
       <c r="E45" s="3">
-        <v>10700</v>
+        <v>8000</v>
       </c>
       <c r="F45" s="3">
-        <v>11900</v>
+        <v>9800</v>
       </c>
       <c r="G45" s="3">
-        <v>30300</v>
+        <v>9600</v>
       </c>
       <c r="H45" s="3">
+        <v>10400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>11500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>29400</v>
+      </c>
+      <c r="K45" s="3">
         <v>67900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>56100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>56100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>56200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>76500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>90700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="Q45" s="3">
         <v>317700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="R45" s="3">
         <v>188800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="S45" s="3">
         <v>90900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="T45" s="3">
         <v>101400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="U45" s="3">
         <v>34900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="V45" s="3">
         <v>17500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="W45" s="3">
         <v>29300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="X45" s="3">
         <v>25900</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3408,8 +3704,17 @@
       <c r="AB45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3488,74 +3793,83 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>900200</v>
+        <v>936300</v>
       </c>
       <c r="E47" s="3">
-        <v>895400</v>
+        <v>890800</v>
       </c>
       <c r="F47" s="3">
-        <v>827900</v>
+        <v>881700</v>
       </c>
       <c r="G47" s="3">
-        <v>714900</v>
+        <v>872500</v>
       </c>
       <c r="H47" s="3">
+        <v>867800</v>
+      </c>
+      <c r="I47" s="3">
+        <v>802500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>692900</v>
+      </c>
+      <c r="K47" s="3">
         <v>580800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>523200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>554300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>567800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>738100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>695800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="Q47" s="3">
         <v>442800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="R47" s="3">
         <v>531800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="S47" s="3">
         <v>441800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="T47" s="3">
         <v>332600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="U47" s="3">
         <v>168100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="V47" s="3">
         <v>167600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="W47" s="3">
         <v>95900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="X47" s="3">
         <v>137000</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3568,55 +3882,64 @@
       <c r="AB47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E48" s="3">
         <v>800</v>
       </c>
       <c r="F48" s="3">
+        <v>800</v>
+      </c>
+      <c r="G48" s="3">
         <v>700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
+        <v>700</v>
+      </c>
+      <c r="I48" s="3">
+        <v>700</v>
+      </c>
+      <c r="J48" s="3">
         <v>900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="K48" s="3">
         <v>900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>1100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>1300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>1600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>1900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>2400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="Q48" s="3">
         <v>2800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="R48" s="3">
         <v>3100</v>
-      </c>
-      <c r="P48" s="3">
-        <v>3500</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>3400</v>
-      </c>
-      <c r="R48" s="3">
-        <v>3400</v>
       </c>
       <c r="S48" s="3">
         <v>3500</v>
@@ -3625,17 +3948,17 @@
         <v>3400</v>
       </c>
       <c r="U48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="V48" s="3">
+        <v>3500</v>
+      </c>
+      <c r="W48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="X48" s="3">
         <v>2900</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3648,74 +3971,83 @@
       <c r="AB48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="E49" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="F49" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="G49" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="H49" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="I49" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="J49" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="K49" s="3">
         <v>5200</v>
       </c>
       <c r="L49" s="3">
+        <v>5200</v>
+      </c>
+      <c r="M49" s="3">
+        <v>5300</v>
+      </c>
+      <c r="N49" s="3">
+        <v>5200</v>
+      </c>
+      <c r="O49" s="3">
         <v>5500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>5600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="Q49" s="3">
         <v>5500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="R49" s="3">
         <v>5400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="S49" s="3">
         <v>5200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="T49" s="3">
         <v>5000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="U49" s="3">
         <v>4600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="V49" s="3">
         <v>4300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="W49" s="3">
         <v>3900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="X49" s="3">
         <v>200</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3728,8 +4060,17 @@
       <c r="AB49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4149,17 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,74 +4238,83 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>83800</v>
+        <v>93000</v>
       </c>
       <c r="E52" s="3">
-        <v>76100</v>
+        <v>69700</v>
       </c>
       <c r="F52" s="3">
-        <v>115500</v>
+        <v>67900</v>
       </c>
       <c r="G52" s="3">
-        <v>97000</v>
+        <v>81200</v>
       </c>
       <c r="H52" s="3">
+        <v>73800</v>
+      </c>
+      <c r="I52" s="3">
+        <v>111900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>94000</v>
+      </c>
+      <c r="K52" s="3">
         <v>100800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>156900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>164600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>202900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>195000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>241000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="Q52" s="3">
         <v>234200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="R52" s="3">
         <v>150900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="S52" s="3">
         <v>162300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="T52" s="3">
         <v>159700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="U52" s="3">
         <v>144700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="V52" s="3">
         <v>84400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="W52" s="3">
         <v>48500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="X52" s="3">
         <v>53200</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3968,8 +4327,17 @@
       <c r="AB52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,74 +4416,83 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1232900</v>
+        <v>1435300</v>
       </c>
       <c r="E54" s="3">
+        <v>1285200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1217700</v>
+      </c>
+      <c r="G54" s="3">
         <v>1195000</v>
       </c>
-      <c r="F54" s="3">
-        <v>1170900</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1043800</v>
-      </c>
       <c r="H54" s="3">
+        <v>1158300</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1134900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1011700</v>
+      </c>
+      <c r="K54" s="3">
         <v>1025100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>1020800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>996100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>1043700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>1188400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>1197200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>1255400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>1275100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>1182400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>1062400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="U54" s="3">
         <v>878800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="V54" s="3">
         <v>705400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="W54" s="3">
         <v>587100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="X54" s="3">
         <v>523200</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4128,8 +4505,17 @@
       <c r="AB54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4544,11 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4577,11 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4268,68 +4660,77 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12800</v>
+        <v>91300</v>
       </c>
       <c r="E58" s="3">
+        <v>63800</v>
+      </c>
+      <c r="F58" s="3">
+        <v>9700</v>
+      </c>
+      <c r="G58" s="3">
+        <v>12400</v>
+      </c>
+      <c r="H58" s="3">
         <v>2800</v>
       </c>
-      <c r="F58" s="3">
-        <v>17000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>23700</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
+        <v>16500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>22900</v>
+      </c>
+      <c r="K58" s="3">
         <v>10700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>24900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>18200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>48800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>47100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>50300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="Q58" s="3">
         <v>53900</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>62200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="T58" s="3">
         <v>62400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="U58" s="3">
         <v>61300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="V58" s="3">
         <v>30100</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4339,83 +4740,92 @@
       <c r="Y58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>166700</v>
+        <v>177600</v>
       </c>
       <c r="E59" s="3">
-        <v>175200</v>
+        <v>146700</v>
       </c>
       <c r="F59" s="3">
-        <v>171800</v>
+        <v>169000</v>
       </c>
       <c r="G59" s="3">
-        <v>161200</v>
+        <v>161500</v>
       </c>
       <c r="H59" s="3">
+        <v>169900</v>
+      </c>
+      <c r="I59" s="3">
         <v>166500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
+        <v>156200</v>
+      </c>
+      <c r="K59" s="3">
+        <v>166500</v>
+      </c>
+      <c r="L59" s="3">
         <v>236700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>269300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>340100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>581400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>566700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>526300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>593200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>451000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="T59" s="3">
         <v>356800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="U59" s="3">
         <v>242900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="V59" s="3">
         <v>129700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="W59" s="3">
         <v>125800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="X59" s="3">
         <v>161600</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4428,8 +4838,17 @@
       <c r="AB59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4508,74 +4927,83 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>356800</v>
+        <v>418100</v>
       </c>
       <c r="E61" s="3">
-        <v>328000</v>
+        <v>364800</v>
       </c>
       <c r="F61" s="3">
-        <v>306800</v>
+        <v>362100</v>
       </c>
       <c r="G61" s="3">
-        <v>211400</v>
+        <v>345800</v>
       </c>
       <c r="H61" s="3">
+        <v>317900</v>
+      </c>
+      <c r="I61" s="3">
+        <v>297400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>204900</v>
+      </c>
+      <c r="K61" s="3">
         <v>198100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>182700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>198700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>204600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>1500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>3100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="Q61" s="3">
         <v>5100</v>
-      </c>
-      <c r="O61" s="3">
-        <v>2700</v>
-      </c>
-      <c r="P61" s="3">
-        <v>1700</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>2500</v>
       </c>
       <c r="R61" s="3">
         <v>2700</v>
       </c>
       <c r="S61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="T61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="U61" s="3">
+        <v>2700</v>
+      </c>
+      <c r="V61" s="3">
         <v>3200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="W61" s="3">
         <v>12600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="X61" s="3">
         <v>32400</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
@@ -4588,68 +5016,77 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>100</v>
+      </c>
+      <c r="F62" s="3">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="J62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="Q62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="R62" s="3">
         <v>200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="S62" s="3">
         <v>7400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="T62" s="3">
         <v>7400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="U62" s="3">
         <v>7200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="V62" s="3">
         <v>7200</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4659,17 +5096,26 @@
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z62" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA62" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5194,17 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5283,17 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,74 +5372,83 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>588900</v>
+        <v>694400</v>
       </c>
       <c r="E66" s="3">
-        <v>575000</v>
+        <v>590300</v>
       </c>
       <c r="F66" s="3">
-        <v>584100</v>
+        <v>562700</v>
       </c>
       <c r="G66" s="3">
-        <v>478500</v>
+        <v>570800</v>
       </c>
       <c r="H66" s="3">
+        <v>557400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>566200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>463700</v>
+      </c>
+      <c r="K66" s="3">
         <v>482100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>519600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>527600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>615700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>640500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>623800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>589900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>602800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>527800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>435400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>320900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>170400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="W66" s="3">
         <v>140000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="X66" s="3">
         <v>202200</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4988,8 +5461,17 @@
       <c r="AB66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5500,11 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5583,17 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5672,17 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5761,17 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,74 +5850,83 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>191600</v>
+        <v>305200</v>
       </c>
       <c r="E72" s="3">
-        <v>161600</v>
+        <v>262800</v>
       </c>
       <c r="F72" s="3">
-        <v>135200</v>
+        <v>223600</v>
       </c>
       <c r="G72" s="3">
-        <v>115300</v>
+        <v>185800</v>
       </c>
       <c r="H72" s="3">
+        <v>156600</v>
+      </c>
+      <c r="I72" s="3">
+        <v>131000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>111700</v>
+      </c>
+      <c r="K72" s="3">
         <v>96900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>57100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>25300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-2000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>96100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>113600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>175900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>201900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>185000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>164500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>114700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>97400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>55700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="X72" s="3">
         <v>28000</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5418,8 +5939,17 @@
       <c r="AB72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +6028,17 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +6117,17 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,74 +6206,83 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>644000</v>
+        <v>740900</v>
       </c>
       <c r="E76" s="3">
-        <v>620000</v>
+        <v>694800</v>
       </c>
       <c r="F76" s="3">
-        <v>586800</v>
+        <v>654900</v>
       </c>
       <c r="G76" s="3">
-        <v>565300</v>
+        <v>624200</v>
       </c>
       <c r="H76" s="3">
+        <v>600900</v>
+      </c>
+      <c r="I76" s="3">
+        <v>568700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>547900</v>
+      </c>
+      <c r="K76" s="3">
         <v>543000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>501300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>468500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>428000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>547900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>573300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>665500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>672300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>654500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>627000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>557900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>535000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="W76" s="3">
         <v>447100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="X76" s="3">
         <v>321000</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5738,8 +6295,17 @@
       <c r="AB76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6384,200 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>30100</v>
+        <v>50500</v>
       </c>
       <c r="E81" s="3">
-        <v>26400</v>
+        <v>39200</v>
       </c>
       <c r="F81" s="3">
+        <v>37800</v>
+      </c>
+      <c r="G81" s="3">
+        <v>29200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>25600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>19300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>17800</v>
+      </c>
+      <c r="K81" s="3">
+        <v>39800</v>
+      </c>
+      <c r="L81" s="3">
+        <v>31800</v>
+      </c>
+      <c r="M81" s="3">
+        <v>26900</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-91200</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="R81" s="3">
+        <v>12300</v>
+      </c>
+      <c r="S81" s="3">
+        <v>26500</v>
+      </c>
+      <c r="T81" s="3">
+        <v>49300</v>
+      </c>
+      <c r="U81" s="3">
+        <v>31900</v>
+      </c>
+      <c r="V81" s="3">
+        <v>36800</v>
+      </c>
+      <c r="W81" s="3">
+        <v>27700</v>
+      </c>
+      <c r="X81" s="3">
+        <v>62000</v>
+      </c>
+      <c r="Y81" s="3">
         <v>19900</v>
       </c>
-      <c r="G81" s="3">
-        <v>18400</v>
-      </c>
-      <c r="H81" s="3">
-        <v>39800</v>
-      </c>
-      <c r="I81" s="3">
-        <v>31800</v>
-      </c>
-      <c r="J81" s="3">
-        <v>26900</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-91200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-16500</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-50600</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-31000</v>
-      </c>
-      <c r="O81" s="3">
-        <v>12300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>26500</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>49300</v>
-      </c>
-      <c r="R81" s="3">
-        <v>31900</v>
-      </c>
-      <c r="S81" s="3">
-        <v>36800</v>
-      </c>
-      <c r="T81" s="3">
-        <v>27700</v>
-      </c>
-      <c r="U81" s="3">
-        <v>62000</v>
-      </c>
-      <c r="V81" s="3">
-        <v>19900</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="Z81" s="3">
         <v>23500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="AA81" s="3">
         <v>14900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AB81" s="3">
         <v>4400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AC81" s="3">
         <v>7500</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6606,11 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6075,26 +6671,35 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6778,17 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6867,17 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6956,17 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +7045,17 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +7134,17 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6555,26 +7205,35 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7262,11 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6665,26 +7327,35 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7434,17 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7523,17 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6905,26 +7594,35 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7651,11 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7734,17 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7823,17 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7912,17 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +8001,17 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7335,26 +8072,35 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7415,26 +8161,35 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7495,22 +8250,31 @@
       <c r="V102" s="3">
         <v>0</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB102" s="3">
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XYF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XYF_QTR_FIN.xlsx
@@ -793,25 +793,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>168100</v>
+        <v>168500</v>
       </c>
       <c r="E8" s="3">
-        <v>138500</v>
+        <v>138800</v>
       </c>
       <c r="F8" s="3">
-        <v>131700</v>
+        <v>131900</v>
       </c>
       <c r="G8" s="3">
-        <v>123300</v>
+        <v>123500</v>
       </c>
       <c r="H8" s="3">
-        <v>113600</v>
+        <v>113800</v>
       </c>
       <c r="I8" s="3">
-        <v>122400</v>
+        <v>122700</v>
       </c>
       <c r="J8" s="3">
-        <v>113400</v>
+        <v>113700</v>
       </c>
       <c r="K8" s="3">
         <v>137100</v>
@@ -882,25 +882,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>92300</v>
+        <v>92500</v>
       </c>
       <c r="E9" s="3">
-        <v>87300</v>
+        <v>87500</v>
       </c>
       <c r="F9" s="3">
-        <v>81100</v>
+        <v>81300</v>
       </c>
       <c r="G9" s="3">
-        <v>74500</v>
+        <v>74600</v>
       </c>
       <c r="H9" s="3">
-        <v>73400</v>
+        <v>73600</v>
       </c>
       <c r="I9" s="3">
-        <v>64000</v>
+        <v>64100</v>
       </c>
       <c r="J9" s="3">
-        <v>53200</v>
+        <v>53300</v>
       </c>
       <c r="K9" s="3">
         <v>68800</v>
@@ -971,25 +971,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>75900</v>
+        <v>76000</v>
       </c>
       <c r="E10" s="3">
-        <v>51100</v>
+        <v>51200</v>
       </c>
       <c r="F10" s="3">
-        <v>50500</v>
+        <v>50700</v>
       </c>
       <c r="G10" s="3">
-        <v>48800</v>
+        <v>48900</v>
       </c>
       <c r="H10" s="3">
-        <v>40100</v>
+        <v>40200</v>
       </c>
       <c r="I10" s="3">
-        <v>58400</v>
+        <v>58500</v>
       </c>
       <c r="J10" s="3">
-        <v>60300</v>
+        <v>60400</v>
       </c>
       <c r="K10" s="3">
         <v>68300</v>
@@ -1479,25 +1479,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>106900</v>
+        <v>107100</v>
       </c>
       <c r="E17" s="3">
-        <v>96600</v>
+        <v>96800</v>
       </c>
       <c r="F17" s="3">
-        <v>97600</v>
+        <v>97800</v>
       </c>
       <c r="G17" s="3">
-        <v>83100</v>
+        <v>83300</v>
       </c>
       <c r="H17" s="3">
-        <v>86900</v>
+        <v>87100</v>
       </c>
       <c r="I17" s="3">
-        <v>79100</v>
+        <v>79300</v>
       </c>
       <c r="J17" s="3">
-        <v>70500</v>
+        <v>70700</v>
       </c>
       <c r="K17" s="3">
         <v>78700</v>
@@ -1568,25 +1568,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>61300</v>
+        <v>61400</v>
       </c>
       <c r="E18" s="3">
-        <v>41900</v>
+        <v>42000</v>
       </c>
       <c r="F18" s="3">
-        <v>34000</v>
+        <v>34100</v>
       </c>
       <c r="G18" s="3">
-        <v>40200</v>
+        <v>40300</v>
       </c>
       <c r="H18" s="3">
-        <v>26700</v>
+        <v>26800</v>
       </c>
       <c r="I18" s="3">
-        <v>43300</v>
+        <v>43400</v>
       </c>
       <c r="J18" s="3">
-        <v>42900</v>
+        <v>43000</v>
       </c>
       <c r="K18" s="3">
         <v>58400</v>
@@ -1957,25 +1957,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>61200</v>
+        <v>61300</v>
       </c>
       <c r="E23" s="3">
-        <v>45600</v>
+        <v>45700</v>
       </c>
       <c r="F23" s="3">
-        <v>52700</v>
+        <v>52800</v>
       </c>
       <c r="G23" s="3">
-        <v>41700</v>
+        <v>41800</v>
       </c>
       <c r="H23" s="3">
-        <v>30300</v>
+        <v>30400</v>
       </c>
       <c r="I23" s="3">
-        <v>43800</v>
+        <v>43900</v>
       </c>
       <c r="J23" s="3">
-        <v>39300</v>
+        <v>39400</v>
       </c>
       <c r="K23" s="3">
         <v>56500</v>
@@ -2049,10 +2049,10 @@
         <v>12000</v>
       </c>
       <c r="E24" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="F24" s="3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="G24" s="3">
         <v>12600</v>
@@ -2061,10 +2061,10 @@
         <v>5800</v>
       </c>
       <c r="I24" s="3">
-        <v>24900</v>
+        <v>25000</v>
       </c>
       <c r="J24" s="3">
-        <v>21200</v>
+        <v>21300</v>
       </c>
       <c r="K24" s="3">
         <v>17000</v>
@@ -2224,25 +2224,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>49200</v>
+        <v>49300</v>
       </c>
       <c r="E26" s="3">
-        <v>38300</v>
+        <v>38400</v>
       </c>
       <c r="F26" s="3">
-        <v>42400</v>
+        <v>42500</v>
       </c>
       <c r="G26" s="3">
         <v>29200</v>
       </c>
       <c r="H26" s="3">
-        <v>24500</v>
+        <v>24600</v>
       </c>
       <c r="I26" s="3">
-        <v>18800</v>
+        <v>18900</v>
       </c>
       <c r="J26" s="3">
-        <v>18000</v>
+        <v>18100</v>
       </c>
       <c r="K26" s="3">
         <v>39600</v>
@@ -2313,13 +2313,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>50500</v>
+        <v>50600</v>
       </c>
       <c r="E27" s="3">
-        <v>39200</v>
+        <v>39300</v>
       </c>
       <c r="F27" s="3">
-        <v>37800</v>
+        <v>37900</v>
       </c>
       <c r="G27" s="3">
         <v>29200</v>
@@ -2331,7 +2331,7 @@
         <v>19300</v>
       </c>
       <c r="J27" s="3">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="K27" s="3">
         <v>39800</v>
@@ -2847,13 +2847,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>50500</v>
+        <v>50600</v>
       </c>
       <c r="E33" s="3">
-        <v>39200</v>
+        <v>39300</v>
       </c>
       <c r="F33" s="3">
-        <v>37800</v>
+        <v>37900</v>
       </c>
       <c r="G33" s="3">
         <v>29200</v>
@@ -2865,7 +2865,7 @@
         <v>19300</v>
       </c>
       <c r="J33" s="3">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="K33" s="3">
         <v>39800</v>
@@ -3025,13 +3025,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>50500</v>
+        <v>50600</v>
       </c>
       <c r="E35" s="3">
-        <v>39200</v>
+        <v>39300</v>
       </c>
       <c r="F35" s="3">
-        <v>37800</v>
+        <v>37900</v>
       </c>
       <c r="G35" s="3">
         <v>29200</v>
@@ -3043,7 +3043,7 @@
         <v>19300</v>
       </c>
       <c r="J35" s="3">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="K35" s="3">
         <v>39800</v>
@@ -3274,25 +3274,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>181900</v>
+        <v>182300</v>
       </c>
       <c r="E41" s="3">
-        <v>126900</v>
+        <v>127200</v>
       </c>
       <c r="F41" s="3">
-        <v>83000</v>
+        <v>83200</v>
       </c>
       <c r="G41" s="3">
-        <v>90100</v>
+        <v>90300</v>
       </c>
       <c r="H41" s="3">
-        <v>96800</v>
+        <v>97100</v>
       </c>
       <c r="I41" s="3">
-        <v>89400</v>
+        <v>89600</v>
       </c>
       <c r="J41" s="3">
-        <v>80600</v>
+        <v>80700</v>
       </c>
       <c r="K41" s="3">
         <v>138100</v>
@@ -3452,25 +3452,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>205800</v>
+        <v>206200</v>
       </c>
       <c r="E43" s="3">
-        <v>175200</v>
+        <v>175600</v>
       </c>
       <c r="F43" s="3">
-        <v>160100</v>
+        <v>160400</v>
       </c>
       <c r="G43" s="3">
-        <v>127100</v>
+        <v>127300</v>
       </c>
       <c r="H43" s="3">
-        <v>100700</v>
+        <v>100900</v>
       </c>
       <c r="I43" s="3">
-        <v>102300</v>
+        <v>102600</v>
       </c>
       <c r="J43" s="3">
-        <v>103000</v>
+        <v>103200</v>
       </c>
       <c r="K43" s="3">
         <v>126300</v>
@@ -3808,25 +3808,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>936300</v>
+        <v>938300</v>
       </c>
       <c r="E47" s="3">
-        <v>890800</v>
+        <v>892700</v>
       </c>
       <c r="F47" s="3">
-        <v>881700</v>
+        <v>883700</v>
       </c>
       <c r="G47" s="3">
-        <v>872500</v>
+        <v>874400</v>
       </c>
       <c r="H47" s="3">
-        <v>867800</v>
+        <v>869700</v>
       </c>
       <c r="I47" s="3">
-        <v>802500</v>
+        <v>804200</v>
       </c>
       <c r="J47" s="3">
-        <v>692900</v>
+        <v>694400</v>
       </c>
       <c r="K47" s="3">
         <v>580800</v>
@@ -4253,25 +4253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>93000</v>
+        <v>93200</v>
       </c>
       <c r="E52" s="3">
-        <v>69700</v>
+        <v>69900</v>
       </c>
       <c r="F52" s="3">
-        <v>67900</v>
+        <v>68100</v>
       </c>
       <c r="G52" s="3">
-        <v>81200</v>
+        <v>81400</v>
       </c>
       <c r="H52" s="3">
-        <v>73800</v>
+        <v>73900</v>
       </c>
       <c r="I52" s="3">
-        <v>111900</v>
+        <v>112100</v>
       </c>
       <c r="J52" s="3">
-        <v>94000</v>
+        <v>94200</v>
       </c>
       <c r="K52" s="3">
         <v>100800</v>
@@ -4431,25 +4431,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1435300</v>
+        <v>1438400</v>
       </c>
       <c r="E54" s="3">
-        <v>1285200</v>
+        <v>1288000</v>
       </c>
       <c r="F54" s="3">
-        <v>1217700</v>
+        <v>1220300</v>
       </c>
       <c r="G54" s="3">
-        <v>1195000</v>
+        <v>1197600</v>
       </c>
       <c r="H54" s="3">
-        <v>1158300</v>
+        <v>1160800</v>
       </c>
       <c r="I54" s="3">
-        <v>1134900</v>
+        <v>1137400</v>
       </c>
       <c r="J54" s="3">
-        <v>1011700</v>
+        <v>1013900</v>
       </c>
       <c r="K54" s="3">
         <v>1025100</v>
@@ -4675,16 +4675,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>91300</v>
+        <v>91500</v>
       </c>
       <c r="E58" s="3">
-        <v>63800</v>
+        <v>63900</v>
       </c>
       <c r="F58" s="3">
         <v>9700</v>
       </c>
       <c r="G58" s="3">
-        <v>12400</v>
+        <v>12500</v>
       </c>
       <c r="H58" s="3">
         <v>2800</v>
@@ -4693,7 +4693,7 @@
         <v>16500</v>
       </c>
       <c r="J58" s="3">
-        <v>22900</v>
+        <v>23000</v>
       </c>
       <c r="K58" s="3">
         <v>10700</v>
@@ -4764,25 +4764,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>177600</v>
+        <v>178000</v>
       </c>
       <c r="E59" s="3">
-        <v>146700</v>
+        <v>147000</v>
       </c>
       <c r="F59" s="3">
-        <v>169000</v>
+        <v>169400</v>
       </c>
       <c r="G59" s="3">
-        <v>161500</v>
+        <v>161900</v>
       </c>
       <c r="H59" s="3">
-        <v>169900</v>
+        <v>170200</v>
       </c>
       <c r="I59" s="3">
-        <v>166500</v>
+        <v>166900</v>
       </c>
       <c r="J59" s="3">
-        <v>156200</v>
+        <v>156600</v>
       </c>
       <c r="K59" s="3">
         <v>166500</v>
@@ -4942,25 +4942,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>418100</v>
+        <v>419000</v>
       </c>
       <c r="E61" s="3">
-        <v>364800</v>
+        <v>365600</v>
       </c>
       <c r="F61" s="3">
-        <v>362100</v>
+        <v>362900</v>
       </c>
       <c r="G61" s="3">
-        <v>345800</v>
+        <v>346600</v>
       </c>
       <c r="H61" s="3">
-        <v>317900</v>
+        <v>318600</v>
       </c>
       <c r="I61" s="3">
-        <v>297400</v>
+        <v>298000</v>
       </c>
       <c r="J61" s="3">
-        <v>204900</v>
+        <v>205400</v>
       </c>
       <c r="K61" s="3">
         <v>198100</v>
@@ -5387,25 +5387,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>694400</v>
+        <v>695900</v>
       </c>
       <c r="E66" s="3">
-        <v>590300</v>
+        <v>591600</v>
       </c>
       <c r="F66" s="3">
-        <v>562700</v>
+        <v>564000</v>
       </c>
       <c r="G66" s="3">
-        <v>570800</v>
+        <v>572000</v>
       </c>
       <c r="H66" s="3">
-        <v>557400</v>
+        <v>558600</v>
       </c>
       <c r="I66" s="3">
-        <v>566200</v>
+        <v>567400</v>
       </c>
       <c r="J66" s="3">
-        <v>463700</v>
+        <v>464800</v>
       </c>
       <c r="K66" s="3">
         <v>482100</v>
@@ -5865,25 +5865,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>305200</v>
+        <v>305800</v>
       </c>
       <c r="E72" s="3">
-        <v>262800</v>
+        <v>263300</v>
       </c>
       <c r="F72" s="3">
-        <v>223600</v>
+        <v>224100</v>
       </c>
       <c r="G72" s="3">
-        <v>185800</v>
+        <v>186200</v>
       </c>
       <c r="H72" s="3">
-        <v>156600</v>
+        <v>156900</v>
       </c>
       <c r="I72" s="3">
-        <v>131000</v>
+        <v>131300</v>
       </c>
       <c r="J72" s="3">
-        <v>111700</v>
+        <v>112000</v>
       </c>
       <c r="K72" s="3">
         <v>96900</v>
@@ -6221,25 +6221,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>740900</v>
+        <v>742500</v>
       </c>
       <c r="E76" s="3">
-        <v>694800</v>
+        <v>696300</v>
       </c>
       <c r="F76" s="3">
-        <v>654900</v>
+        <v>656300</v>
       </c>
       <c r="G76" s="3">
-        <v>624200</v>
+        <v>625500</v>
       </c>
       <c r="H76" s="3">
-        <v>600900</v>
+        <v>602200</v>
       </c>
       <c r="I76" s="3">
-        <v>568700</v>
+        <v>570000</v>
       </c>
       <c r="J76" s="3">
-        <v>547900</v>
+        <v>549100</v>
       </c>
       <c r="K76" s="3">
         <v>543000</v>
@@ -6493,13 +6493,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>50500</v>
+        <v>50600</v>
       </c>
       <c r="E81" s="3">
-        <v>39200</v>
+        <v>39300</v>
       </c>
       <c r="F81" s="3">
-        <v>37800</v>
+        <v>37900</v>
       </c>
       <c r="G81" s="3">
         <v>29200</v>
@@ -6511,7 +6511,7 @@
         <v>19300</v>
       </c>
       <c r="J81" s="3">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="K81" s="3">
         <v>39800</v>
